--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics Table" sheetId="7" r:id="rId1"/>
     <sheet name="Accuracy" sheetId="8" r:id="rId2"/>
-    <sheet name="Confusion Matrices" sheetId="6" r:id="rId3"/>
-    <sheet name="Notes" sheetId="2" r:id="rId4"/>
+    <sheet name="Balanced Accuracy" sheetId="9" r:id="rId3"/>
+    <sheet name="Confusion Matrices" sheetId="6" r:id="rId4"/>
+    <sheet name="Notes" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="75">
   <si>
     <t>3 Session</t>
   </si>
@@ -102,9 +103,6 @@
   </si>
   <si>
     <t>Personal</t>
-  </si>
-  <si>
-    <t>Impersonal</t>
   </si>
   <si>
     <t>Healthy</t>
@@ -230,36 +228,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">IMPERSONAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(RF_Patient_Impersonal.m) - 50 Trees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HEALTHY </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(RF_Patient_Healthy.m) - 50 Trees</t>
-    </r>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -273,9 +241,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>Stacked</t>
   </si>
   <si>
     <t>Median</t>
@@ -303,6 +268,39 @@
   </si>
   <si>
     <t>Brace</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GLOBAL HEALTHY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Model_Healthy.m) - 50 Trees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GLOBAL PATIENTS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Model_Patients.m) - X Trees</t>
+    </r>
+  </si>
+  <si>
+    <t>Patients</t>
   </si>
 </sst>
 </file>
@@ -611,17 +609,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,14 +618,8 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -691,10 +674,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,15 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -849,16 +847,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.255981593096214</c:v>
+                    <c:v>0.0440081755395449</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0</c:v>
+                    <c:v>0.0268288538489872</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0</c:v>
+                    <c:v>0.0219168671109486</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0</c:v>
+                    <c:v>0.0263506827196529</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -870,16 +868,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.255981593096214</c:v>
+                    <c:v>0.0440081755395449</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0</c:v>
+                    <c:v>0.0268288538489872</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0</c:v>
+                    <c:v>0.0219168671109486</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0</c:v>
+                    <c:v>0.0263506827196529</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -907,7 +905,7 @@
                   <c:v>Healthy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impersonal</c:v>
+                  <c:v>Patients</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Personal</c:v>
@@ -925,16 +923,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.597925564368517</c:v>
+                  <c:v>0.567004741728079</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.794784142457189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.768489196944758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.845941426111646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,11 +948,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2143501968"/>
-        <c:axId val="2142546400"/>
+        <c:axId val="2137384416"/>
+        <c:axId val="2137396544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143501968"/>
+        <c:axId val="2137384416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142546400"/>
+        <c:crossAx val="2137396544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,7 +1003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142546400"/>
+        <c:axId val="2137396544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1057,7 +1055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143501968"/>
+        <c:crossAx val="2137384416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1229,13 +1227,13 @@
                   <c:v>Healthy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impersonal</c:v>
+                  <c:v>Patients</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Personal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Stacked</c:v>
+                  <c:v>Brace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1247,16 +1245,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.497670807453416</c:v>
+                  <c:v>0.479037267080745</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.744385026737968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.790372670807453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.90139751552795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,13 +1308,13 @@
                   <c:v>Healthy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impersonal</c:v>
+                  <c:v>Patients</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Personal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Stacked</c:v>
+                  <c:v>Brace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1328,16 +1326,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.425832492431887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.670623145400593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.678102926337033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.746720484359233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,13 +1389,13 @@
                   <c:v>Healthy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impersonal</c:v>
+                  <c:v>Patients</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Personal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Stacked</c:v>
+                  <c:v>Brace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1409,16 +1407,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.545253863134658</c:v>
+                  <c:v>0.54639175257732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.769360269360269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.797496318114875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.723858615611193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,13 +1470,13 @@
                   <c:v>Healthy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impersonal</c:v>
+                  <c:v>Patients</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Personal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Stacked</c:v>
+                  <c:v>Brace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1490,16 +1488,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.778371161548732</c:v>
+                  <c:v>0.613980409617097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.901486988847584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.800979519145147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.85040071237756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,13 +1551,13 @@
                   <c:v>Healthy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impersonal</c:v>
+                  <c:v>Patients</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Personal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Stacked</c:v>
+                  <c:v>Brace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1571,16 +1569,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.382730455075846</c:v>
+                  <c:v>0.307242990654206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.722680913064595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.767523364485981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.892523364485981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,13 +1638,13 @@
                   <c:v>Healthy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impersonal</c:v>
+                  <c:v>Patients</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Personal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Stacked</c:v>
+                  <c:v>Brace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1658,16 +1656,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.512304250559284</c:v>
+                  <c:v>0.598326359832636</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.79923518164436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.822594142259414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.809205020920502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,13 +1725,13 @@
                   <c:v>Healthy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impersonal</c:v>
+                  <c:v>Patients</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Personal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Stacked</c:v>
+                  <c:v>Brace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1745,16 +1743,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.545454545454545</c:v>
+                  <c:v>0.75422138836773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.74424898511502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.686053783614759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.957473420888055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,13 +1806,13 @@
                   <c:v>Healthy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impersonal</c:v>
+                  <c:v>Patients</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Personal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Stacked</c:v>
+                  <c:v>Brace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1826,16 +1824,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.597925564368517</c:v>
+                  <c:v>0.721720430107527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.93983286908078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.839569892473118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,13 +1893,13 @@
                   <c:v>Healthy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impersonal</c:v>
+                  <c:v>Patients</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Personal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Stacked</c:v>
+                  <c:v>Brace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1913,16 +1911,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.809484873262469</c:v>
+                  <c:v>0.690941385435169</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.784545454545455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.658081705150977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.847246891651865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,13 +1980,13 @@
                   <c:v>Healthy</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Impersonal</c:v>
+                  <c:v>Patients</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Personal</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Stacked</c:v>
+                  <c:v>Brace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2000,16 +1998,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.808095952023988</c:v>
+                  <c:v>0.532352941176471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.87144259077527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.844117647058824</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.770588235294118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,11 +2024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142367344"/>
-        <c:axId val="2142364256"/>
+        <c:axId val="2138586336"/>
+        <c:axId val="2135160464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142367344"/>
+        <c:axId val="2138586336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142364256"/>
+        <c:crossAx val="2135160464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2081,7 +2079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142364256"/>
+        <c:axId val="2135160464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2133,7 +2131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142367344"/>
+        <c:crossAx val="2138586336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2249,6 +2247,1476 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Population</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Accuracy Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Balanced Accuracy'!$G$4:$G$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.0404416743759801</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0512235514274057</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0365622204814263</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0365994208026833</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Balanced Accuracy'!$G$4:$G$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.0404416743759801</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0512235514274057</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0365622204814263</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0365994208026833</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$E$4:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balanced Accuracy'!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.533190337188821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.675887835482995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.698810569510723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78499254471075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2138625776"/>
+        <c:axId val="2138610528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2138625776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2138610528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2138610528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2138625776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Individual Accuracy Across Models</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balanced Accuracy'!$F$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.450873259366802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.548540192124209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.701170103932147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.816127899445271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balanced Accuracy'!$F$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.365084337447912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.464287089930649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.527707553502914</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.657701532831439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balanced Accuracy'!$F$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.466450769374086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.582439647875412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.657972763723238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.629316787414804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balanced Accuracy'!$F$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.605613800102332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.566982340539804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.724272608566215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.764097295459184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balanced Accuracy'!$F$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.345308929931455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.744100117699319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.740505733265634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.873485233138699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balanced Accuracy'!$F$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.641046614886341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79051724137931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.777509400409652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.796236239079508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balanced Accuracy'!$F$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.752370695938657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.735990054967121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.660615105396659</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.956684214998802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balanced Accuracy'!$F$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.613936316840532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.934263581264296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.861089531062749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.944226471397578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balanced Accuracy'!$F$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5274193427302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.514772700519854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.508683206962448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.664491841078399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CBR19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Healthy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Personal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Balanced Accuracy'!$F$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.563799305269894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.876985388529981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.828579688285571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.747557932263815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2138707760"/>
+        <c:axId val="2138710896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2138707760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2138710896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2138710896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2138707760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Accuracies</a:t>
             </a:r>
             <a:r>
@@ -2259,7 +3727,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2522,11 +3989,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2125334464"/>
-        <c:axId val="2125337888"/>
+        <c:axId val="2138792912"/>
+        <c:axId val="2138796336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125334464"/>
+        <c:axId val="2138792912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,7 +4036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125337888"/>
+        <c:crossAx val="2138796336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2577,7 +4044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125337888"/>
+        <c:axId val="2138796336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2628,7 +4095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125334464"/>
+        <c:crossAx val="2138792912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2642,7 +4109,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2829,6 +4295,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3836,6 +5382,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4382,7 +6934,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4408,6 +6960,75 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4232</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>825499</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4232</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4722,119 +7343,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="21">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="21">
         <v>68</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="25" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="26">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="26">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="26">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="26">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="26">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="26">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="26">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="26">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="26">
+      <c r="C11" s="21">
         <v>44</v>
       </c>
     </row>
@@ -4851,123 +7472,123 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="21">
         <v>69</v>
       </c>
-      <c r="C16" s="26">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="26">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="26">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="26">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="26">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="26">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="26">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="B25" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="26">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="26">
+      <c r="B26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="21">
         <v>72</v>
       </c>
     </row>
@@ -4995,841 +7616,901 @@
   </sheetPr>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:B57"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="22.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="22.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
-    <col min="6" max="9" width="10.83203125" style="3"/>
-    <col min="10" max="10" width="10.83203125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" style="3" customWidth="1"/>
     <col min="11" max="14" width="10.83203125" style="3"/>
     <col min="15" max="15" width="10.83203125" style="3" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="A1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="F3" s="42" t="s">
+      <c r="B3" s="9">
+        <v>0.90139751552795</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="F3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>71</v>
+      <c r="G3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="9">
+        <v>0.74672048435923299</v>
+      </c>
+      <c r="C4" s="42"/>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
-        <f>B55</f>
-        <v>0.59792556436851696</v>
+        <f>B58</f>
+        <v>0.5670047417280788</v>
       </c>
       <c r="G4" s="2">
-        <f>B56/SQRT(10)</f>
-        <v>0.25598159309621371</v>
+        <f>B59/SQRT(10)</f>
+        <v>4.4008175539544926E-2</v>
       </c>
       <c r="H4" s="2">
         <f>MEDIAN(F11:F20)</f>
-        <v>0.54535420429460146</v>
+        <v>0.57235905620497807</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="9">
+        <v>0.72385861561119302</v>
+      </c>
+      <c r="C5" s="43"/>
       <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="e">
+        <v>74</v>
+      </c>
+      <c r="F5" s="2">
         <f>B43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="2" t="e">
-        <f>B43/SQRT(10)</f>
-        <v>#DIV/0!</v>
+        <v>0.79478414245718931</v>
+      </c>
+      <c r="G5" s="2">
+        <f>B44/SQRT(10)</f>
+        <v>2.6828853848987234E-2</v>
       </c>
       <c r="H5" s="2">
         <f>MEDIAN(G11:G20)</f>
-        <v>0</v>
+        <v>0.77695286195286206</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="9">
+        <v>0.85040071237755999</v>
+      </c>
+      <c r="C6" s="42"/>
       <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="e">
-        <f>B29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="2" t="e">
+      <c r="F6" s="2">
+        <f>B28</f>
+        <v>0.76848919694475815</v>
+      </c>
+      <c r="G6" s="2">
         <f>B29/SQRT(10)</f>
-        <v>#DIV/0!</v>
+        <v>2.1916867110948594E-2</v>
       </c>
       <c r="H6" s="2">
-        <f>MEDIAN(H11:H20)</f>
-        <v>0</v>
+        <f>MEDIAN(I11:I20)</f>
+        <v>0.84882380201471253</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.89252336448598102</v>
+      </c>
+      <c r="C7" s="42"/>
       <c r="E7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="2" t="e">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2">
         <f>B13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="2" t="e">
+        <v>0.84594142611164569</v>
+      </c>
+      <c r="G7" s="2">
         <f>B14/SQRT(10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="2">
-        <f>MEDIAN(I11:I20)</f>
-        <v>0</v>
+        <v>2.6350682719652945E-2</v>
+      </c>
+      <c r="H7" s="2" t="e">
+        <f>MEDIAN(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="9">
+        <v>0.80920502092050195</v>
+      </c>
+      <c r="C8" s="42"/>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.95747342088805498</v>
+      </c>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="F10" s="42" t="s">
+      <c r="A10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="B10" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="F10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="G10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="42" t="s">
-        <v>70</v>
+      <c r="I10" s="36" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="E11" s="50" t="s">
+      <c r="B11" s="9">
+        <v>0.84724689165186495</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="E11" s="39" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F20" si="0">B48</f>
-        <v>0.49767080745341602</v>
+        <v>0.47903726708074501</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ref="G11:G20" si="1">B33</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" ref="H11:H20" si="2">B18</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="49">
+        <v>0.74438502673796803</v>
+      </c>
+      <c r="H11" s="38">
+        <f>B18</f>
+        <v>0.79037267080745299</v>
+      </c>
+      <c r="I11" s="38">
         <f>B3</f>
-        <v>0</v>
+        <v>0.90139751552795</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="E12" s="51" t="s">
+      <c r="A12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.77058823529411802</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="E12" s="40" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.42583249243188698</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="49">
+        <v>0.67062314540059298</v>
+      </c>
+      <c r="H12" s="38">
+        <f t="shared" ref="H12:H20" si="2">B19</f>
+        <v>0.67810292633703295</v>
+      </c>
+      <c r="I12" s="38">
         <f t="shared" ref="I12:I20" si="3">B4</f>
-        <v>0</v>
+        <v>0.74672048435923299</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="e">
+      <c r="B13" s="11">
         <f>AVERAGE(B3:B12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="E13" s="50" t="s">
+        <v>0.84594142611164569</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="E13" s="39" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54525386313465796</v>
+        <v>0.54639175257731998</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
+        <v>0.76936026936026902</v>
+      </c>
+      <c r="H13" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="49">
+        <v>0.79749631811487498</v>
+      </c>
+      <c r="I13" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.72385861561119302</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="e">
+      <c r="B14" s="11">
         <f>STDEV(B3:B12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="E14" s="50" t="s">
+        <v>8.3328175294543463E-2</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="E14" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.77837116154873198</v>
+        <v>0.61398040961709699</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
+        <v>0.90148698884758405</v>
+      </c>
+      <c r="H14" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="49">
+        <v>0.80097951914514698</v>
+      </c>
+      <c r="I14" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.85040071237755999</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="E15" s="51" t="s">
-        <v>33</v>
+      <c r="A15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="42"/>
+      <c r="E15" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.38273045507584602</v>
+        <v>0.30724299065420602</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+        <v>0.72268091306459503</v>
+      </c>
+      <c r="H15" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="49">
+        <v>0.76752336448598102</v>
+      </c>
+      <c r="I15" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.89252336448598102</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="E16" s="51" t="s">
+      <c r="A16" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="E16" s="40" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.51230425055928397</v>
+        <v>0.59832635983263605</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
+        <v>0.79923518164436003</v>
+      </c>
+      <c r="H16" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="49">
+        <v>0.82259414225941396</v>
+      </c>
+      <c r="I16" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.80920502092050195</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="51" t="s">
-        <v>73</v>
+      <c r="E17" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.54545454545454497</v>
+        <v>0.75422138836773001</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
+        <v>0.74424898511502002</v>
+      </c>
+      <c r="H17" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="49">
+        <v>0.68605378361475899</v>
+      </c>
+      <c r="I17" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.95747342088805498</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="E18" s="51" t="s">
-        <v>27</v>
+      <c r="B18" s="9">
+        <v>0.79037267080745299</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="E18" s="40" t="s">
+        <v>26</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0.59792556436851696</v>
+        <v>0.72172043010752696</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
+        <v>0.93983286908078001</v>
+      </c>
+      <c r="H18" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="49">
+        <v>0.83956989247311797</v>
+      </c>
+      <c r="I18" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="E19" s="50" t="s">
+      <c r="B19" s="9">
+        <v>0.67810292633703295</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="E19" s="39" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.80948487326246898</v>
+        <v>0.69094138543516903</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
+        <v>0.78454545454545499</v>
+      </c>
+      <c r="H19" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="49">
+        <v>0.65808170515097697</v>
+      </c>
+      <c r="I19" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.84724689165186495</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="12"/>
-      <c r="E20" s="50" t="s">
-        <v>74</v>
+      <c r="B20" s="2">
+        <v>0.79749631811487498</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="E20" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.80809595202398798</v>
+        <v>0.53235294117647103</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.87144259077526998</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="49">
+        <v>0.84411764705882397</v>
+      </c>
+      <c r="I20" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.77058823529411802</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="2">
+        <v>0.80097951914514698</v>
+      </c>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.76752336448598102</v>
+      </c>
+      <c r="C22" s="42"/>
     </row>
     <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="2">
+        <v>0.82259414225941396</v>
+      </c>
+      <c r="C23" s="42"/>
     </row>
     <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="E24" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
+      <c r="A24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.68605378361475899</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="E24" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.83956989247311797</v>
+      </c>
+      <c r="C25" s="42"/>
       <c r="E25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="23"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="2">
+        <v>0.65808170515097697</v>
+      </c>
+      <c r="C26" s="42"/>
       <c r="E26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="23"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.84411764705882397</v>
+      </c>
+      <c r="C27" s="42"/>
       <c r="E27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="23"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="14" t="e">
+      <c r="B28" s="11">
         <f>AVERAGE(B18:B27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C28" s="15"/>
+        <v>0.76848919694475815</v>
+      </c>
+      <c r="C28" s="44"/>
       <c r="E28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="23"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="14" t="e">
+      <c r="B29" s="11">
         <f>STDEV(B18:B27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C29" s="15"/>
+        <v>6.930721924583183E-2</v>
+      </c>
+      <c r="C29" s="44"/>
       <c r="E29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="23"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="42"/>
       <c r="E30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="23"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
+      <c r="A31" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="37"/>
       <c r="E31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="23"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="41" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="23"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="9">
+        <v>0.74438502673796803</v>
+      </c>
+      <c r="C33" s="42"/>
       <c r="E33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="23"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="9">
+        <v>0.67062314540059298</v>
+      </c>
+      <c r="C34" s="42"/>
       <c r="E34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="23"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="9">
+        <v>0.76936026936026902</v>
+      </c>
+      <c r="C35" s="42"/>
       <c r="E35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="23"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="9">
+        <v>0.90148698884758405</v>
+      </c>
+      <c r="C36" s="42"/>
       <c r="E36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="23"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9">
+        <v>0.72268091306459503</v>
+      </c>
+      <c r="C37" s="42"/>
       <c r="E37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="23"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="9">
+        <v>0.79923518164436003</v>
+      </c>
+      <c r="C38" s="42"/>
       <c r="I38"/>
-      <c r="J38" s="23"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="9">
+        <v>0.74424898511502002</v>
+      </c>
+      <c r="C39" s="42"/>
       <c r="I39"/>
-      <c r="J39" s="23"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="9">
+        <v>0.93983286908078001</v>
+      </c>
+      <c r="C40" s="42"/>
       <c r="I40"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
+      <c r="B41" s="9">
+        <v>0.78454545454545499</v>
+      </c>
+      <c r="C41" s="42"/>
       <c r="I41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="9">
+        <v>0.87144259077526998</v>
+      </c>
+      <c r="C42" s="42"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="14" t="e">
+      <c r="B43" s="11">
         <f>AVERAGE(B33:B42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C43" s="15"/>
+        <v>0.79478414245718931</v>
+      </c>
+      <c r="C43" s="44"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="14" t="e">
+      <c r="B44" s="11">
         <f>STDEV(B33:B42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C44" s="15"/>
+        <v>8.4840285174574773E-2</v>
+      </c>
+      <c r="C44" s="44"/>
     </row>
     <row r="45" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="42"/>
     </row>
     <row r="46" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="41"/>
+      <c r="A46" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="37"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="41" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="10">
-        <v>0.49767080745341602</v>
-      </c>
-      <c r="C48" s="11"/>
+      <c r="B48" s="9">
+        <v>0.47903726708074501</v>
+      </c>
+      <c r="C48" s="42"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C49" s="11"/>
+      <c r="B49" s="9">
+        <v>0.42583249243188698</v>
+      </c>
+      <c r="C49" s="42"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="10">
-        <v>0.54525386313465796</v>
-      </c>
-      <c r="C50" s="11"/>
+      <c r="B50" s="9">
+        <v>0.54639175257731998</v>
+      </c>
+      <c r="C50" s="42"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="10">
-        <v>0.77837116154873198</v>
-      </c>
-      <c r="C51" s="11"/>
+      <c r="B51" s="9">
+        <v>0.61398040961709699</v>
+      </c>
+      <c r="C51" s="42"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="10">
-        <v>0.38273045507584602</v>
-      </c>
-      <c r="C52" s="11"/>
+      <c r="A52" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="9">
+        <v>0.30724299065420602</v>
+      </c>
+      <c r="C52" s="42"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="10">
-        <v>0.51230425055928397</v>
-      </c>
-      <c r="C53" s="11"/>
+      <c r="B53" s="9">
+        <v>0.59832635983263605</v>
+      </c>
+      <c r="C53" s="42"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="10">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="C54" s="11"/>
+      <c r="A54" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="9">
+        <v>0.75422138836773001</v>
+      </c>
+      <c r="C54" s="42"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="10">
-        <v>0.59792556436851696</v>
-      </c>
-      <c r="C55" s="11"/>
+      <c r="A55" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="9">
+        <v>0.72172043010752696</v>
+      </c>
+      <c r="C55" s="42"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="10">
-        <v>0.80948487326246898</v>
-      </c>
-      <c r="C56" s="11"/>
+      <c r="B56" s="9">
+        <v>0.69094138543516903</v>
+      </c>
+      <c r="C56" s="42"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="10">
-        <v>0.80809595202398798</v>
-      </c>
-      <c r="C57" s="11"/>
+      <c r="A57" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="9">
+        <v>0.53235294117647103</v>
+      </c>
+      <c r="C57" s="42"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="11">
         <f>AVERAGE(B48:B57)</f>
-        <v>0.59772914728814552</v>
-      </c>
-      <c r="C58" s="15"/>
+        <v>0.5670047417280788</v>
+      </c>
+      <c r="C58" s="44"/>
     </row>
     <row r="59" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="12">
         <f>STDEV(B48:B57)</f>
-        <v>0.14918186276101203</v>
-      </c>
-      <c r="C59" s="17"/>
+        <v>0.13916607037347145</v>
+      </c>
+      <c r="C59" s="45"/>
     </row>
   </sheetData>
   <sortState ref="E4:H7">
@@ -5848,6 +8529,918 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:J59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="22.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" style="3" customWidth="1"/>
+    <col min="11" max="14" width="10.83203125" style="3"/>
+    <col min="15" max="15" width="10.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.81612789944527098</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="F3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.65770153283143895</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <f>B58</f>
+        <v>0.53319033718882114</v>
+      </c>
+      <c r="G4" s="2">
+        <f>B59/SQRT(10)</f>
+        <v>4.0441674375980133E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <f>MEDIAN(F11:F20)</f>
+        <v>0.54560932400004702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.62931678741480401</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="E5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="2">
+        <f>B43</f>
+        <v>0.67588783548299547</v>
+      </c>
+      <c r="G5" s="2">
+        <f>B44/SQRT(10)</f>
+        <v>5.1223551427405735E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <f>MEDIAN(G11:G20)</f>
+        <v>0.65921485142126657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.76409729545918403</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <f>B28</f>
+        <v>0.69881056951072273</v>
+      </c>
+      <c r="G6" s="2">
+        <f>B29/SQRT(10)</f>
+        <v>3.6562220481426273E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <f>MEDIAN(I11:I20)</f>
+        <v>0.78016676726934597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.87348523313869897</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="E7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2">
+        <f>B13</f>
+        <v>0.78499254471074986</v>
+      </c>
+      <c r="G7" s="2">
+        <f>B14/SQRT(10)</f>
+        <v>3.6599420802683302E-2</v>
+      </c>
+      <c r="H7" s="2" t="e">
+        <f>MEDIAN(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.79623623907950802</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.95668421499880196</v>
+      </c>
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.94422647139757798</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="F10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.66449184107839898</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="E11" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="38">
+        <f t="shared" ref="F11:F20" si="0">B48</f>
+        <v>0.450873259366802</v>
+      </c>
+      <c r="G11" s="38">
+        <f>B33</f>
+        <v>0.54854019212420901</v>
+      </c>
+      <c r="H11" s="38">
+        <f>B18</f>
+        <v>0.70117010393214696</v>
+      </c>
+      <c r="I11" s="38">
+        <f>B3</f>
+        <v>0.81612789944527098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.74755793226381495</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="E12" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="38">
+        <f t="shared" si="0"/>
+        <v>0.36508433744791202</v>
+      </c>
+      <c r="G12" s="38">
+        <f t="shared" ref="G12:G20" si="1">B34</f>
+        <v>0.46428708993064899</v>
+      </c>
+      <c r="H12" s="38">
+        <f t="shared" ref="H12:H20" si="2">B19</f>
+        <v>0.52770755350291398</v>
+      </c>
+      <c r="I12" s="38">
+        <f t="shared" ref="I12:I20" si="3">B4</f>
+        <v>0.65770153283143895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11">
+        <f>AVERAGE(B3:B12)</f>
+        <v>0.78499254471074986</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="E13" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="0"/>
+        <v>0.46645076937408603</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="1"/>
+        <v>0.58243964787541203</v>
+      </c>
+      <c r="H13" s="38">
+        <f t="shared" si="2"/>
+        <v>0.65797276372323799</v>
+      </c>
+      <c r="I13" s="38">
+        <f t="shared" si="3"/>
+        <v>0.62931678741480401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11">
+        <f>STDEV(B3:B12)</f>
+        <v>0.11573753077942728</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="E14" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="shared" si="0"/>
+        <v>0.60561380010233201</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" si="1"/>
+        <v>0.56698234053980401</v>
+      </c>
+      <c r="H14" s="38">
+        <f t="shared" si="2"/>
+        <v>0.724272608566215</v>
+      </c>
+      <c r="I14" s="38">
+        <f t="shared" si="3"/>
+        <v>0.76409729545918403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="42"/>
+      <c r="E15" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="0"/>
+        <v>0.34530892993145501</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="1"/>
+        <v>0.74410011769931905</v>
+      </c>
+      <c r="H15" s="38">
+        <f t="shared" si="2"/>
+        <v>0.74050573326563396</v>
+      </c>
+      <c r="I15" s="38">
+        <f t="shared" si="3"/>
+        <v>0.87348523313869897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="E16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="shared" si="0"/>
+        <v>0.64104661488634096</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="1"/>
+        <v>0.79051724137931001</v>
+      </c>
+      <c r="H16" s="38">
+        <f t="shared" si="2"/>
+        <v>0.777509400409652</v>
+      </c>
+      <c r="I16" s="38">
+        <f t="shared" si="3"/>
+        <v>0.79623623907950802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" si="0"/>
+        <v>0.75237069593865702</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="1"/>
+        <v>0.735990054967121</v>
+      </c>
+      <c r="H17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.66061510539665902</v>
+      </c>
+      <c r="I17" s="38">
+        <f t="shared" si="3"/>
+        <v>0.95668421499880196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.70117010393214696</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="E18" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="0"/>
+        <v>0.61393631684053196</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="1"/>
+        <v>0.93426358126429598</v>
+      </c>
+      <c r="H18" s="38">
+        <f t="shared" si="2"/>
+        <v>0.86108953106274899</v>
+      </c>
+      <c r="I18" s="38">
+        <f t="shared" si="3"/>
+        <v>0.94422647139757798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.52770755350291398</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="E19" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="0"/>
+        <v>0.52741934273019997</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="1"/>
+        <v>0.51477270051985402</v>
+      </c>
+      <c r="H19" s="38">
+        <f t="shared" si="2"/>
+        <v>0.50868320696244795</v>
+      </c>
+      <c r="I19" s="38">
+        <f t="shared" si="3"/>
+        <v>0.66449184107839898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.65797276372323799</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="E20" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="0"/>
+        <v>0.56379930526989397</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="1"/>
+        <v>0.87698538852998098</v>
+      </c>
+      <c r="H20" s="38">
+        <f t="shared" si="2"/>
+        <v>0.82857968828557105</v>
+      </c>
+      <c r="I20" s="38">
+        <f t="shared" si="3"/>
+        <v>0.74755793226381495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.724272608566215</v>
+      </c>
+      <c r="C21" s="42"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.74050573326563396</v>
+      </c>
+      <c r="C22" s="42"/>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.777509400409652</v>
+      </c>
+      <c r="C23" s="42"/>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.66061510539665902</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="E24" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.86108953106274899</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.50868320696244795</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="E26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.82857968828557105</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="E27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="11">
+        <f>AVERAGE(B18:B27)</f>
+        <v>0.69881056951072273</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="E28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="11">
+        <f>STDEV(B18:B27)</f>
+        <v>0.11561989303456509</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="E29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="42"/>
+      <c r="E30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="37"/>
+      <c r="E31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.54854019212420901</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="E33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.46428708993064899</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="E34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.58243964787541203</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="E35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.56698234053980401</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="E36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.74410011769931905</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="E37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.79051724137931001</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="I38"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.735990054967121</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="I39"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.93426358126429598</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.51477270051985402</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.87698538852998098</v>
+      </c>
+      <c r="C42" s="42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="11">
+        <f>AVERAGE(B33:B42)</f>
+        <v>0.67588783548299547</v>
+      </c>
+      <c r="C43" s="44"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="11">
+        <f>STDEV(B33:B42)</f>
+        <v>0.16198309235337127</v>
+      </c>
+      <c r="C44" s="44"/>
+    </row>
+    <row r="45" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="42"/>
+    </row>
+    <row r="46" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="37"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="9">
+        <v>0.450873259366802</v>
+      </c>
+      <c r="C48" s="42"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="9">
+        <v>0.36508433744791202</v>
+      </c>
+      <c r="C49" s="42"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="9">
+        <v>0.46645076937408603</v>
+      </c>
+      <c r="C50" s="42"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="9">
+        <v>0.60561380010233201</v>
+      </c>
+      <c r="C51" s="42"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="9">
+        <v>0.34530892993145501</v>
+      </c>
+      <c r="C52" s="42"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="9">
+        <v>0.64104661488634096</v>
+      </c>
+      <c r="C53" s="42"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="9">
+        <v>0.75237069593865702</v>
+      </c>
+      <c r="C54" s="42"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="9">
+        <v>0.61393631684053196</v>
+      </c>
+      <c r="C55" s="42"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="9">
+        <v>0.52741934273019997</v>
+      </c>
+      <c r="C56" s="42"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="9">
+        <v>0.56379930526989397</v>
+      </c>
+      <c r="C57" s="42"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="11">
+        <f>AVERAGE(B48:B57)</f>
+        <v>0.53319033718882114</v>
+      </c>
+      <c r="C58" s="44"/>
+    </row>
+    <row r="59" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="12">
+        <f>STDEV(B48:B57)</f>
+        <v>0.12788780341896597</v>
+      </c>
+      <c r="C59" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E24:I24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:M38"/>
@@ -5860,862 +9453,862 @@
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="4" max="8" width="10" style="26" customWidth="1"/>
+    <col min="4" max="8" width="10" style="21" customWidth="1"/>
     <col min="11" max="13" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0.92047904191616803</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
+        <v>7.6886227544910202E-2</v>
+      </c>
+      <c r="H2" s="29">
+        <v>2.63473053892216E-3</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="33">
-        <v>0.92047904191616803</v>
-      </c>
-      <c r="E2" s="33">
+      <c r="D3" s="28">
         <v>0</v>
       </c>
-      <c r="F2" s="33">
-        <v>0</v>
-      </c>
-      <c r="G2" s="33">
-        <v>7.6886227544910202E-2</v>
-      </c>
-      <c r="H2" s="34">
-        <v>2.63473053892216E-3</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="33">
-        <v>0</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="E3" s="28">
         <v>0.40243902439024398</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="28">
         <v>7.0731707317073206E-2</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="28">
         <v>0.12195121951219499</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="29">
         <v>0.404878048780488</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="26">
+        <v>49</v>
+      </c>
+      <c r="K3" s="21">
         <f>D2</f>
         <v>0.92047904191616803</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="21">
         <f>D27</f>
         <v>0.86743515850144104</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="21">
         <f>D34</f>
         <v>0.88136407300672404</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="33">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="28">
         <v>1.11856823266219E-2</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="28">
         <v>4.6979865771812103E-2</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="28">
         <v>0.384787472035794</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="28">
         <v>0.16778523489932901</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="29">
         <v>0.389261744966443</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="26">
+        <v>50</v>
+      </c>
+      <c r="K4" s="21">
         <f>E3</f>
         <v>0.40243902439024398</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="21">
         <f>E28</f>
         <v>0.163414634146341</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="21">
         <f>E35</f>
         <v>6.3414634146341506E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="33">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="28">
         <v>0.155593551538837</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="28">
         <v>7.3277967757694202E-3</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="28">
         <v>1.7098192476795301E-3</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="28">
         <v>0.79604298974108501</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="29">
         <v>3.9325842696629199E-2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="26">
+        <v>51</v>
+      </c>
+      <c r="K5" s="21">
         <f>F4</f>
         <v>0.384787472035794</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="21">
         <f>F29</f>
         <v>2.4608501118568198E-2</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="21">
         <f>F36</f>
         <v>0.47427293064877002</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="37">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="32">
         <v>1.59121470192739E-2</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="32">
         <v>4.48229493500672E-3</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="32">
         <v>1.59121470192739E-2</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="32">
         <v>5.9614522635589397E-2</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="33">
         <v>0.90407888839085604</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="26">
+        <v>52</v>
+      </c>
+      <c r="K6" s="21">
         <f>G5</f>
         <v>0.79604298974108501</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="21">
         <f>G30</f>
         <v>0.78024932779271605</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="21">
         <f>G37</f>
         <v>0.67636274749449998</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
+      <c r="B7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="G7" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="H7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>54</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="26">
+        <v>53</v>
+      </c>
+      <c r="K7" s="21">
         <f>H6</f>
         <v>0.90407888839085604</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="21">
         <f>H31</f>
         <v>0.90750279955207203</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="21">
         <f>H38</f>
         <v>0.42217245240761497</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.98469631755141096</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>1.33907221425155E-2</v>
+      </c>
+      <c r="H8" s="29">
+        <v>1.9129603060736499E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="33">
-        <v>0.98469631755141096</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D9" s="28">
         <v>0</v>
       </c>
-      <c r="F8" s="33">
+      <c r="E9" s="28">
+        <v>0.77619047619047599</v>
+      </c>
+      <c r="F9" s="28">
+        <v>3.0952380952380999E-2</v>
+      </c>
+      <c r="G9" s="28">
+        <v>9.5238095238095205E-2</v>
+      </c>
+      <c r="H9" s="29">
+        <v>9.7619047619047605E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="28">
+        <v>2.1881838074398301E-3</v>
+      </c>
+      <c r="E10" s="28">
+        <v>2.1881838074398301E-2</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.75273522975929996</v>
+      </c>
+      <c r="G10" s="28">
+        <v>8.5339168490153203E-2</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0.137855579868709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="28">
+        <v>5.5961070559610703E-3</v>
+      </c>
+      <c r="E11" s="28">
+        <v>2.6763990267639902E-3</v>
+      </c>
+      <c r="F11" s="28">
+        <v>7.2992700729927003E-4</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.96520681265206798</v>
+      </c>
+      <c r="H11" s="29">
+        <v>2.57907542579075E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="32">
+        <v>2.23264121455682E-4</v>
+      </c>
+      <c r="E12" s="32">
+        <v>2.4559053360124999E-3</v>
+      </c>
+      <c r="F12" s="32">
+        <v>3.3489618218352302E-3</v>
+      </c>
+      <c r="G12" s="32">
+        <v>3.9294485376200103E-2</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0.95467738334449703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.85770363101079505</v>
+      </c>
+      <c r="E14" s="28">
         <v>0</v>
       </c>
-      <c r="G8" s="33">
-        <v>1.33907221425155E-2</v>
-      </c>
-      <c r="H8" s="34">
-        <v>1.9129603060736499E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="31"/>
-      <c r="C9" s="32" t="s">
+      <c r="F14" s="28">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0.142296368989205</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.947286821705426</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>1.8604651162790701E-2</v>
+      </c>
+      <c r="H15" s="29">
+        <v>3.4108527131782897E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D16" s="28">
         <v>0</v>
       </c>
-      <c r="E9" s="33">
-        <v>0.77619047619047599</v>
-      </c>
-      <c r="F9" s="33">
-        <v>3.0952380952380999E-2</v>
-      </c>
-      <c r="G9" s="33">
-        <v>9.5238095238095205E-2</v>
-      </c>
-      <c r="H9" s="34">
-        <v>9.7619047619047605E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32" t="s">
+      <c r="E16" s="28">
+        <v>1.5325670498084301E-2</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0.93231162196679396</v>
+      </c>
+      <c r="G16" s="28">
+        <v>2.68199233716475E-2</v>
+      </c>
+      <c r="H16" s="29">
+        <v>2.5542784163473799E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="33">
-        <v>2.1881838074398301E-3</v>
-      </c>
-      <c r="E10" s="33">
-        <v>2.1881838074398301E-2</v>
-      </c>
-      <c r="F10" s="33">
-        <v>0.75273522975929996</v>
-      </c>
-      <c r="G10" s="33">
-        <v>8.5339168490153203E-2</v>
-      </c>
-      <c r="H10" s="34">
-        <v>0.137855579868709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32" t="s">
+      <c r="D17" s="28">
+        <v>4.7651463580667103E-2</v>
+      </c>
+      <c r="E17" s="28">
+        <v>2.0422055820285899E-3</v>
+      </c>
+      <c r="F17" s="28">
+        <v>5.1055139550714801E-3</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0.92954390742001403</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1.5656909462219201E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="33">
-        <v>5.5961070559610703E-3</v>
-      </c>
-      <c r="E11" s="33">
-        <v>2.6763990267639902E-3</v>
-      </c>
-      <c r="F11" s="33">
-        <v>7.2992700729927003E-4</v>
-      </c>
-      <c r="G11" s="33">
-        <v>0.96520681265206798</v>
-      </c>
-      <c r="H11" s="34">
-        <v>2.57907542579075E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="37">
-        <v>2.23264121455682E-4</v>
-      </c>
-      <c r="E12" s="37">
-        <v>2.4559053360124999E-3</v>
-      </c>
-      <c r="F12" s="37">
-        <v>3.3489618218352302E-3</v>
-      </c>
-      <c r="G12" s="37">
-        <v>3.9294485376200103E-2</v>
-      </c>
-      <c r="H12" s="38">
-        <v>0.95467738334449703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29" t="s">
+      <c r="D18" s="32">
+        <v>0</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1.0035122930255899E-3</v>
+      </c>
+      <c r="F18" s="32">
+        <v>4.5158053186151502E-3</v>
+      </c>
+      <c r="G18" s="32">
+        <v>2.9603612644254901E-2</v>
+      </c>
+      <c r="H18" s="33">
+        <v>0.96487706974410403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="F19" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="G19" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="H19" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="31"/>
-      <c r="C14" s="32" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0.99313725490196103</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
+        <v>6.8627450980392199E-3</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="33">
-        <v>0.85770363101079505</v>
-      </c>
-      <c r="E14" s="33">
+      <c r="D21" s="28">
         <v>0</v>
       </c>
-      <c r="F14" s="33">
+      <c r="E21" s="28">
+        <v>0.94752623688155901</v>
+      </c>
+      <c r="F21" s="28">
+        <v>1.49925037481259E-3</v>
+      </c>
+      <c r="G21" s="28">
+        <v>1.4992503748125901E-2</v>
+      </c>
+      <c r="H21" s="29">
+        <v>3.5982008995502197E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="28">
         <v>0</v>
       </c>
-      <c r="G14" s="33">
-        <v>0.142296368989205</v>
-      </c>
-      <c r="H14" s="34">
+      <c r="E22" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="33">
+      <c r="F22" s="28">
+        <v>0.94906832298136701</v>
+      </c>
+      <c r="G22" s="28">
+        <v>2.7329192546583898E-2</v>
+      </c>
+      <c r="H22" s="29">
+        <v>2.3602484472049701E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="26"/>
+      <c r="C23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1.3518080432578601E-3</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1.3518080432578601E-3</v>
+      </c>
+      <c r="F23" s="28">
+        <v>3.37952010814464E-3</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0.98546806353497796</v>
+      </c>
+      <c r="H23" s="29">
+        <v>8.4488002703616092E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="30"/>
+      <c r="C24" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="32">
+        <v>4.9652432969215501E-4</v>
+      </c>
+      <c r="E24" s="32">
         <v>0</v>
       </c>
-      <c r="E15" s="33">
-        <v>0.947286821705426</v>
-      </c>
-      <c r="F15" s="33">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33">
-        <v>1.8604651162790701E-2</v>
-      </c>
-      <c r="H15" s="34">
-        <v>3.4108527131782897E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="33">
-        <v>0</v>
-      </c>
-      <c r="E16" s="33">
-        <v>1.5325670498084301E-2</v>
-      </c>
-      <c r="F16" s="33">
-        <v>0.93231162196679396</v>
-      </c>
-      <c r="G16" s="33">
-        <v>2.68199233716475E-2</v>
-      </c>
-      <c r="H16" s="34">
-        <v>2.5542784163473799E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="33">
-        <v>4.7651463580667103E-2</v>
-      </c>
-      <c r="E17" s="33">
-        <v>2.0422055820285899E-3</v>
-      </c>
-      <c r="F17" s="33">
-        <v>5.1055139550714801E-3</v>
-      </c>
-      <c r="G17" s="33">
-        <v>0.92954390742001403</v>
-      </c>
-      <c r="H17" s="34">
-        <v>1.5656909462219201E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="37">
-        <v>0</v>
-      </c>
-      <c r="E18" s="37">
-        <v>1.0035122930255899E-3</v>
-      </c>
-      <c r="F18" s="37">
-        <v>4.5158053186151502E-3</v>
-      </c>
-      <c r="G18" s="37">
-        <v>2.9603612644254901E-2</v>
-      </c>
-      <c r="H18" s="38">
-        <v>0.96487706974410403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="33">
-        <v>0.99313725490196103</v>
-      </c>
-      <c r="E20" s="33">
-        <v>0</v>
-      </c>
-      <c r="F20" s="33">
-        <v>0</v>
-      </c>
-      <c r="G20" s="33">
-        <v>6.8627450980392199E-3</v>
-      </c>
-      <c r="H20" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="33">
-        <v>0</v>
-      </c>
-      <c r="E21" s="33">
-        <v>0.94752623688155901</v>
-      </c>
-      <c r="F21" s="33">
-        <v>1.49925037481259E-3</v>
-      </c>
-      <c r="G21" s="33">
-        <v>1.4992503748125901E-2</v>
-      </c>
-      <c r="H21" s="34">
-        <v>3.5982008995502197E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="33">
-        <v>0</v>
-      </c>
-      <c r="E22" s="33">
-        <v>0</v>
-      </c>
-      <c r="F22" s="33">
-        <v>0.94906832298136701</v>
-      </c>
-      <c r="G22" s="33">
-        <v>2.7329192546583898E-2</v>
-      </c>
-      <c r="H22" s="34">
-        <v>2.3602484472049701E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="33">
-        <v>1.3518080432578601E-3</v>
-      </c>
-      <c r="E23" s="33">
-        <v>1.3518080432578601E-3</v>
-      </c>
-      <c r="F23" s="33">
-        <v>3.37952010814464E-3</v>
-      </c>
-      <c r="G23" s="33">
-        <v>0.98546806353497796</v>
-      </c>
-      <c r="H23" s="34">
-        <v>8.4488002703616092E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="37">
-        <v>4.9652432969215501E-4</v>
-      </c>
-      <c r="E24" s="37">
-        <v>0</v>
-      </c>
-      <c r="F24" s="37">
+      <c r="F24" s="32">
         <v>2.4826216484607698E-3</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="32">
         <v>2.6315789473684199E-2</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="33">
         <v>0.97070506454816297</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="F26" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="G26" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="H26" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="30" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="28">
+        <v>0.86743515850144104</v>
+      </c>
+      <c r="E27" s="28">
+        <v>7.2046109510086505E-4</v>
+      </c>
+      <c r="F27" s="28">
+        <v>4.8030739673391001E-4</v>
+      </c>
+      <c r="G27" s="28">
+        <v>0.11983669548511</v>
+      </c>
+      <c r="H27" s="29">
+        <v>1.1527377521613799E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="33">
-        <v>0.86743515850144104</v>
-      </c>
-      <c r="E27" s="33">
-        <v>7.2046109510086505E-4</v>
-      </c>
-      <c r="F27" s="33">
-        <v>4.8030739673391001E-4</v>
-      </c>
-      <c r="G27" s="33">
-        <v>0.11983669548511</v>
-      </c>
-      <c r="H27" s="34">
-        <v>1.1527377521613799E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="31"/>
-      <c r="C28" s="32" t="s">
+      <c r="D28" s="28">
+        <v>2.4390243902438998E-3</v>
+      </c>
+      <c r="E28" s="28">
+        <v>0.163414634146341</v>
+      </c>
+      <c r="F28" s="28">
+        <v>3.65853658536585E-2</v>
+      </c>
+      <c r="G28" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="29">
+        <v>0.69756097560975605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="33">
-        <v>2.4390243902438998E-3</v>
-      </c>
-      <c r="E28" s="33">
-        <v>0.163414634146341</v>
-      </c>
-      <c r="F28" s="33">
-        <v>3.65853658536585E-2</v>
-      </c>
-      <c r="G28" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="H28" s="34">
-        <v>0.69756097560975605</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="31"/>
-      <c r="C29" s="32" t="s">
+      <c r="D29" s="28">
+        <v>1.5659955257270701E-2</v>
+      </c>
+      <c r="E29" s="28">
+        <v>8.9485458612975396E-2</v>
+      </c>
+      <c r="F29" s="28">
+        <v>2.4608501118568198E-2</v>
+      </c>
+      <c r="G29" s="28">
+        <v>8.7248322147651006E-2</v>
+      </c>
+      <c r="H29" s="29">
+        <v>0.78299776286353495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="33">
-        <v>1.5659955257270701E-2</v>
-      </c>
-      <c r="E29" s="33">
-        <v>8.9485458612975396E-2</v>
-      </c>
-      <c r="F29" s="33">
-        <v>2.4608501118568198E-2</v>
-      </c>
-      <c r="G29" s="33">
-        <v>8.7248322147651006E-2</v>
-      </c>
-      <c r="H29" s="34">
-        <v>0.78299776286353495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="31"/>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="28">
+        <v>0.160107553165485</v>
+      </c>
+      <c r="E30" s="28">
+        <v>1.71107308726473E-3</v>
+      </c>
+      <c r="F30" s="28">
+        <v>9.7775604986555893E-4</v>
+      </c>
+      <c r="G30" s="28">
+        <v>0.78024932779271605</v>
+      </c>
+      <c r="H30" s="29">
+        <v>5.6954289904668803E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="30"/>
+      <c r="C31" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="33">
-        <v>0.160107553165485</v>
-      </c>
-      <c r="E30" s="33">
-        <v>1.71107308726473E-3</v>
-      </c>
-      <c r="F30" s="33">
-        <v>9.7775604986555893E-4</v>
-      </c>
-      <c r="G30" s="33">
-        <v>0.78024932779271605</v>
-      </c>
-      <c r="H30" s="34">
-        <v>5.6954289904668803E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="35"/>
-      <c r="C31" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="37">
+      <c r="D31" s="32">
         <v>5.1511758118700998E-3</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="32">
         <v>2.0156774916013399E-3</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="32">
         <v>2.0380739081746899E-2</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="32">
         <v>6.4949608062709996E-2</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="33">
         <v>0.90750279955207203</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="F33" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="G33" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="H33" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="30" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="28">
+        <v>0.88136407300672404</v>
+      </c>
+      <c r="E34" s="28">
+        <v>7.2046109510086505E-4</v>
+      </c>
+      <c r="F34" s="28">
+        <v>6.4841498559077802E-3</v>
+      </c>
+      <c r="G34" s="28">
+        <v>0.107108549471662</v>
+      </c>
+      <c r="H34" s="29">
+        <v>4.3227665706051903E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="26"/>
+      <c r="C35" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="33">
-        <v>0.88136407300672404</v>
-      </c>
-      <c r="E34" s="33">
-        <v>7.2046109510086505E-4</v>
-      </c>
-      <c r="F34" s="33">
-        <v>6.4841498559077802E-3</v>
-      </c>
-      <c r="G34" s="33">
-        <v>0.107108549471662</v>
-      </c>
-      <c r="H34" s="34">
-        <v>4.3227665706051903E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="28">
+        <v>5.3658536585365901E-2</v>
+      </c>
+      <c r="E35" s="28">
+        <v>6.3414634146341506E-2</v>
+      </c>
+      <c r="F35" s="28">
+        <v>0.39268292682926798</v>
+      </c>
+      <c r="G35" s="28">
+        <v>0.16585365853658501</v>
+      </c>
+      <c r="H35" s="29">
+        <v>0.32439024390243898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="33">
-        <v>5.3658536585365901E-2</v>
-      </c>
-      <c r="E35" s="33">
-        <v>6.3414634146341506E-2</v>
-      </c>
-      <c r="F35" s="33">
-        <v>0.39268292682926798</v>
-      </c>
-      <c r="G35" s="33">
-        <v>0.16585365853658501</v>
-      </c>
-      <c r="H35" s="34">
-        <v>0.32439024390243898</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32" t="s">
+      <c r="D36" s="28">
+        <v>2.2371364653243901E-2</v>
+      </c>
+      <c r="E36" s="28">
+        <v>4.0268456375838903E-2</v>
+      </c>
+      <c r="F36" s="28">
+        <v>0.47427293064877002</v>
+      </c>
+      <c r="G36" s="28">
+        <v>0.14093959731543601</v>
+      </c>
+      <c r="H36" s="29">
+        <v>0.322147651006711</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="26"/>
+      <c r="C37" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="33">
-        <v>2.2371364653243901E-2</v>
-      </c>
-      <c r="E36" s="33">
-        <v>4.0268456375838903E-2</v>
-      </c>
-      <c r="F36" s="33">
-        <v>0.47427293064877002</v>
-      </c>
-      <c r="G36" s="33">
-        <v>0.14093959731543601</v>
-      </c>
-      <c r="H36" s="34">
-        <v>0.322147651006711</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="31"/>
-      <c r="C37" s="32" t="s">
+      <c r="D37" s="28">
+        <v>0.26888291371302903</v>
+      </c>
+      <c r="E37" s="28">
+        <v>2.68882913713029E-3</v>
+      </c>
+      <c r="F37" s="28">
+        <v>2.4199462234172599E-2</v>
+      </c>
+      <c r="G37" s="28">
+        <v>0.67636274749449998</v>
+      </c>
+      <c r="H37" s="29">
+        <v>2.78660474211684E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="30"/>
+      <c r="C38" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="33">
-        <v>0.26888291371302903</v>
-      </c>
-      <c r="E37" s="33">
-        <v>2.68882913713029E-3</v>
-      </c>
-      <c r="F37" s="33">
-        <v>2.4199462234172599E-2</v>
-      </c>
-      <c r="G37" s="33">
-        <v>0.67636274749449998</v>
-      </c>
-      <c r="H37" s="34">
-        <v>2.78660474211684E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="35"/>
-      <c r="C38" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="37">
+      <c r="D38" s="32">
         <v>1.7469204927211601E-2</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="32">
         <v>2.0156774916013399E-2</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="32">
         <v>0.37849944008958603</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="32">
         <v>0.16170212765957401</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="33">
         <v>0.42217245240761497</v>
       </c>
     </row>
@@ -6729,7 +10322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -6769,7 +10362,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -6794,7 +10387,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>0.919602043560097</v>
@@ -6814,7 +10407,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -6834,7 +10427,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>1.11856823266219E-2</v>
@@ -6853,7 +10446,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="17"/>
       <c r="C15">
         <v>0.13546511627907001</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="80">
   <si>
     <t>3 Session</t>
   </si>
@@ -302,6 +302,57 @@
   <si>
     <t>Patients</t>
   </si>
+  <si>
+    <t>Stacked</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PERSONAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Model_PersonalSCO.m) - 100 Trees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PERSONAL-BRACE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Model_PersonalCBR.m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STACKED </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Model_Stacked.m)</t>
+    </r>
+  </si>
+  <si>
+    <t>STATISTICS: Repeated Measures ANOVA + Paired One-Tailed t-Tests</t>
+  </si>
 </sst>
 </file>
 
@@ -385,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +452,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +658,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -704,6 +773,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,6 +793,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -847,16 +931,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.0440081755395449</c:v>
+                    <c:v>0.0464045764875381</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0268288538489872</c:v>
+                    <c:v>0.0312728442654597</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0219168671109486</c:v>
+                    <c:v>0.033061247451772</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0263506827196529</c:v>
+                    <c:v>0.0260327552167135</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -868,16 +952,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.0440081755395449</c:v>
+                    <c:v>0.0464045764875381</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0268288538489872</c:v>
+                    <c:v>0.0312728442654597</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0219168671109486</c:v>
+                    <c:v>0.033061247451772</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0263506827196529</c:v>
+                    <c:v>0.0260327552167135</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -923,16 +1007,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.567004741728079</c:v>
+                  <c:v>0.547532076579909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.794784142457189</c:v>
+                  <c:v>0.806994661141707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.768489196944758</c:v>
+                  <c:v>0.78270869826926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.845941426111646</c:v>
+                  <c:v>0.837158109184953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,11 +1032,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2137384416"/>
-        <c:axId val="2137396544"/>
+        <c:axId val="-2083203008"/>
+        <c:axId val="-2083219504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137384416"/>
+        <c:axId val="-2083203008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,7 +1079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137396544"/>
+        <c:crossAx val="-2083219504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1003,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137396544"/>
+        <c:axId val="-2083219504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1055,7 +1139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137384416"/>
+        <c:crossAx val="-2083203008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1245,16 +1329,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.479037267080745</c:v>
+                  <c:v>0.43167701863354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.744385026737968</c:v>
+                  <c:v>0.73475935828877</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.790372670807453</c:v>
+                  <c:v>0.78416149068323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90139751552795</c:v>
+                  <c:v>0.888975155279503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,16 +1410,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.425832492431887</c:v>
+                  <c:v>0.387487386478305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.670623145400593</c:v>
+                  <c:v>0.672848664688427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.678102926337033</c:v>
+                  <c:v>0.626639757820384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.746720484359233</c:v>
+                  <c:v>0.70736629667003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1407,16 +1491,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.54639175257732</c:v>
+                  <c:v>0.559646539027982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.769360269360269</c:v>
+                  <c:v>0.780723905723906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.797496318114875</c:v>
+                  <c:v>0.780559646539028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.723858615611193</c:v>
+                  <c:v>0.728276877761414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1488,16 +1572,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.613980409617097</c:v>
+                  <c:v>0.66206589492431</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.901486988847584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.800979519145147</c:v>
+                  <c:v>0.84906500445236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85040071237756</c:v>
+                  <c:v>0.809884238646483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,16 +1653,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.307242990654206</c:v>
+                  <c:v>0.30607476635514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.722680913064595</c:v>
+                  <c:v>0.689655172413793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.767523364485981</c:v>
+                  <c:v>0.755841121495327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.892523364485981</c:v>
+                  <c:v>0.867990654205608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,16 +1740,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.598326359832636</c:v>
+                  <c:v>0.594979079497908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79923518164436</c:v>
+                  <c:v>0.797323135755258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.822594142259414</c:v>
+                  <c:v>0.842677824267782</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.809205020920502</c:v>
+                  <c:v>0.820083682008368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,16 +1827,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.75422138836773</c:v>
+                  <c:v>0.781738586616635</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74424898511502</c:v>
+                  <c:v>0.751014884979702</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.686053783614759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.957473420888055</c:v>
+                  <c:v>0.965603502188868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,16 +1908,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.721720430107527</c:v>
+                  <c:v>0.490860215053763</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93983286908078</c:v>
+                  <c:v>0.938718662952646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.839569892473118</c:v>
+                  <c:v>0.966129032258065</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96</c:v>
+                  <c:v>0.938172043010753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,16 +1995,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.690941385435169</c:v>
+                  <c:v>0.698046181172291</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.784545454545455</c:v>
+                  <c:v>0.863636363636364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.658081705150977</c:v>
+                  <c:v>0.663410301953819</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.847246891651865</c:v>
+                  <c:v>0.838365896980462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,16 +2082,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.532352941176471</c:v>
+                  <c:v>0.562745098039216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87144259077527</c:v>
+                  <c:v>0.939779474130619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.844117647058824</c:v>
+                  <c:v>0.872549019607843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.770588235294118</c:v>
+                  <c:v>0.806862745098039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,11 +2108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138586336"/>
-        <c:axId val="2135160464"/>
+        <c:axId val="-2083519248"/>
+        <c:axId val="-2083516176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138586336"/>
+        <c:axId val="-2083519248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,7 +2155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135160464"/>
+        <c:crossAx val="-2083516176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2079,7 +2163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135160464"/>
+        <c:axId val="-2083516176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2131,7 +2215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138586336"/>
+        <c:crossAx val="-2083519248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2312,42 +2396,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Balanced Accuracy'!$G$4:$G$7</c:f>
+                <c:f>'Balanced Accuracy'!$G$4:$G$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.0404416743759801</c:v>
+                    <c:v>0.044646343190908</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0512235514274057</c:v>
+                    <c:v>0.0532013524271062</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0365622204814263</c:v>
+                    <c:v>0.0482266749372771</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0365994208026833</c:v>
+                    <c:v>0.0383231428723537</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.156224675960663</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Balanced Accuracy'!$G$4:$G$7</c:f>
+                <c:f>'Balanced Accuracy'!$G$4:$G$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.0404416743759801</c:v>
+                    <c:v>0.044646343190908</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0512235514274057</c:v>
+                    <c:v>0.0532013524271062</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0365622204814263</c:v>
+                    <c:v>0.0482266749372771</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0365994208026833</c:v>
+                    <c:v>0.0383231428723537</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.156224675960663</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2368,9 +2458,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Balanced Accuracy'!$E$4:$E$7</c:f>
+              <c:f>'Balanced Accuracy'!$E$4:$E$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Healthy</c:v>
                 </c:pt>
@@ -2382,27 +2472,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brace</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stacked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Balanced Accuracy'!$F$4:$F$7</c:f>
+              <c:f>'Balanced Accuracy'!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.533190337188821</c:v>
+                  <c:v>0.52669520929741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.675887835482995</c:v>
+                  <c:v>0.682118510260653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.698810569510723</c:v>
+                  <c:v>0.705338920317824</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78499254471075</c:v>
+                  <c:v>0.776312794933664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.791811381632352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2418,11 +2514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2138625776"/>
-        <c:axId val="2138610528"/>
+        <c:axId val="-2088104960"/>
+        <c:axId val="-2082798688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138625776"/>
+        <c:axId val="-2088104960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +2561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138610528"/>
+        <c:crossAx val="-2082798688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2473,7 +2569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138610528"/>
+        <c:axId val="-2082798688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2525,7 +2621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138625776"/>
+        <c:crossAx val="-2088104960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2690,9 +2786,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:f>'Balanced Accuracy'!$F$10:$J$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Healthy</c:v>
                 </c:pt>
@@ -2704,27 +2800,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brace</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stacked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Balanced Accuracy'!$F$11:$I$11</c:f>
+              <c:f>'Balanced Accuracy'!$F$11:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.450873259366802</c:v>
+                  <c:v>0.393569758025403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.548540192124209</c:v>
+                  <c:v>0.524277203139908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.701170103932147</c:v>
+                  <c:v>0.688714352972828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.816127899445271</c:v>
+                  <c:v>0.794381867699239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.770121729359038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,9 +2873,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:f>'Balanced Accuracy'!$F$10:$J$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Healthy</c:v>
                 </c:pt>
@@ -2785,27 +2887,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brace</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stacked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Balanced Accuracy'!$F$12:$I$12</c:f>
+              <c:f>'Balanced Accuracy'!$F$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.365084337447912</c:v>
+                  <c:v>0.340410313365914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.464287089930649</c:v>
+                  <c:v>0.466807941933449</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.527707553502914</c:v>
+                  <c:v>0.4526371020507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.657701532831439</c:v>
+                  <c:v>0.627382465487634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.542761703691424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,9 +2960,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:f>'Balanced Accuracy'!$F$10:$J$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Healthy</c:v>
                 </c:pt>
@@ -2866,27 +2974,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brace</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stacked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Balanced Accuracy'!$F$13:$I$13</c:f>
+              <c:f>'Balanced Accuracy'!$F$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.466450769374086</c:v>
+                  <c:v>0.474867150306567</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.582439647875412</c:v>
+                  <c:v>0.586527970069877</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.657972763723238</c:v>
+                  <c:v>0.629576142119767</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.629316787414804</c:v>
+                  <c:v>0.612835718412387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.736587228218463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,9 +3047,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:f>'Balanced Accuracy'!$F$10:$J$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Healthy</c:v>
                 </c:pt>
@@ -2947,27 +3061,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brace</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stacked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Balanced Accuracy'!$F$14:$I$14</c:f>
+              <c:f>'Balanced Accuracy'!$F$14:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.605613800102332</c:v>
+                  <c:v>0.598685622085362</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.566982340539804</c:v>
+                  <c:v>0.572040148045848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.724272608566215</c:v>
+                  <c:v>0.746331013580694</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.764097295459184</c:v>
+                  <c:v>0.753726536634682</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,9 +3134,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:f>'Balanced Accuracy'!$F$10:$J$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Healthy</c:v>
                 </c:pt>
@@ -3028,27 +3148,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brace</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stacked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Balanced Accuracy'!$F$15:$I$15</c:f>
+              <c:f>'Balanced Accuracy'!$F$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.345308929931455</c:v>
+                  <c:v>0.334474168570703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.744100117699319</c:v>
+                  <c:v>0.715505833428202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.740505733265634</c:v>
+                  <c:v>0.726305587289498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.873485233138699</c:v>
+                  <c:v>0.842920950748921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.884009266311247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3101,9 +3227,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:f>'Balanced Accuracy'!$F$10:$J$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Healthy</c:v>
                 </c:pt>
@@ -3115,27 +3241,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brace</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stacked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Balanced Accuracy'!$F$16:$I$16</c:f>
+              <c:f>'Balanced Accuracy'!$F$16:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.641046614886341</c:v>
+                  <c:v>0.634291803175212</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79051724137931</c:v>
+                  <c:v>0.788875205254516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.777509400409652</c:v>
+                  <c:v>0.812883933868961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.796236239079508</c:v>
+                  <c:v>0.815327244997397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.847969160221913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3188,9 +3320,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:f>'Balanced Accuracy'!$F$10:$J$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Healthy</c:v>
                 </c:pt>
@@ -3202,27 +3334,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brace</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stacked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Balanced Accuracy'!$F$17:$I$17</c:f>
+              <c:f>'Balanced Accuracy'!$F$17:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.752370695938657</c:v>
+                  <c:v>0.776132561640494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.735990054967121</c:v>
+                  <c:v>0.743603929455434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.660615105396659</c:v>
+                  <c:v>0.660530919268783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.956684214998802</c:v>
+                  <c:v>0.965098454481002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.969542443817248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3269,9 +3407,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:f>'Balanced Accuracy'!$F$10:$J$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Healthy</c:v>
                 </c:pt>
@@ -3283,27 +3421,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brace</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stacked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Balanced Accuracy'!$F$18:$I$18</c:f>
+              <c:f>'Balanced Accuracy'!$F$18:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.613936316840532</c:v>
+                  <c:v>0.604524745828793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.934263581264296</c:v>
+                  <c:v>0.932019860149589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.861089531062749</c:v>
+                  <c:v>0.95666051887834</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.944226471397578</c:v>
+                  <c:v>0.9242896485591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.950625063475796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3356,9 +3500,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:f>'Balanced Accuracy'!$F$10:$J$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Healthy</c:v>
                 </c:pt>
@@ -3370,27 +3514,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brace</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stacked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Balanced Accuracy'!$F$19:$I$19</c:f>
+              <c:f>'Balanced Accuracy'!$F$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5274193427302</c:v>
+                  <c:v>0.536303845107055</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.514772700519854</c:v>
+                  <c:v>0.551646250846173</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.508683206962448</c:v>
+                  <c:v>0.516505197845414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.664491841078399</c:v>
+                  <c:v>0.639178408447277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.556444603707747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,9 +3593,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Balanced Accuracy'!$F$10:$I$10</c:f>
+              <c:f>'Balanced Accuracy'!$F$10:$J$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Healthy</c:v>
                 </c:pt>
@@ -3457,27 +3607,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brace</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stacked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Balanced Accuracy'!$F$20:$I$20</c:f>
+              <c:f>'Balanced Accuracy'!$F$20:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.563799305269894</c:v>
+                  <c:v>0.573692124868596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.876985388529981</c:v>
+                  <c:v>0.939880760283538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.828579688285571</c:v>
+                  <c:v>0.863244435303259</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.747557932263815</c:v>
+                  <c:v>0.787986653869007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.868241235888295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,11 +3650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2138707760"/>
-        <c:axId val="2138710896"/>
+        <c:axId val="-2087882784"/>
+        <c:axId val="-2087879712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2138707760"/>
+        <c:axId val="-2087882784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +3697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138710896"/>
+        <c:crossAx val="-2087879712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3549,7 +3705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138710896"/>
+        <c:axId val="-2087879712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3601,7 +3757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138707760"/>
+        <c:crossAx val="-2087882784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3989,11 +4145,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2138792912"/>
-        <c:axId val="2138796336"/>
+        <c:axId val="-2081705616"/>
+        <c:axId val="-2081702288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138792912"/>
+        <c:axId val="-2081705616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4036,7 +4192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138796336"/>
+        <c:crossAx val="-2081702288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4044,7 +4200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138796336"/>
+        <c:axId val="-2081702288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4095,7 +4251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2138792912"/>
+        <c:crossAx val="-2081705616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6963,13 +7119,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>4232</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>825499</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6995,13 +7151,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>4232</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -7617,7 +7773,7 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7649,20 +7805,20 @@
       <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>0.90139751552795</v>
+        <v>0.88897515527950299</v>
       </c>
       <c r="C3" s="42"/>
       <c r="F3" s="36" t="s">
@@ -7680,7 +7836,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>0.74672048435923299</v>
+        <v>0.70736629667003004</v>
       </c>
       <c r="C4" s="42"/>
       <c r="E4" s="4" t="s">
@@ -7688,15 +7844,15 @@
       </c>
       <c r="F4" s="2">
         <f>B58</f>
-        <v>0.5670047417280788</v>
+        <v>0.54753207657990899</v>
       </c>
       <c r="G4" s="2">
         <f>B59/SQRT(10)</f>
-        <v>4.4008175539544926E-2</v>
+        <v>4.6404576487538068E-2</v>
       </c>
       <c r="H4" s="2">
         <f>MEDIAN(F11:F20)</f>
-        <v>0.57235905620497807</v>
+        <v>0.56119581853359901</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -7704,7 +7860,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>0.72385861561119302</v>
+        <v>0.72827687776141403</v>
       </c>
       <c r="C5" s="43"/>
       <c r="E5" s="4" t="s">
@@ -7712,15 +7868,15 @@
       </c>
       <c r="F5" s="2">
         <f>B43</f>
-        <v>0.79478414245718931</v>
+        <v>0.80699466114170693</v>
       </c>
       <c r="G5" s="2">
         <f>B44/SQRT(10)</f>
-        <v>2.6828853848987234E-2</v>
+        <v>3.1272844265459732E-2</v>
       </c>
       <c r="H5" s="2">
         <f>MEDIAN(G11:G20)</f>
-        <v>0.77695286195286206</v>
+        <v>0.78902352073958204</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -7728,7 +7884,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="9">
-        <v>0.85040071237755999</v>
+        <v>0.80988423864648296</v>
       </c>
       <c r="C6" s="42"/>
       <c r="E6" s="4" t="s">
@@ -7736,15 +7892,15 @@
       </c>
       <c r="F6" s="2">
         <f>B28</f>
-        <v>0.76848919694475815</v>
+        <v>0.78270869826925971</v>
       </c>
       <c r="G6" s="2">
         <f>B29/SQRT(10)</f>
-        <v>2.1916867110948594E-2</v>
+        <v>3.3061247451771969E-2</v>
       </c>
       <c r="H6" s="2">
         <f>MEDIAN(I11:I20)</f>
-        <v>0.84882380201471253</v>
+        <v>0.82922478949441503</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -7752,7 +7908,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="9">
-        <v>0.89252336448598102</v>
+        <v>0.86799065420560795</v>
       </c>
       <c r="C7" s="42"/>
       <c r="E7" s="4" t="s">
@@ -7760,11 +7916,11 @@
       </c>
       <c r="F7" s="2">
         <f>B13</f>
-        <v>0.84594142611164569</v>
+        <v>0.83715810918495281</v>
       </c>
       <c r="G7" s="2">
         <f>B14/SQRT(10)</f>
-        <v>2.6350682719652945E-2</v>
+        <v>2.603275521671352E-2</v>
       </c>
       <c r="H7" s="2" t="e">
         <f>MEDIAN(#REF!)</f>
@@ -7776,7 +7932,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9">
-        <v>0.80920502092050195</v>
+        <v>0.82008368200836801</v>
       </c>
       <c r="C8" s="42"/>
       <c r="E8" s="4"/>
@@ -7788,7 +7944,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="9">
-        <v>0.95747342088805498</v>
+        <v>0.96560350218886803</v>
       </c>
       <c r="C9" s="42"/>
     </row>
@@ -7797,7 +7953,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="9">
-        <v>0.96</v>
+        <v>0.93817204301075297</v>
       </c>
       <c r="C10" s="42"/>
       <c r="F10" s="36" t="s">
@@ -7818,7 +7974,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="9">
-        <v>0.84724689165186495</v>
+        <v>0.83836589698046204</v>
       </c>
       <c r="C11" s="42"/>
       <c r="E11" s="39" t="s">
@@ -7826,19 +7982,19 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F20" si="0">B48</f>
-        <v>0.47903726708074501</v>
+        <v>0.43167701863354002</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ref="G11:G20" si="1">B33</f>
-        <v>0.74438502673796803</v>
+        <v>0.73475935828877004</v>
       </c>
       <c r="H11" s="38">
         <f>B18</f>
-        <v>0.79037267080745299</v>
+        <v>0.78416149068323004</v>
       </c>
       <c r="I11" s="38">
         <f>B3</f>
-        <v>0.90139751552795</v>
+        <v>0.88897515527950299</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -7846,7 +8002,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="9">
-        <v>0.77058823529411802</v>
+        <v>0.80686274509803901</v>
       </c>
       <c r="C12" s="42"/>
       <c r="E12" s="40" t="s">
@@ -7854,19 +8010,19 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.42583249243188698</v>
+        <v>0.387487386478305</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>0.67062314540059298</v>
+        <v>0.67284866468842697</v>
       </c>
       <c r="H12" s="38">
         <f t="shared" ref="H12:H20" si="2">B19</f>
-        <v>0.67810292633703295</v>
+        <v>0.62663975782038395</v>
       </c>
       <c r="I12" s="38">
         <f t="shared" ref="I12:I20" si="3">B4</f>
-        <v>0.74672048435923299</v>
+        <v>0.70736629667003004</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -7875,7 +8031,7 @@
       </c>
       <c r="B13" s="11">
         <f>AVERAGE(B3:B12)</f>
-        <v>0.84594142611164569</v>
+        <v>0.83715810918495281</v>
       </c>
       <c r="C13" s="44"/>
       <c r="E13" s="39" t="s">
@@ -7883,19 +8039,19 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.54639175257731998</v>
+        <v>0.559646539027982</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>0.76936026936026902</v>
+        <v>0.78072390572390604</v>
       </c>
       <c r="H13" s="38">
         <f t="shared" si="2"/>
-        <v>0.79749631811487498</v>
+        <v>0.78055964653902798</v>
       </c>
       <c r="I13" s="38">
         <f t="shared" si="3"/>
-        <v>0.72385861561119302</v>
+        <v>0.72827687776141403</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -7904,7 +8060,7 @@
       </c>
       <c r="B14" s="11">
         <f>STDEV(B3:B12)</f>
-        <v>8.3328175294543463E-2</v>
+        <v>8.2322800254445008E-2</v>
       </c>
       <c r="C14" s="44"/>
       <c r="E14" s="39" t="s">
@@ -7912,7 +8068,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.61398040961709699</v>
+        <v>0.66206589492431001</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
@@ -7920,11 +8076,11 @@
       </c>
       <c r="H14" s="38">
         <f t="shared" si="2"/>
-        <v>0.80097951914514698</v>
+        <v>0.84906500445235999</v>
       </c>
       <c r="I14" s="38">
         <f t="shared" si="3"/>
-        <v>0.85040071237755999</v>
+        <v>0.80988423864648296</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7936,19 +8092,19 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.30724299065420602</v>
+        <v>0.30607476635514003</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>0.72268091306459503</v>
+        <v>0.68965517241379304</v>
       </c>
       <c r="H15" s="38">
         <f t="shared" si="2"/>
-        <v>0.76752336448598102</v>
+        <v>0.75584112149532701</v>
       </c>
       <c r="I15" s="38">
         <f t="shared" si="3"/>
-        <v>0.89252336448598102</v>
+        <v>0.86799065420560795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7962,19 +8118,19 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.59832635983263605</v>
+        <v>0.59497907949790796</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>0.79923518164436003</v>
+        <v>0.79732313575525804</v>
       </c>
       <c r="H16" s="38">
         <f t="shared" si="2"/>
-        <v>0.82259414225941396</v>
+        <v>0.84267782426778204</v>
       </c>
       <c r="I16" s="38">
         <f t="shared" si="3"/>
-        <v>0.80920502092050195</v>
+        <v>0.82008368200836801</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -7990,11 +8146,11 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.75422138836773001</v>
+        <v>0.78173858661663498</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>0.74424898511502002</v>
+        <v>0.75101488497970204</v>
       </c>
       <c r="H17" s="38">
         <f t="shared" si="2"/>
@@ -8002,7 +8158,7 @@
       </c>
       <c r="I17" s="38">
         <f t="shared" si="3"/>
-        <v>0.95747342088805498</v>
+        <v>0.96560350218886803</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -8010,7 +8166,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="9">
-        <v>0.79037267080745299</v>
+        <v>0.78416149068323004</v>
       </c>
       <c r="C18" s="42"/>
       <c r="E18" s="40" t="s">
@@ -8018,19 +8174,19 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0.72172043010752696</v>
+        <v>0.49086021505376298</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>0.93983286908078001</v>
+        <v>0.93871866295264605</v>
       </c>
       <c r="H18" s="38">
         <f t="shared" si="2"/>
-        <v>0.83956989247311797</v>
+        <v>0.96612903225806501</v>
       </c>
       <c r="I18" s="38">
         <f t="shared" si="3"/>
-        <v>0.96</v>
+        <v>0.93817204301075297</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -8038,7 +8194,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="9">
-        <v>0.67810292633703295</v>
+        <v>0.62663975782038395</v>
       </c>
       <c r="C19" s="42"/>
       <c r="E19" s="39" t="s">
@@ -8046,19 +8202,19 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.69094138543516903</v>
+        <v>0.698046181172291</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>0.78454545454545499</v>
+        <v>0.86363636363636398</v>
       </c>
       <c r="H19" s="38">
         <f t="shared" si="2"/>
-        <v>0.65808170515097697</v>
+        <v>0.663410301953819</v>
       </c>
       <c r="I19" s="38">
         <f t="shared" si="3"/>
-        <v>0.84724689165186495</v>
+        <v>0.83836589698046204</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -8066,7 +8222,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>0.79749631811487498</v>
+        <v>0.78055964653902798</v>
       </c>
       <c r="C20" s="43"/>
       <c r="E20" s="39" t="s">
@@ -8074,19 +8230,19 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.53235294117647103</v>
+        <v>0.56274509803921602</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>0.87144259077526998</v>
+        <v>0.93977947413061902</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>0.84411764705882397</v>
+        <v>0.87254901960784303</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" si="3"/>
-        <v>0.77058823529411802</v>
+        <v>0.80686274509803901</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -8094,7 +8250,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>0.80097951914514698</v>
+        <v>0.84906500445235999</v>
       </c>
       <c r="C21" s="42"/>
     </row>
@@ -8103,7 +8259,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>0.76752336448598102</v>
+        <v>0.75584112149532701</v>
       </c>
       <c r="C22" s="42"/>
     </row>
@@ -8112,7 +8268,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="2">
-        <v>0.82259414225941396</v>
+        <v>0.84267782426778204</v>
       </c>
       <c r="C23" s="42"/>
     </row>
@@ -8124,20 +8280,20 @@
         <v>0.68605378361475899</v>
       </c>
       <c r="C24" s="42"/>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>0.83956989247311797</v>
+        <v>0.96612903225806501</v>
       </c>
       <c r="C25" s="42"/>
       <c r="E25" s="6"/>
@@ -8151,7 +8307,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="2">
-        <v>0.65808170515097697</v>
+        <v>0.663410301953819</v>
       </c>
       <c r="C26" s="42"/>
       <c r="E26" s="6"/>
@@ -8165,7 +8321,7 @@
         <v>70</v>
       </c>
       <c r="B27" s="9">
-        <v>0.84411764705882397</v>
+        <v>0.87254901960784303</v>
       </c>
       <c r="C27" s="42"/>
       <c r="E27" s="6"/>
@@ -8180,7 +8336,7 @@
       </c>
       <c r="B28" s="11">
         <f>AVERAGE(B18:B27)</f>
-        <v>0.76848919694475815</v>
+        <v>0.78270869826925971</v>
       </c>
       <c r="C28" s="44"/>
       <c r="E28" s="6"/>
@@ -8195,7 +8351,7 @@
       </c>
       <c r="B29" s="11">
         <f>STDEV(B18:B27)</f>
-        <v>6.930721924583183E-2</v>
+        <v>0.10454884423403726</v>
       </c>
       <c r="C29" s="44"/>
       <c r="E29" s="6"/>
@@ -8245,7 +8401,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="9">
-        <v>0.74438502673796803</v>
+        <v>0.73475935828877004</v>
       </c>
       <c r="C33" s="42"/>
       <c r="E33" s="6"/>
@@ -8259,7 +8415,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="9">
-        <v>0.67062314540059298</v>
+        <v>0.67284866468842697</v>
       </c>
       <c r="C34" s="42"/>
       <c r="E34" s="6"/>
@@ -8273,7 +8429,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="9">
-        <v>0.76936026936026902</v>
+        <v>0.78072390572390604</v>
       </c>
       <c r="C35" s="42"/>
       <c r="E35" s="6"/>
@@ -8301,7 +8457,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="9">
-        <v>0.72268091306459503</v>
+        <v>0.68965517241379304</v>
       </c>
       <c r="C37" s="42"/>
       <c r="E37" s="6"/>
@@ -8315,7 +8471,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="9">
-        <v>0.79923518164436003</v>
+        <v>0.79732313575525804</v>
       </c>
       <c r="C38" s="42"/>
       <c r="I38"/>
@@ -8326,7 +8482,7 @@
         <v>69</v>
       </c>
       <c r="B39" s="9">
-        <v>0.74424898511502002</v>
+        <v>0.75101488497970204</v>
       </c>
       <c r="C39" s="42"/>
       <c r="I39"/>
@@ -8337,7 +8493,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="9">
-        <v>0.93983286908078001</v>
+        <v>0.93871866295264605</v>
       </c>
       <c r="C40" s="42"/>
       <c r="I40"/>
@@ -8347,7 +8503,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="9">
-        <v>0.78454545454545499</v>
+        <v>0.86363636363636398</v>
       </c>
       <c r="C41" s="42"/>
       <c r="I41"/>
@@ -8357,7 +8513,7 @@
         <v>70</v>
       </c>
       <c r="B42" s="9">
-        <v>0.87144259077526998</v>
+        <v>0.93977947413061902</v>
       </c>
       <c r="C42" s="42"/>
     </row>
@@ -8367,7 +8523,7 @@
       </c>
       <c r="B43" s="11">
         <f>AVERAGE(B33:B42)</f>
-        <v>0.79478414245718931</v>
+        <v>0.80699466114170693</v>
       </c>
       <c r="C43" s="44"/>
     </row>
@@ -8377,7 +8533,7 @@
       </c>
       <c r="B44" s="11">
         <f>STDEV(B33:B42)</f>
-        <v>8.4840285174574773E-2</v>
+        <v>9.8893416790588135E-2</v>
       </c>
       <c r="C44" s="44"/>
     </row>
@@ -8407,7 +8563,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="9">
-        <v>0.47903726708074501</v>
+        <v>0.43167701863354002</v>
       </c>
       <c r="C48" s="42"/>
     </row>
@@ -8416,7 +8572,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="9">
-        <v>0.42583249243188698</v>
+        <v>0.387487386478305</v>
       </c>
       <c r="C49" s="42"/>
     </row>
@@ -8425,7 +8581,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="9">
-        <v>0.54639175257731998</v>
+        <v>0.559646539027982</v>
       </c>
       <c r="C50" s="42"/>
     </row>
@@ -8434,7 +8590,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="9">
-        <v>0.61398040961709699</v>
+        <v>0.66206589492431001</v>
       </c>
       <c r="C51" s="42"/>
     </row>
@@ -8443,7 +8599,7 @@
         <v>32</v>
       </c>
       <c r="B52" s="9">
-        <v>0.30724299065420602</v>
+        <v>0.30607476635514003</v>
       </c>
       <c r="C52" s="42"/>
     </row>
@@ -8452,7 +8608,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="9">
-        <v>0.59832635983263605</v>
+        <v>0.59497907949790796</v>
       </c>
       <c r="C53" s="42"/>
     </row>
@@ -8461,7 +8617,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="9">
-        <v>0.75422138836773001</v>
+        <v>0.78173858661663498</v>
       </c>
       <c r="C54" s="42"/>
     </row>
@@ -8470,7 +8626,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="9">
-        <v>0.72172043010752696</v>
+        <v>0.49086021505376298</v>
       </c>
       <c r="C55" s="42"/>
     </row>
@@ -8479,7 +8635,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="9">
-        <v>0.69094138543516903</v>
+        <v>0.698046181172291</v>
       </c>
       <c r="C56" s="42"/>
     </row>
@@ -8488,7 +8644,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="9">
-        <v>0.53235294117647103</v>
+        <v>0.56274509803921602</v>
       </c>
       <c r="C57" s="42"/>
     </row>
@@ -8498,7 +8654,7 @@
       </c>
       <c r="B58" s="11">
         <f>AVERAGE(B48:B57)</f>
-        <v>0.5670047417280788</v>
+        <v>0.54753207657990899</v>
       </c>
       <c r="C58" s="44"/>
     </row>
@@ -8508,7 +8664,7 @@
       </c>
       <c r="B59" s="12">
         <f>STDEV(B48:B57)</f>
-        <v>0.13916607037347145</v>
+        <v>0.14674415555611647</v>
       </c>
       <c r="C59" s="45"/>
     </row>
@@ -8531,9 +8687,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8541,22 +8699,22 @@
     <col min="2" max="2" width="10.83203125" style="5"/>
     <col min="3" max="3" width="22.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" style="3" customWidth="1"/>
-    <col min="11" max="14" width="10.83203125" style="3"/>
-    <col min="15" max="15" width="10.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="9" width="10.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" style="3" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" style="3"/>
+    <col min="16" max="16" width="10.83203125" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B1" s="35"/>
-      <c r="C1" s="37"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -8564,20 +8722,21 @@
       <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="48"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9">
-        <v>0.81612789944527098</v>
+        <v>0.770121729359038</v>
       </c>
       <c r="C3" s="42"/>
       <c r="F3" s="36" t="s">
@@ -8590,129 +8749,139 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>0.65770153283143895</v>
+        <v>0.54276170369142396</v>
       </c>
       <c r="C4" s="42"/>
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2">
-        <f>B58</f>
-        <v>0.53319033718882114</v>
+        <f>B73</f>
+        <v>0.52669520929740987</v>
       </c>
       <c r="G4" s="2">
-        <f>B59/SQRT(10)</f>
-        <v>4.0441674375980133E-2</v>
+        <f>B74/SQRT(10)</f>
+        <v>4.464634319090803E-2</v>
       </c>
       <c r="H4" s="2">
         <f>MEDIAN(F11:F20)</f>
-        <v>0.54560932400004702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.55499798498782549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9">
-        <v>0.62931678741480401</v>
+        <v>0.73658722821846301</v>
       </c>
       <c r="C5" s="43"/>
       <c r="E5" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="2">
-        <f>B43</f>
-        <v>0.67588783548299547</v>
+        <f>B58</f>
+        <v>0.6821185102606534</v>
       </c>
       <c r="G5" s="2">
-        <f>B44/SQRT(10)</f>
-        <v>5.1223551427405735E-2</v>
+        <f>B59/SQRT(10)</f>
+        <v>5.3201352427106205E-2</v>
       </c>
       <c r="H5" s="2">
         <f>MEDIAN(G11:G20)</f>
-        <v>0.65921485142126657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.65101690174903948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9">
-        <v>0.76409729545918403</v>
-      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="42"/>
       <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2">
-        <f>B28</f>
-        <v>0.69881056951072273</v>
+        <f>B43</f>
+        <v>0.70533892031782441</v>
       </c>
       <c r="G6" s="2">
-        <f>B29/SQRT(10)</f>
-        <v>3.6562220481426273E-2</v>
+        <f>B44/SQRT(10)</f>
+        <v>4.8226674937277093E-2</v>
       </c>
       <c r="H6" s="2">
-        <f>MEDIAN(I11:I20)</f>
-        <v>0.78016676726934597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <f>MEDIAN(H11:H20)</f>
+        <v>0.70750997013116301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="9">
-        <v>0.87348523313869897</v>
+        <v>0.88400926631124699</v>
       </c>
       <c r="C7" s="42"/>
       <c r="E7" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="2">
-        <f>B13</f>
-        <v>0.78499254471074986</v>
+        <f>B28</f>
+        <v>0.77631279493366456</v>
       </c>
       <c r="G7" s="2">
-        <f>B14/SQRT(10)</f>
-        <v>3.6599420802683302E-2</v>
-      </c>
-      <c r="H7" s="2" t="e">
-        <f>MEDIAN(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <f>B29/SQRT(10)</f>
+        <v>3.8323142872353673E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <f>MEDIAN(B18:B27)</f>
+        <v>0.79118426078412307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="9">
-        <v>0.79623623907950802</v>
+        <v>0.84796916022191304</v>
       </c>
       <c r="C8" s="42"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2">
+        <f>B13</f>
+        <v>0.79181138163235221</v>
+      </c>
+      <c r="G8" s="2">
+        <f>B14</f>
+        <v>0.1562246759606635</v>
+      </c>
+      <c r="H8" s="2">
+        <f>MEDIAN(J11:J20)</f>
+        <v>0.80904544479047558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B9" s="9">
-        <v>0.95668421499880196</v>
+        <v>0.96954244381724797</v>
       </c>
       <c r="C9" s="42"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="9">
-        <v>0.94422647139757798</v>
+        <v>0.95062506347579601</v>
       </c>
       <c r="C10" s="42"/>
       <c r="F10" s="36" t="s">
@@ -8727,172 +8896,194 @@
       <c r="I10" s="36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9">
-        <v>0.66449184107839898</v>
+        <v>0.55644460370774695</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="53" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="38">
-        <f t="shared" ref="F11:F20" si="0">B48</f>
-        <v>0.450873259366802</v>
+        <f>B63</f>
+        <v>0.393569758025403</v>
       </c>
       <c r="G11" s="38">
+        <f>B48</f>
+        <v>0.524277203139908</v>
+      </c>
+      <c r="H11" s="38">
         <f>B33</f>
-        <v>0.54854019212420901</v>
-      </c>
-      <c r="H11" s="38">
+        <v>0.68871435297282801</v>
+      </c>
+      <c r="I11" s="38">
         <f>B18</f>
-        <v>0.70117010393214696</v>
-      </c>
-      <c r="I11" s="38">
-        <f>B3</f>
-        <v>0.81612789944527098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+        <v>0.79438186769923902</v>
+      </c>
+      <c r="J11" s="55">
+        <v>0.770121729359038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="9">
-        <v>0.74755793226381495</v>
+        <v>0.86824123588829505</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="53" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="38">
-        <f t="shared" si="0"/>
-        <v>0.36508433744791202</v>
+        <f>B64</f>
+        <v>0.34041031336591399</v>
       </c>
       <c r="G12" s="38">
-        <f t="shared" ref="G12:G20" si="1">B34</f>
-        <v>0.46428708993064899</v>
+        <f>B49</f>
+        <v>0.46680794193344899</v>
       </c>
       <c r="H12" s="38">
-        <f t="shared" ref="H12:H20" si="2">B19</f>
-        <v>0.52770755350291398</v>
+        <f>B34</f>
+        <v>0.45263710205070001</v>
       </c>
       <c r="I12" s="38">
-        <f t="shared" ref="I12:I20" si="3">B4</f>
-        <v>0.65770153283143895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <f>B19</f>
+        <v>0.62738246548763399</v>
+      </c>
+      <c r="J12" s="55">
+        <v>0.54276170369142396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="11">
         <f>AVERAGE(B3:B12)</f>
-        <v>0.78499254471074986</v>
+        <v>0.79181138163235221</v>
       </c>
       <c r="C13" s="44"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="38">
-        <f t="shared" si="0"/>
-        <v>0.46645076937408603</v>
+        <f>B65</f>
+        <v>0.47486715030656701</v>
       </c>
       <c r="G13" s="38">
-        <f t="shared" si="1"/>
-        <v>0.58243964787541203</v>
+        <f>B50</f>
+        <v>0.586527970069877</v>
       </c>
       <c r="H13" s="38">
-        <f t="shared" si="2"/>
-        <v>0.65797276372323799</v>
+        <f>B35</f>
+        <v>0.62957614211976698</v>
       </c>
       <c r="I13" s="38">
-        <f t="shared" si="3"/>
-        <v>0.62931678741480401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <f>B20</f>
+        <v>0.61283571841238704</v>
+      </c>
+      <c r="J13" s="56">
+        <v>0.73658722821846301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="11">
         <f>STDEV(B3:B12)</f>
-        <v>0.11573753077942728</v>
+        <v>0.1562246759606635</v>
       </c>
       <c r="C14" s="44"/>
       <c r="E14" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="38">
-        <f t="shared" si="0"/>
-        <v>0.60561380010233201</v>
+        <f>B66</f>
+        <v>0.59868562208536202</v>
       </c>
       <c r="G14" s="38">
-        <f t="shared" si="1"/>
-        <v>0.56698234053980401</v>
+        <f>B51</f>
+        <v>0.57204014804584802</v>
       </c>
       <c r="H14" s="38">
-        <f t="shared" si="2"/>
-        <v>0.724272608566215</v>
+        <f>B36</f>
+        <v>0.74633101358069398</v>
       </c>
       <c r="I14" s="38">
-        <f t="shared" si="3"/>
-        <v>0.76409729545918403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <f>B21</f>
+        <v>0.75372653663468203</v>
+      </c>
+      <c r="J14" s="38">
+        <f t="shared" ref="J12:J20" si="0">B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="10"/>
       <c r="C15" s="42"/>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="54" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="38">
-        <f t="shared" si="0"/>
-        <v>0.34530892993145501</v>
+        <f>B67</f>
+        <v>0.334474168570703</v>
       </c>
       <c r="G15" s="38">
-        <f t="shared" si="1"/>
-        <v>0.74410011769931905</v>
+        <f>B52</f>
+        <v>0.71550583342820195</v>
       </c>
       <c r="H15" s="38">
-        <f t="shared" si="2"/>
-        <v>0.74050573326563396</v>
+        <f>B37</f>
+        <v>0.72630558728949801</v>
       </c>
       <c r="I15" s="38">
-        <f t="shared" si="3"/>
-        <v>0.87348523313869897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <f>B22</f>
+        <v>0.84292095074892104</v>
+      </c>
+      <c r="J15" s="56">
+        <v>0.88400926631124699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="37"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="54" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="38">
-        <f t="shared" si="0"/>
-        <v>0.64104661488634096</v>
+        <f>B68</f>
+        <v>0.63429180317521205</v>
       </c>
       <c r="G16" s="38">
-        <f t="shared" si="1"/>
-        <v>0.79051724137931001</v>
+        <f>B53</f>
+        <v>0.78887520525451604</v>
       </c>
       <c r="H16" s="38">
-        <f t="shared" si="2"/>
-        <v>0.777509400409652</v>
+        <f>B38</f>
+        <v>0.81288393386896096</v>
       </c>
       <c r="I16" s="38">
-        <f t="shared" si="3"/>
-        <v>0.79623623907950802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <f>B23</f>
+        <v>0.81532724499739695</v>
+      </c>
+      <c r="J16" s="56">
+        <v>0.84796916022191304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="8" t="s">
         <v>0</v>
@@ -8900,226 +9091,244 @@
       <c r="C17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="54" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="38">
-        <f t="shared" si="0"/>
-        <v>0.75237069593865702</v>
+        <f>B69</f>
+        <v>0.77613256164049405</v>
       </c>
       <c r="G17" s="38">
-        <f t="shared" si="1"/>
-        <v>0.735990054967121</v>
+        <f>B54</f>
+        <v>0.74360392945543397</v>
       </c>
       <c r="H17" s="38">
-        <f t="shared" si="2"/>
-        <v>0.66061510539665902</v>
+        <f>B39</f>
+        <v>0.66053091926878305</v>
       </c>
       <c r="I17" s="38">
-        <f t="shared" si="3"/>
-        <v>0.95668421499880196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <f>B24</f>
+        <v>0.96509845448100195</v>
+      </c>
+      <c r="J17" s="56">
+        <v>0.96954244381724797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="9">
-        <v>0.70117010393214696</v>
+        <v>0.79438186769923902</v>
       </c>
       <c r="C18" s="42"/>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="54" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="38">
-        <f t="shared" si="0"/>
-        <v>0.61393631684053196</v>
+        <f>B70</f>
+        <v>0.60452474582879301</v>
       </c>
       <c r="G18" s="38">
-        <f t="shared" si="1"/>
-        <v>0.93426358126429598</v>
+        <f>B55</f>
+        <v>0.93201986014958904</v>
       </c>
       <c r="H18" s="38">
-        <f t="shared" si="2"/>
-        <v>0.86108953106274899</v>
+        <f>B40</f>
+        <v>0.95666051887834003</v>
       </c>
       <c r="I18" s="38">
-        <f t="shared" si="3"/>
-        <v>0.94422647139757798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <f>B25</f>
+        <v>0.92428964855910001</v>
+      </c>
+      <c r="J18" s="56">
+        <v>0.95062506347579601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="9">
-        <v>0.52770755350291398</v>
+        <v>0.62738246548763399</v>
       </c>
       <c r="C19" s="42"/>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="53" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="38">
-        <f t="shared" si="0"/>
-        <v>0.52741934273019997</v>
+        <f>B71</f>
+        <v>0.53630384510705498</v>
       </c>
       <c r="G19" s="38">
-        <f t="shared" si="1"/>
-        <v>0.51477270051985402</v>
+        <f>B56</f>
+        <v>0.55164625084617303</v>
       </c>
       <c r="H19" s="38">
-        <f t="shared" si="2"/>
-        <v>0.50868320696244795</v>
+        <f>B41</f>
+        <v>0.51650519784541404</v>
       </c>
       <c r="I19" s="38">
-        <f t="shared" si="3"/>
-        <v>0.66449184107839898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <f>B26</f>
+        <v>0.63917840844727702</v>
+      </c>
+      <c r="J19" s="55">
+        <v>0.55644460370774695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="9">
-        <v>0.65797276372323799</v>
+        <v>0.61283571841238704</v>
       </c>
       <c r="C20" s="43"/>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="38">
-        <f t="shared" si="0"/>
-        <v>0.56379930526989397</v>
+        <f>B72</f>
+        <v>0.573692124868596</v>
       </c>
       <c r="G20" s="38">
-        <f t="shared" si="1"/>
-        <v>0.87698538852998098</v>
+        <f>B57</f>
+        <v>0.93988076028353795</v>
       </c>
       <c r="H20" s="38">
-        <f t="shared" si="2"/>
-        <v>0.82857968828557105</v>
+        <f>B42</f>
+        <v>0.86324443530325901</v>
       </c>
       <c r="I20" s="38">
-        <f t="shared" si="3"/>
-        <v>0.74755793226381495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <f>B27</f>
+        <v>0.78798665386900701</v>
+      </c>
+      <c r="J20" s="56">
+        <v>0.86824123588829505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="9">
-        <v>0.724272608566215</v>
+        <v>0.75372653663468203</v>
       </c>
       <c r="C21" s="42"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="9">
-        <v>0.74050573326563396</v>
+        <v>0.84292095074892104</v>
       </c>
       <c r="C22" s="42"/>
     </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="9">
-        <v>0.777509400409652</v>
+        <v>0.81532724499739695</v>
       </c>
       <c r="C23" s="42"/>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="9">
-        <v>0.66061510539665902</v>
+        <v>0.96509845448100195</v>
       </c>
       <c r="C24" s="42"/>
-      <c r="E24" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
+      <c r="E24" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="48"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="49"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="9">
-        <v>0.86108953106274899</v>
+        <v>0.92428964855910001</v>
       </c>
       <c r="C25" s="42"/>
       <c r="E25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="6"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="9">
-        <v>0.50868320696244795</v>
+        <v>0.63917840844727702</v>
       </c>
       <c r="C26" s="42"/>
       <c r="E26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="J26" s="6"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="9">
-        <v>0.82857968828557105</v>
+        <v>0.78798665386900701</v>
       </c>
       <c r="C27" s="42"/>
       <c r="E27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="6"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="11">
         <f>AVERAGE(B18:B27)</f>
-        <v>0.69881056951072273</v>
+        <v>0.77631279493366456</v>
       </c>
       <c r="C28" s="44"/>
       <c r="E28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="6"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="11">
         <f>STDEV(B18:B27)</f>
-        <v>0.11561989303456509</v>
+        <v>0.12118841857268509</v>
       </c>
       <c r="C29" s="44"/>
       <c r="E29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="6"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="10"/>
       <c r="C30" s="42"/>
@@ -9127,11 +9336,12 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="6"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="37"/>
@@ -9139,9 +9349,10 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="6"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="8" t="s">
         <v>0</v>
@@ -9153,162 +9364,172 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="6"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="2">
-        <v>0.54854019212420901</v>
+      <c r="B33" s="9">
+        <v>0.68871435297282801</v>
       </c>
       <c r="C33" s="42"/>
       <c r="E33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="6"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="2">
-        <v>0.46428708993064899</v>
+      <c r="B34" s="9">
+        <v>0.45263710205070001</v>
       </c>
       <c r="C34" s="42"/>
       <c r="E34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="6"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="2">
-        <v>0.58243964787541203</v>
-      </c>
-      <c r="C35" s="42"/>
+      <c r="B35" s="9">
+        <v>0.62957614211976698</v>
+      </c>
+      <c r="C35" s="43"/>
       <c r="E35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="6"/>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="2">
-        <v>0.56698234053980401</v>
+      <c r="B36" s="9">
+        <v>0.74633101358069398</v>
       </c>
       <c r="C36" s="42"/>
       <c r="E36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="6"/>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="2">
-        <v>0.74410011769931905</v>
+      <c r="B37" s="9">
+        <v>0.72630558728949801</v>
       </c>
       <c r="C37" s="42"/>
       <c r="E37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="6"/>
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="2">
-        <v>0.79051724137931001</v>
+      <c r="B38" s="9">
+        <v>0.81288393386896096</v>
       </c>
       <c r="C38" s="42"/>
       <c r="I38"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J38"/>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="2">
-        <v>0.735990054967121</v>
+      <c r="B39" s="9">
+        <v>0.66053091926878305</v>
       </c>
       <c r="C39" s="42"/>
       <c r="I39"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J39"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="2">
-        <v>0.93426358126429598</v>
+      <c r="B40" s="9">
+        <v>0.95666051887834003</v>
       </c>
       <c r="C40" s="42"/>
       <c r="I40"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="2">
-        <v>0.51477270051985402</v>
+      <c r="B41" s="9">
+        <v>0.51650519784541404</v>
       </c>
       <c r="C41" s="42"/>
       <c r="I41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="2">
-        <v>0.87698538852998098</v>
+      <c r="B42" s="9">
+        <v>0.86324443530325901</v>
       </c>
       <c r="C42" s="42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="11">
         <f>AVERAGE(B33:B42)</f>
-        <v>0.67588783548299547</v>
+        <v>0.70533892031782441</v>
       </c>
       <c r="C43" s="44"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="11">
         <f>STDEV(B33:B42)</f>
-        <v>0.16198309235337127</v>
+        <v>0.15250613677835365</v>
       </c>
       <c r="C44" s="44"/>
     </row>
-    <row r="45" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="10"/>
       <c r="C45" s="42"/>
     </row>
-    <row r="46" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="37"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="8" t="s">
         <v>0</v>
@@ -9317,12 +9538,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="9">
-        <v>0.450873259366802</v>
+      <c r="B48" s="2">
+        <v>0.524277203139908</v>
       </c>
       <c r="C48" s="42"/>
     </row>
@@ -9330,8 +9551,8 @@
       <c r="A49" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="9">
-        <v>0.36508433744791202</v>
+      <c r="B49" s="2">
+        <v>0.46680794193344899</v>
       </c>
       <c r="C49" s="42"/>
     </row>
@@ -9339,8 +9560,8 @@
       <c r="A50" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="9">
-        <v>0.46645076937408603</v>
+      <c r="B50" s="2">
+        <v>0.586527970069877</v>
       </c>
       <c r="C50" s="42"/>
     </row>
@@ -9348,8 +9569,8 @@
       <c r="A51" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="9">
-        <v>0.60561380010233201</v>
+      <c r="B51" s="2">
+        <v>0.57204014804584802</v>
       </c>
       <c r="C51" s="42"/>
     </row>
@@ -9357,8 +9578,8 @@
       <c r="A52" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="9">
-        <v>0.34530892993145501</v>
+      <c r="B52" s="2">
+        <v>0.71550583342820195</v>
       </c>
       <c r="C52" s="42"/>
     </row>
@@ -9366,8 +9587,8 @@
       <c r="A53" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="9">
-        <v>0.64104661488634096</v>
+      <c r="B53" s="2">
+        <v>0.78887520525451604</v>
       </c>
       <c r="C53" s="42"/>
     </row>
@@ -9375,8 +9596,8 @@
       <c r="A54" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="9">
-        <v>0.75237069593865702</v>
+      <c r="B54" s="2">
+        <v>0.74360392945543397</v>
       </c>
       <c r="C54" s="42"/>
     </row>
@@ -9384,8 +9605,8 @@
       <c r="A55" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="9">
-        <v>0.61393631684053196</v>
+      <c r="B55" s="2">
+        <v>0.93201986014958904</v>
       </c>
       <c r="C55" s="42"/>
     </row>
@@ -9393,17 +9614,17 @@
       <c r="A56" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="9">
-        <v>0.52741934273019997</v>
+      <c r="B56" s="2">
+        <v>0.55164625084617303</v>
       </c>
       <c r="C56" s="42"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="9">
-        <v>0.56379930526989397</v>
+      <c r="B57" s="2">
+        <v>0.93988076028353795</v>
       </c>
       <c r="C57" s="42"/>
     </row>
@@ -9413,24 +9634,155 @@
       </c>
       <c r="B58" s="11">
         <f>AVERAGE(B48:B57)</f>
-        <v>0.53319033718882114</v>
+        <v>0.6821185102606534</v>
       </c>
       <c r="C58" s="44"/>
     </row>
-    <row r="59" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <f>STDEV(B48:B57)</f>
-        <v>0.12788780341896597</v>
-      </c>
-      <c r="C59" s="45"/>
+        <v>0.16823744827098275</v>
+      </c>
+      <c r="C59" s="44"/>
+    </row>
+    <row r="60" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="42"/>
+    </row>
+    <row r="61" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="37"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="13"/>
+      <c r="B62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="9">
+        <v>0.393569758025403</v>
+      </c>
+      <c r="C63" s="42"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="9">
+        <v>0.34041031336591399</v>
+      </c>
+      <c r="C64" s="42"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="9">
+        <v>0.47486715030656701</v>
+      </c>
+      <c r="C65" s="42"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="9">
+        <v>0.59868562208536202</v>
+      </c>
+      <c r="C66" s="42"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="9">
+        <v>0.334474168570703</v>
+      </c>
+      <c r="C67" s="42"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="9">
+        <v>0.63429180317521205</v>
+      </c>
+      <c r="C68" s="42"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="9">
+        <v>0.77613256164049405</v>
+      </c>
+      <c r="C69" s="42"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="9">
+        <v>0.60452474582879301</v>
+      </c>
+      <c r="C70" s="42"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="9">
+        <v>0.53630384510705498</v>
+      </c>
+      <c r="C71" s="42"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9">
+        <v>0.573692124868596</v>
+      </c>
+      <c r="C72" s="42"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="11">
+        <f>AVERAGE(B63:B72)</f>
+        <v>0.52669520929740987</v>
+      </c>
+      <c r="C73" s="44"/>
+    </row>
+    <row r="74" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="12">
+        <f>STDEV(B63:B72)</f>
+        <v>0.14118413368081911</v>
+      </c>
+      <c r="C74" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9480,12 +9832,12 @@
       <c r="H1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="26"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -436,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +664,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -804,6 +810,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2401,19 +2410,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.044646343190908</c:v>
+                    <c:v>0.0440154780675294</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0532013524271062</c:v>
+                    <c:v>0.0556897118746152</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0482266749372771</c:v>
+                    <c:v>0.0443986338971305</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0383231428723537</c:v>
+                    <c:v>0.04113828652293</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.156224675960663</c:v>
+                    <c:v>0.049402580275745</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2425,19 +2434,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.044646343190908</c:v>
+                    <c:v>0.0440154780675294</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0532013524271062</c:v>
+                    <c:v>0.0556897118746152</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0482266749372771</c:v>
+                    <c:v>0.0443986338971305</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0383231428723537</c:v>
+                    <c:v>0.04113828652293</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.156224675960663</c:v>
+                    <c:v>0.049402580275745</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2486,16 +2495,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.52669520929741</c:v>
+                  <c:v>0.520599892452138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.682118510260653</c:v>
+                  <c:v>0.672911736844429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.705338920317824</c:v>
+                  <c:v>0.690020980248082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.776312794933664</c:v>
+                  <c:v>0.771107623930257</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.791811381632352</c:v>
@@ -2814,19 +2823,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.393569758025403</c:v>
+                  <c:v>0.392467547670856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.524277203139908</c:v>
+                  <c:v>0.533071602047012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.688714352972828</c:v>
+                  <c:v>0.732942437307959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.794381867699239</c:v>
+                  <c:v>0.782519472224571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.770121729359038</c:v>
+                  <c:v>0.748678038157329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,19 +2910,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.340410313365914</c:v>
+                  <c:v>0.335760574259692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.466807941933449</c:v>
+                  <c:v>0.464036364191246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4526371020507</c:v>
+                  <c:v>0.469805099804863</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.627382465487634</c:v>
+                  <c:v>0.678583607044439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.542761703691424</c:v>
+                  <c:v>0.484144426328693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2988,19 +2997,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.474867150306567</c:v>
+                  <c:v>0.473358422094751</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.586527970069877</c:v>
+                  <c:v>0.498758322022195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.629576142119767</c:v>
+                  <c:v>0.65182140402627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.612835718412387</c:v>
+                  <c:v>0.633428501225188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.736587228218463</c:v>
+                  <c:v>0.71123407526946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3075,19 +3084,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.598685622085362</c:v>
+                  <c:v>0.543980413725965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.572040148045848</c:v>
+                  <c:v>0.579812806452621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.746331013580694</c:v>
+                  <c:v>0.623660028596378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.753726536634682</c:v>
+                  <c:v>0.620091518984901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.61083444976851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,19 +3171,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.334474168570703</c:v>
+                  <c:v>0.336207370737074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.715505833428202</c:v>
+                  <c:v>0.709598286981843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.726305587289498</c:v>
+                  <c:v>0.679144188457307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.842920950748921</c:v>
+                  <c:v>0.843466774562072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.884009266311247</c:v>
+                  <c:v>0.862659727511213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3255,19 +3264,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.634291803175212</c:v>
+                  <c:v>0.636313434888196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.788875205254516</c:v>
+                  <c:v>0.793270097191666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.812883933868961</c:v>
+                  <c:v>0.780986579423564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.815327244997397</c:v>
+                  <c:v>0.799650463174342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.847969160221913</c:v>
+                  <c:v>0.87447283699823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3348,19 +3357,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.776132561640494</c:v>
+                  <c:v>0.772387181166485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.743603929455434</c:v>
+                  <c:v>0.739480620817613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.660530919268783</c:v>
+                  <c:v>0.660615105396659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.965098454481002</c:v>
+                  <c:v>0.960537452560304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.969542443817248</c:v>
+                  <c:v>0.987810122459661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3435,19 +3444,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.604524745828793</c:v>
+                  <c:v>0.604905729121168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.932019860149589</c:v>
+                  <c:v>0.934976702279658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95666051887834</c:v>
+                  <c:v>0.907846095405301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9242896485591</c:v>
+                  <c:v>0.978353599423871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.950625063475796</c:v>
+                  <c:v>0.974304483674896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3528,19 +3537,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.536303845107055</c:v>
+                  <c:v>0.536644577471759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.551646250846173</c:v>
+                  <c:v>0.538668684180786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.516505197845414</c:v>
+                  <c:v>0.517227704960188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.639178408447277</c:v>
+                  <c:v>0.640843908560763</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.556444603707747</c:v>
+                  <c:v>0.630005042693175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3621,16 +3630,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.573692124868596</c:v>
+                  <c:v>0.573973673385438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.939880760283538</c:v>
+                  <c:v>0.937443882279654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.863244435303259</c:v>
+                  <c:v>0.876161159102336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.787986653869007</c:v>
+                  <c:v>0.773600941542118</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.868241235888295</c:v>
@@ -8690,7 +8699,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8762,15 +8771,15 @@
       </c>
       <c r="F4" s="2">
         <f>B73</f>
-        <v>0.52669520929740987</v>
+        <v>0.52059989245213845</v>
       </c>
       <c r="G4" s="2">
         <f>B74/SQRT(10)</f>
-        <v>4.464634319090803E-2</v>
+        <v>4.4015478067529437E-2</v>
       </c>
       <c r="H4" s="2">
         <f>MEDIAN(F11:F20)</f>
-        <v>0.55499798498782549</v>
+        <v>0.54031249559886196</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -8786,15 +8795,15 @@
       </c>
       <c r="F5" s="2">
         <f>B58</f>
-        <v>0.6821185102606534</v>
+        <v>0.6729117368444294</v>
       </c>
       <c r="G5" s="2">
         <f>B59/SQRT(10)</f>
-        <v>5.3201352427106205E-2</v>
+        <v>5.5689711874615161E-2</v>
       </c>
       <c r="H5" s="2">
         <f>MEDIAN(G11:G20)</f>
-        <v>0.65101690174903948</v>
+        <v>0.64470554671723201</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -8808,15 +8817,15 @@
       </c>
       <c r="F6" s="2">
         <f>B43</f>
-        <v>0.70533892031782441</v>
+        <v>0.69002098024808256</v>
       </c>
       <c r="G6" s="2">
         <f>B44/SQRT(10)</f>
-        <v>4.8226674937277093E-2</v>
+        <v>4.4398633897130488E-2</v>
       </c>
       <c r="H6" s="2">
         <f>MEDIAN(H11:H20)</f>
-        <v>0.70750997013116301</v>
+        <v>0.66987964692698299</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -8832,15 +8841,15 @@
       </c>
       <c r="F7" s="2">
         <f>B28</f>
-        <v>0.77631279493366456</v>
+        <v>0.77110762393025689</v>
       </c>
       <c r="G7" s="2">
         <f>B29/SQRT(10)</f>
-        <v>3.8323142872353673E-2</v>
+        <v>4.1138286522929966E-2</v>
       </c>
       <c r="H7" s="2">
         <f>MEDIAN(B18:B27)</f>
-        <v>0.79118426078412307</v>
+        <v>0.77806020688334443</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -8859,12 +8868,12 @@
         <v>0.79181138163235221</v>
       </c>
       <c r="G8" s="2">
-        <f>B14</f>
-        <v>0.1562246759606635</v>
+        <f>B14/SQRT(10)</f>
+        <v>4.9402580275745019E-2</v>
       </c>
       <c r="H8" s="2">
         <f>MEDIAN(J11:J20)</f>
-        <v>0.80904544479047558</v>
+        <v>0.80566888283427107</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -8913,22 +8922,22 @@
       </c>
       <c r="F11" s="38">
         <f>B63</f>
-        <v>0.393569758025403</v>
+        <v>0.39246754767085601</v>
       </c>
       <c r="G11" s="38">
         <f>B48</f>
-        <v>0.524277203139908</v>
+        <v>0.53307160204701198</v>
       </c>
       <c r="H11" s="38">
         <f>B33</f>
-        <v>0.68871435297282801</v>
+        <v>0.73294243730795905</v>
       </c>
       <c r="I11" s="38">
         <f>B18</f>
-        <v>0.79438186769923902</v>
+        <v>0.78251947222457097</v>
       </c>
       <c r="J11" s="55">
-        <v>0.770121729359038</v>
+        <v>0.74867803815732903</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -8944,22 +8953,22 @@
       </c>
       <c r="F12" s="38">
         <f>B64</f>
-        <v>0.34041031336591399</v>
+        <v>0.33576057425969202</v>
       </c>
       <c r="G12" s="38">
         <f>B49</f>
-        <v>0.46680794193344899</v>
+        <v>0.464036364191246</v>
       </c>
       <c r="H12" s="38">
         <f>B34</f>
-        <v>0.45263710205070001</v>
+        <v>0.46980509980486301</v>
       </c>
       <c r="I12" s="38">
         <f>B19</f>
-        <v>0.62738246548763399</v>
+        <v>0.67858360704443899</v>
       </c>
       <c r="J12" s="55">
-        <v>0.54276170369142396</v>
+        <v>0.48414442632869298</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -8976,22 +8985,22 @@
       </c>
       <c r="F13" s="38">
         <f>B65</f>
-        <v>0.47486715030656701</v>
+        <v>0.47335842209475099</v>
       </c>
       <c r="G13" s="38">
         <f>B50</f>
-        <v>0.586527970069877</v>
+        <v>0.498758322022195</v>
       </c>
       <c r="H13" s="38">
         <f>B35</f>
-        <v>0.62957614211976698</v>
+        <v>0.65182140402626998</v>
       </c>
       <c r="I13" s="38">
         <f>B20</f>
-        <v>0.61283571841238704</v>
+        <v>0.63342850122518801</v>
       </c>
       <c r="J13" s="56">
-        <v>0.73658722821846301</v>
+        <v>0.71123407526946003</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -9008,23 +9017,22 @@
       </c>
       <c r="F14" s="38">
         <f>B66</f>
-        <v>0.59868562208536202</v>
+        <v>0.54398041372596495</v>
       </c>
       <c r="G14" s="38">
         <f>B51</f>
-        <v>0.57204014804584802</v>
+        <v>0.57981280645262101</v>
       </c>
       <c r="H14" s="38">
         <f>B36</f>
-        <v>0.74633101358069398</v>
+        <v>0.62366002859637804</v>
       </c>
       <c r="I14" s="38">
         <f>B21</f>
-        <v>0.75372653663468203</v>
-      </c>
-      <c r="J14" s="38">
-        <f t="shared" ref="J12:J20" si="0">B6</f>
-        <v>0</v>
+        <v>0.620091518984901</v>
+      </c>
+      <c r="J14" s="57">
+        <v>0.61083444976850998</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -9036,22 +9044,22 @@
       </c>
       <c r="F15" s="38">
         <f>B67</f>
-        <v>0.334474168570703</v>
+        <v>0.33620737073707402</v>
       </c>
       <c r="G15" s="38">
         <f>B52</f>
-        <v>0.71550583342820195</v>
+        <v>0.70959828698184302</v>
       </c>
       <c r="H15" s="38">
         <f>B37</f>
-        <v>0.72630558728949801</v>
+        <v>0.67914418845730695</v>
       </c>
       <c r="I15" s="38">
         <f>B22</f>
-        <v>0.84292095074892104</v>
+        <v>0.84346677456207197</v>
       </c>
       <c r="J15" s="56">
-        <v>0.88400926631124699</v>
+        <v>0.862659727511213</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -9065,22 +9073,22 @@
       </c>
       <c r="F16" s="38">
         <f>B68</f>
-        <v>0.63429180317521205</v>
+        <v>0.63631343488819603</v>
       </c>
       <c r="G16" s="38">
         <f>B53</f>
-        <v>0.78887520525451604</v>
+        <v>0.79327009719166597</v>
       </c>
       <c r="H16" s="38">
         <f>B38</f>
-        <v>0.81288393386896096</v>
+        <v>0.78098657942356398</v>
       </c>
       <c r="I16" s="38">
         <f>B23</f>
-        <v>0.81532724499739695</v>
+        <v>0.79965046317434196</v>
       </c>
       <c r="J16" s="56">
-        <v>0.84796916022191304</v>
+        <v>0.87447283699822997</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -9096,22 +9104,22 @@
       </c>
       <c r="F17" s="38">
         <f>B69</f>
-        <v>0.77613256164049405</v>
+        <v>0.77238718116648497</v>
       </c>
       <c r="G17" s="38">
         <f>B54</f>
-        <v>0.74360392945543397</v>
+        <v>0.73948062081761301</v>
       </c>
       <c r="H17" s="38">
         <f>B39</f>
-        <v>0.66053091926878305</v>
+        <v>0.66061510539665902</v>
       </c>
       <c r="I17" s="38">
         <f>B24</f>
-        <v>0.96509845448100195</v>
+        <v>0.96053745256030398</v>
       </c>
       <c r="J17" s="56">
-        <v>0.96954244381724797</v>
+        <v>0.98781012245966104</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -9119,7 +9127,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="9">
-        <v>0.79438186769923902</v>
+        <v>0.78251947222457097</v>
       </c>
       <c r="C18" s="42"/>
       <c r="E18" s="54" t="s">
@@ -9127,22 +9135,22 @@
       </c>
       <c r="F18" s="38">
         <f>B70</f>
-        <v>0.60452474582879301</v>
+        <v>0.60490572912116802</v>
       </c>
       <c r="G18" s="38">
         <f>B55</f>
-        <v>0.93201986014958904</v>
+        <v>0.93497670227965801</v>
       </c>
       <c r="H18" s="38">
         <f>B40</f>
-        <v>0.95666051887834003</v>
+        <v>0.90784609540530103</v>
       </c>
       <c r="I18" s="38">
         <f>B25</f>
-        <v>0.92428964855910001</v>
-      </c>
-      <c r="J18" s="56">
-        <v>0.95062506347579601</v>
+        <v>0.97835359942387101</v>
+      </c>
+      <c r="J18" s="57">
+        <v>0.97430448367489597</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -9150,7 +9158,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="9">
-        <v>0.62738246548763399</v>
+        <v>0.67858360704443899</v>
       </c>
       <c r="C19" s="42"/>
       <c r="E19" s="53" t="s">
@@ -9158,22 +9166,22 @@
       </c>
       <c r="F19" s="38">
         <f>B71</f>
-        <v>0.53630384510705498</v>
+        <v>0.53664457747175898</v>
       </c>
       <c r="G19" s="38">
         <f>B56</f>
-        <v>0.55164625084617303</v>
+        <v>0.53866868418078595</v>
       </c>
       <c r="H19" s="38">
         <f>B41</f>
-        <v>0.51650519784541404</v>
+        <v>0.517227704960188</v>
       </c>
       <c r="I19" s="38">
         <f>B26</f>
-        <v>0.63917840844727702</v>
-      </c>
-      <c r="J19" s="55">
-        <v>0.55644460370774695</v>
+        <v>0.64084390856076301</v>
+      </c>
+      <c r="J19" s="57">
+        <v>0.63000504269317503</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -9181,7 +9189,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="9">
-        <v>0.61283571841238704</v>
+        <v>0.63342850122518801</v>
       </c>
       <c r="C20" s="43"/>
       <c r="E20" s="40" t="s">
@@ -9189,19 +9197,19 @@
       </c>
       <c r="F20" s="38">
         <f>B72</f>
-        <v>0.573692124868596</v>
+        <v>0.57397367338543803</v>
       </c>
       <c r="G20" s="38">
         <f>B57</f>
-        <v>0.93988076028353795</v>
+        <v>0.93744388227965403</v>
       </c>
       <c r="H20" s="38">
         <f>B42</f>
-        <v>0.86324443530325901</v>
+        <v>0.87616115910233605</v>
       </c>
       <c r="I20" s="38">
         <f>B27</f>
-        <v>0.78798665386900701</v>
+        <v>0.773600941542118</v>
       </c>
       <c r="J20" s="56">
         <v>0.86824123588829505</v>
@@ -9212,7 +9220,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="9">
-        <v>0.75372653663468203</v>
+        <v>0.620091518984901</v>
       </c>
       <c r="C21" s="42"/>
     </row>
@@ -9221,7 +9229,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="9">
-        <v>0.84292095074892104</v>
+        <v>0.84346677456207197</v>
       </c>
       <c r="C22" s="42"/>
     </row>
@@ -9230,7 +9238,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="9">
-        <v>0.81532724499739695</v>
+        <v>0.79965046317434196</v>
       </c>
       <c r="C23" s="42"/>
     </row>
@@ -9239,7 +9247,7 @@
         <v>69</v>
       </c>
       <c r="B24" s="9">
-        <v>0.96509845448100195</v>
+        <v>0.96053745256030398</v>
       </c>
       <c r="C24" s="42"/>
       <c r="E24" s="47" t="s">
@@ -9256,7 +9264,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="9">
-        <v>0.92428964855910001</v>
+        <v>0.97835359942387101</v>
       </c>
       <c r="C25" s="42"/>
       <c r="E25" s="6"/>
@@ -9271,7 +9279,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="9">
-        <v>0.63917840844727702</v>
+        <v>0.64084390856076301</v>
       </c>
       <c r="C26" s="42"/>
       <c r="E26" s="6"/>
@@ -9286,7 +9294,7 @@
         <v>70</v>
       </c>
       <c r="B27" s="9">
-        <v>0.78798665386900701</v>
+        <v>0.773600941542118</v>
       </c>
       <c r="C27" s="42"/>
       <c r="E27" s="6"/>
@@ -9302,7 +9310,7 @@
       </c>
       <c r="B28" s="11">
         <f>AVERAGE(B18:B27)</f>
-        <v>0.77631279493366456</v>
+        <v>0.77110762393025689</v>
       </c>
       <c r="C28" s="44"/>
       <c r="E28" s="6"/>
@@ -9318,7 +9326,7 @@
       </c>
       <c r="B29" s="11">
         <f>STDEV(B18:B27)</f>
-        <v>0.12118841857268509</v>
+        <v>0.13009068444906735</v>
       </c>
       <c r="C29" s="44"/>
       <c r="E29" s="6"/>
@@ -9372,7 +9380,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="9">
-        <v>0.68871435297282801</v>
+        <v>0.73294243730795905</v>
       </c>
       <c r="C33" s="42"/>
       <c r="E33" s="6"/>
@@ -9387,7 +9395,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="9">
-        <v>0.45263710205070001</v>
+        <v>0.46980509980486301</v>
       </c>
       <c r="C34" s="42"/>
       <c r="E34" s="6"/>
@@ -9402,7 +9410,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="9">
-        <v>0.62957614211976698</v>
+        <v>0.65182140402626998</v>
       </c>
       <c r="C35" s="43"/>
       <c r="E35" s="6"/>
@@ -9417,7 +9425,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="9">
-        <v>0.74633101358069398</v>
+        <v>0.62366002859637804</v>
       </c>
       <c r="C36" s="42"/>
       <c r="E36" s="6"/>
@@ -9432,7 +9440,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="9">
-        <v>0.72630558728949801</v>
+        <v>0.67914418845730695</v>
       </c>
       <c r="C37" s="42"/>
       <c r="E37" s="6"/>
@@ -9447,7 +9455,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="9">
-        <v>0.81288393386896096</v>
+        <v>0.78098657942356398</v>
       </c>
       <c r="C38" s="42"/>
       <c r="I38"/>
@@ -9459,7 +9467,7 @@
         <v>69</v>
       </c>
       <c r="B39" s="9">
-        <v>0.66053091926878305</v>
+        <v>0.66061510539665902</v>
       </c>
       <c r="C39" s="42"/>
       <c r="I39"/>
@@ -9471,7 +9479,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="9">
-        <v>0.95666051887834003</v>
+        <v>0.90784609540530103</v>
       </c>
       <c r="C40" s="42"/>
       <c r="I40"/>
@@ -9482,7 +9490,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="9">
-        <v>0.51650519784541404</v>
+        <v>0.517227704960188</v>
       </c>
       <c r="C41" s="42"/>
       <c r="I41"/>
@@ -9493,7 +9501,7 @@
         <v>70</v>
       </c>
       <c r="B42" s="9">
-        <v>0.86324443530325901</v>
+        <v>0.87616115910233605</v>
       </c>
       <c r="C42" s="42"/>
     </row>
@@ -9503,7 +9511,7 @@
       </c>
       <c r="B43" s="11">
         <f>AVERAGE(B33:B42)</f>
-        <v>0.70533892031782441</v>
+        <v>0.69002098024808256</v>
       </c>
       <c r="C43" s="44"/>
     </row>
@@ -9513,7 +9521,7 @@
       </c>
       <c r="B44" s="11">
         <f>STDEV(B33:B42)</f>
-        <v>0.15250613677835365</v>
+        <v>0.14040080811489031</v>
       </c>
       <c r="C44" s="44"/>
     </row>
@@ -9543,7 +9551,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="2">
-        <v>0.524277203139908</v>
+        <v>0.53307160204701198</v>
       </c>
       <c r="C48" s="42"/>
     </row>
@@ -9552,7 +9560,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="2">
-        <v>0.46680794193344899</v>
+        <v>0.464036364191246</v>
       </c>
       <c r="C49" s="42"/>
     </row>
@@ -9561,7 +9569,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>0.586527970069877</v>
+        <v>0.498758322022195</v>
       </c>
       <c r="C50" s="42"/>
     </row>
@@ -9570,7 +9578,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="2">
-        <v>0.57204014804584802</v>
+        <v>0.57981280645262101</v>
       </c>
       <c r="C51" s="42"/>
     </row>
@@ -9579,7 +9587,7 @@
         <v>32</v>
       </c>
       <c r="B52" s="2">
-        <v>0.71550583342820195</v>
+        <v>0.70959828698184302</v>
       </c>
       <c r="C52" s="42"/>
     </row>
@@ -9588,7 +9596,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="2">
-        <v>0.78887520525451604</v>
+        <v>0.79327009719166597</v>
       </c>
       <c r="C53" s="42"/>
     </row>
@@ -9597,7 +9605,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="2">
-        <v>0.74360392945543397</v>
+        <v>0.73948062081761301</v>
       </c>
       <c r="C54" s="42"/>
     </row>
@@ -9606,7 +9614,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="2">
-        <v>0.93201986014958904</v>
+        <v>0.93497670227965801</v>
       </c>
       <c r="C55" s="42"/>
     </row>
@@ -9615,7 +9623,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="2">
-        <v>0.55164625084617303</v>
+        <v>0.53866868418078595</v>
       </c>
       <c r="C56" s="42"/>
     </row>
@@ -9624,7 +9632,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2">
-        <v>0.93988076028353795</v>
+        <v>0.93744388227965403</v>
       </c>
       <c r="C57" s="42"/>
     </row>
@@ -9634,7 +9642,7 @@
       </c>
       <c r="B58" s="11">
         <f>AVERAGE(B48:B57)</f>
-        <v>0.6821185102606534</v>
+        <v>0.6729117368444294</v>
       </c>
       <c r="C58" s="44"/>
     </row>
@@ -9644,7 +9652,7 @@
       </c>
       <c r="B59" s="11">
         <f>STDEV(B48:B57)</f>
-        <v>0.16823744827098275</v>
+        <v>0.17610633176230925</v>
       </c>
       <c r="C59" s="44"/>
     </row>
@@ -9674,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="9">
-        <v>0.393569758025403</v>
+        <v>0.39246754767085601</v>
       </c>
       <c r="C63" s="42"/>
     </row>
@@ -9683,7 +9691,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="9">
-        <v>0.34041031336591399</v>
+        <v>0.33576057425969202</v>
       </c>
       <c r="C64" s="42"/>
     </row>
@@ -9692,7 +9700,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="9">
-        <v>0.47486715030656701</v>
+        <v>0.47335842209475099</v>
       </c>
       <c r="C65" s="42"/>
     </row>
@@ -9701,7 +9709,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="9">
-        <v>0.59868562208536202</v>
+        <v>0.54398041372596495</v>
       </c>
       <c r="C66" s="42"/>
     </row>
@@ -9710,7 +9718,7 @@
         <v>32</v>
       </c>
       <c r="B67" s="9">
-        <v>0.334474168570703</v>
+        <v>0.33620737073707402</v>
       </c>
       <c r="C67" s="42"/>
     </row>
@@ -9719,7 +9727,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="9">
-        <v>0.63429180317521205</v>
+        <v>0.63631343488819603</v>
       </c>
       <c r="C68" s="42"/>
     </row>
@@ -9728,7 +9736,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="9">
-        <v>0.77613256164049405</v>
+        <v>0.77238718116648497</v>
       </c>
       <c r="C69" s="42"/>
     </row>
@@ -9737,7 +9745,7 @@
         <v>26</v>
       </c>
       <c r="B70" s="9">
-        <v>0.60452474582879301</v>
+        <v>0.60490572912116802</v>
       </c>
       <c r="C70" s="42"/>
     </row>
@@ -9746,7 +9754,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="9">
-        <v>0.53630384510705498</v>
+        <v>0.53664457747175898</v>
       </c>
       <c r="C71" s="42"/>
     </row>
@@ -9755,7 +9763,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="9">
-        <v>0.573692124868596</v>
+        <v>0.57397367338543803</v>
       </c>
       <c r="C72" s="42"/>
     </row>
@@ -9765,7 +9773,7 @@
       </c>
       <c r="B73" s="11">
         <f>AVERAGE(B63:B72)</f>
-        <v>0.52669520929740987</v>
+        <v>0.52059989245213845</v>
       </c>
       <c r="C73" s="44"/>
     </row>
@@ -9775,7 +9783,7 @@
       </c>
       <c r="B74" s="12">
         <f>STDEV(B63:B72)</f>
-        <v>0.14118413368081911</v>
+        <v>0.13918916299457962</v>
       </c>
       <c r="C74" s="45"/>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -436,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,12 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,6 +776,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,20 +803,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -879,7 +873,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1041,11 +1034,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2083203008"/>
-        <c:axId val="-2083219504"/>
+        <c:axId val="2146016080"/>
+        <c:axId val="2146019328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2083203008"/>
+        <c:axId val="2146016080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083219504"/>
+        <c:crossAx val="2146019328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,7 +1089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083219504"/>
+        <c:axId val="2146019328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1148,7 +1141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083203008"/>
+        <c:crossAx val="2146016080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1237,7 +1230,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2117,11 +2109,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2083519248"/>
-        <c:axId val="-2083516176"/>
+        <c:axId val="2146597344"/>
+        <c:axId val="2146600464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2083519248"/>
+        <c:axId val="2146597344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +2156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083516176"/>
+        <c:crossAx val="2146600464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2172,7 +2164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083516176"/>
+        <c:axId val="2146600464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2224,7 +2216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083519248"/>
+        <c:crossAx val="2146597344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2238,7 +2230,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2413,7 +2404,7 @@
                     <c:v>0.0440154780675294</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0556897118746152</c:v>
+                    <c:v>0.0544995750820788</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.0443986338971305</c:v>
@@ -2437,7 +2428,7 @@
                     <c:v>0.0440154780675294</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0556897118746152</c:v>
+                    <c:v>0.0544995750820788</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0.0443986338971305</c:v>
@@ -2498,7 +2489,7 @@
                   <c:v>0.520599892452138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.672911736844429</c:v>
+                  <c:v>0.680406319458533</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.690020980248082</c:v>
@@ -2523,11 +2514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2088104960"/>
-        <c:axId val="-2082798688"/>
+        <c:axId val="2146148560"/>
+        <c:axId val="2146151904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2088104960"/>
+        <c:axId val="2146148560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082798688"/>
+        <c:crossAx val="2146151904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2578,7 +2569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082798688"/>
+        <c:axId val="2146151904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2630,7 +2621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088104960"/>
+        <c:crossAx val="2146148560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2826,7 +2817,7 @@
                   <c:v>0.392467547670856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.533071602047012</c:v>
+                  <c:v>0.540178332899644</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.732942437307959</c:v>
@@ -2913,7 +2904,7 @@
                   <c:v>0.335760574259692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.464036364191246</c:v>
+                  <c:v>0.472678882393687</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.469805099804863</c:v>
@@ -3000,7 +2991,7 @@
                   <c:v>0.473358422094751</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.498758322022195</c:v>
+                  <c:v>0.510708405562731</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.65182140402627</c:v>
@@ -3087,7 +3078,7 @@
                   <c:v>0.543980413725965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.579812806452621</c:v>
+                  <c:v>0.605467981915294</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.623660028596378</c:v>
@@ -3174,7 +3165,7 @@
                   <c:v>0.336207370737074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.709598286981843</c:v>
+                  <c:v>0.708256424691682</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.679144188457307</c:v>
@@ -3267,7 +3258,7 @@
                   <c:v>0.636313434888196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.793270097191666</c:v>
+                  <c:v>0.792061223433773</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.780986579423564</c:v>
@@ -3360,7 +3351,7 @@
                   <c:v>0.772387181166485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.739480620817613</c:v>
+                  <c:v>0.746639094671023</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.660615105396659</c:v>
@@ -3447,7 +3438,7 @@
                   <c:v>0.604905729121168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.934976702279658</c:v>
+                  <c:v>0.934919924082486</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.907846095405301</c:v>
@@ -3540,7 +3531,7 @@
                   <c:v>0.536644577471759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.538668684180786</c:v>
+                  <c:v>0.547921935980789</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.517227704960188</c:v>
@@ -3633,7 +3624,7 @@
                   <c:v>0.573973673385438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.937443882279654</c:v>
+                  <c:v>0.945230988954222</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.876161159102336</c:v>
@@ -3659,11 +3650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2087882784"/>
-        <c:axId val="-2087879712"/>
+        <c:axId val="2146254816"/>
+        <c:axId val="2146257968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2087882784"/>
+        <c:axId val="2146254816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3706,7 +3697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087879712"/>
+        <c:crossAx val="2146257968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3714,7 +3705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087879712"/>
+        <c:axId val="2146257968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3766,7 +3757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087882784"/>
+        <c:crossAx val="2146254816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4154,11 +4145,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2081705616"/>
-        <c:axId val="-2081702288"/>
+        <c:axId val="2146292256"/>
+        <c:axId val="2146295680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2081705616"/>
+        <c:axId val="2146292256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4201,7 +4192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081702288"/>
+        <c:crossAx val="2146295680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4209,7 +4200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2081702288"/>
+        <c:axId val="2146295680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4260,7 +4251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081705616"/>
+        <c:crossAx val="2146292256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7814,13 +7805,13 @@
       <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -8289,13 +8280,13 @@
         <v>0.68605378361475899</v>
       </c>
       <c r="C24" s="42"/>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
@@ -8699,7 +8690,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8731,14 +8722,14 @@
       <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -8795,15 +8786,15 @@
       </c>
       <c r="F5" s="2">
         <f>B58</f>
-        <v>0.6729117368444294</v>
+        <v>0.68040631945853325</v>
       </c>
       <c r="G5" s="2">
         <f>B59/SQRT(10)</f>
-        <v>5.5689711874615161E-2</v>
+        <v>5.4499575082078762E-2</v>
       </c>
       <c r="H5" s="2">
         <f>MEDIAN(G11:G20)</f>
-        <v>0.64470554671723201</v>
+        <v>0.6568622033034881</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -8917,26 +8908,26 @@
         <v>0.55644460370774695</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="56" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="38">
-        <f>B63</f>
+        <f t="shared" ref="F11:F20" si="0">B63</f>
         <v>0.39246754767085601</v>
       </c>
       <c r="G11" s="38">
-        <f>B48</f>
-        <v>0.53307160204701198</v>
+        <f t="shared" ref="G11:G20" si="1">B48</f>
+        <v>0.54017833289964401</v>
       </c>
       <c r="H11" s="38">
-        <f>B33</f>
+        <f t="shared" ref="H11:H20" si="2">B33</f>
         <v>0.73294243730795905</v>
       </c>
       <c r="I11" s="38">
-        <f>B18</f>
+        <f t="shared" ref="I11:I20" si="3">B18</f>
         <v>0.78251947222457097</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="47">
         <v>0.74867803815732903</v>
       </c>
     </row>
@@ -8948,26 +8939,26 @@
         <v>0.86824123588829505</v>
       </c>
       <c r="C12" s="42"/>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="56" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="38">
-        <f>B64</f>
+        <f t="shared" si="0"/>
         <v>0.33576057425969202</v>
       </c>
       <c r="G12" s="38">
-        <f>B49</f>
-        <v>0.464036364191246</v>
+        <f t="shared" si="1"/>
+        <v>0.47267888239368699</v>
       </c>
       <c r="H12" s="38">
-        <f>B34</f>
+        <f t="shared" si="2"/>
         <v>0.46980509980486301</v>
       </c>
       <c r="I12" s="38">
-        <f>B19</f>
+        <f t="shared" si="3"/>
         <v>0.67858360704443899</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="47">
         <v>0.48414442632869298</v>
       </c>
     </row>
@@ -8980,26 +8971,26 @@
         <v>0.79181138163235221</v>
       </c>
       <c r="C13" s="44"/>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="56" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="38">
-        <f>B65</f>
+        <f t="shared" si="0"/>
         <v>0.47335842209475099</v>
       </c>
       <c r="G13" s="38">
-        <f>B50</f>
-        <v>0.498758322022195</v>
+        <f t="shared" si="1"/>
+        <v>0.510708405562731</v>
       </c>
       <c r="H13" s="38">
-        <f>B35</f>
+        <f t="shared" si="2"/>
         <v>0.65182140402626998</v>
       </c>
       <c r="I13" s="38">
-        <f>B20</f>
+        <f t="shared" si="3"/>
         <v>0.63342850122518801</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="48">
         <v>0.71123407526946003</v>
       </c>
     </row>
@@ -9012,26 +9003,26 @@
         <v>0.1562246759606635</v>
       </c>
       <c r="C14" s="44"/>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="56" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="38">
-        <f>B66</f>
+        <f t="shared" si="0"/>
         <v>0.54398041372596495</v>
       </c>
       <c r="G14" s="38">
-        <f>B51</f>
-        <v>0.57981280645262101</v>
+        <f t="shared" si="1"/>
+        <v>0.60546798191529405</v>
       </c>
       <c r="H14" s="38">
-        <f>B36</f>
+        <f t="shared" si="2"/>
         <v>0.62366002859637804</v>
       </c>
       <c r="I14" s="38">
-        <f>B21</f>
+        <f t="shared" si="3"/>
         <v>0.620091518984901</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="49">
         <v>0.61083444976850998</v>
       </c>
     </row>
@@ -9039,26 +9030,26 @@
       <c r="A15" s="13"/>
       <c r="B15" s="10"/>
       <c r="C15" s="42"/>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="57" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="38">
-        <f>B67</f>
+        <f t="shared" si="0"/>
         <v>0.33620737073707402</v>
       </c>
       <c r="G15" s="38">
-        <f>B52</f>
-        <v>0.70959828698184302</v>
+        <f t="shared" si="1"/>
+        <v>0.70825642469168204</v>
       </c>
       <c r="H15" s="38">
-        <f>B37</f>
+        <f t="shared" si="2"/>
         <v>0.67914418845730695</v>
       </c>
       <c r="I15" s="38">
-        <f>B22</f>
+        <f t="shared" si="3"/>
         <v>0.84346677456207197</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="48">
         <v>0.862659727511213</v>
       </c>
     </row>
@@ -9068,26 +9059,26 @@
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="37"/>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="57" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="38">
-        <f>B68</f>
+        <f t="shared" si="0"/>
         <v>0.63631343488819603</v>
       </c>
       <c r="G16" s="38">
-        <f>B53</f>
-        <v>0.79327009719166597</v>
+        <f t="shared" si="1"/>
+        <v>0.79206122343377305</v>
       </c>
       <c r="H16" s="38">
-        <f>B38</f>
+        <f t="shared" si="2"/>
         <v>0.78098657942356398</v>
       </c>
       <c r="I16" s="38">
-        <f>B23</f>
+        <f t="shared" si="3"/>
         <v>0.79965046317434196</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="48">
         <v>0.87447283699822997</v>
       </c>
     </row>
@@ -9099,26 +9090,26 @@
       <c r="C17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="57" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="38">
-        <f>B69</f>
+        <f t="shared" si="0"/>
         <v>0.77238718116648497</v>
       </c>
       <c r="G17" s="38">
-        <f>B54</f>
-        <v>0.73948062081761301</v>
+        <f t="shared" si="1"/>
+        <v>0.74663909467102296</v>
       </c>
       <c r="H17" s="38">
-        <f>B39</f>
+        <f t="shared" si="2"/>
         <v>0.66061510539665902</v>
       </c>
       <c r="I17" s="38">
-        <f>B24</f>
+        <f t="shared" si="3"/>
         <v>0.96053745256030398</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="48">
         <v>0.98781012245966104</v>
       </c>
     </row>
@@ -9130,26 +9121,26 @@
         <v>0.78251947222457097</v>
       </c>
       <c r="C18" s="42"/>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="57" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="38">
-        <f>B70</f>
+        <f t="shared" si="0"/>
         <v>0.60490572912116802</v>
       </c>
       <c r="G18" s="38">
-        <f>B55</f>
-        <v>0.93497670227965801</v>
+        <f t="shared" si="1"/>
+        <v>0.93491992408248603</v>
       </c>
       <c r="H18" s="38">
-        <f>B40</f>
+        <f t="shared" si="2"/>
         <v>0.90784609540530103</v>
       </c>
       <c r="I18" s="38">
-        <f>B25</f>
+        <f t="shared" si="3"/>
         <v>0.97835359942387101</v>
       </c>
-      <c r="J18" s="57">
+      <c r="J18" s="49">
         <v>0.97430448367489597</v>
       </c>
     </row>
@@ -9161,26 +9152,26 @@
         <v>0.67858360704443899</v>
       </c>
       <c r="C19" s="42"/>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="56" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="38">
-        <f>B71</f>
+        <f t="shared" si="0"/>
         <v>0.53664457747175898</v>
       </c>
       <c r="G19" s="38">
-        <f>B56</f>
-        <v>0.53866868418078595</v>
+        <f t="shared" si="1"/>
+        <v>0.54792193598078898</v>
       </c>
       <c r="H19" s="38">
-        <f>B41</f>
+        <f t="shared" si="2"/>
         <v>0.517227704960188</v>
       </c>
       <c r="I19" s="38">
-        <f>B26</f>
+        <f t="shared" si="3"/>
         <v>0.64084390856076301</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="49">
         <v>0.63000504269317503</v>
       </c>
     </row>
@@ -9192,26 +9183,26 @@
         <v>0.63342850122518801</v>
       </c>
       <c r="C20" s="43"/>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="57" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="38">
-        <f>B72</f>
+        <f t="shared" si="0"/>
         <v>0.57397367338543803</v>
       </c>
       <c r="G20" s="38">
-        <f>B57</f>
-        <v>0.93744388227965403</v>
+        <f t="shared" si="1"/>
+        <v>0.94523098895422197</v>
       </c>
       <c r="H20" s="38">
-        <f>B42</f>
+        <f t="shared" si="2"/>
         <v>0.87616115910233605</v>
       </c>
       <c r="I20" s="38">
-        <f>B27</f>
+        <f t="shared" si="3"/>
         <v>0.773600941542118</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J20" s="48">
         <v>0.86824123588829505</v>
       </c>
     </row>
@@ -9250,14 +9241,14 @@
         <v>0.96053745256030398</v>
       </c>
       <c r="C24" s="42"/>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
@@ -9551,7 +9542,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="2">
-        <v>0.53307160204701198</v>
+        <v>0.54017833289964401</v>
       </c>
       <c r="C48" s="42"/>
     </row>
@@ -9560,7 +9551,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="2">
-        <v>0.464036364191246</v>
+        <v>0.47267888239368699</v>
       </c>
       <c r="C49" s="42"/>
     </row>
@@ -9569,7 +9560,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>0.498758322022195</v>
+        <v>0.510708405562731</v>
       </c>
       <c r="C50" s="42"/>
     </row>
@@ -9578,7 +9569,7 @@
         <v>8</v>
       </c>
       <c r="B51" s="2">
-        <v>0.57981280645262101</v>
+        <v>0.60546798191529405</v>
       </c>
       <c r="C51" s="42"/>
     </row>
@@ -9587,7 +9578,7 @@
         <v>32</v>
       </c>
       <c r="B52" s="2">
-        <v>0.70959828698184302</v>
+        <v>0.70825642469168204</v>
       </c>
       <c r="C52" s="42"/>
     </row>
@@ -9596,7 +9587,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="2">
-        <v>0.79327009719166597</v>
+        <v>0.79206122343377305</v>
       </c>
       <c r="C53" s="42"/>
     </row>
@@ -9605,7 +9596,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="2">
-        <v>0.73948062081761301</v>
+        <v>0.74663909467102296</v>
       </c>
       <c r="C54" s="42"/>
     </row>
@@ -9614,7 +9605,7 @@
         <v>26</v>
       </c>
       <c r="B55" s="2">
-        <v>0.93497670227965801</v>
+        <v>0.93491992408248603</v>
       </c>
       <c r="C55" s="42"/>
     </row>
@@ -9623,7 +9614,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="2">
-        <v>0.53866868418078595</v>
+        <v>0.54792193598078898</v>
       </c>
       <c r="C56" s="42"/>
     </row>
@@ -9632,7 +9623,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2">
-        <v>0.93744388227965403</v>
+        <v>0.94523098895422197</v>
       </c>
       <c r="C57" s="42"/>
     </row>
@@ -9642,7 +9633,7 @@
       </c>
       <c r="B58" s="11">
         <f>AVERAGE(B48:B57)</f>
-        <v>0.6729117368444294</v>
+        <v>0.68040631945853325</v>
       </c>
       <c r="C58" s="44"/>
     </row>
@@ -9652,7 +9643,7 @@
       </c>
       <c r="B59" s="11">
         <f>STDEV(B48:B57)</f>
-        <v>0.17610633176230925</v>
+        <v>0.17234278877072695</v>
       </c>
       <c r="C59" s="44"/>
     </row>
@@ -9840,12 +9831,12 @@
       <c r="H1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="26"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics Table" sheetId="7" r:id="rId1"/>
-    <sheet name="Accuracy" sheetId="8" r:id="rId2"/>
-    <sheet name="Balanced Accuracy" sheetId="9" r:id="rId3"/>
+    <sheet name="Balanced Accuracy" sheetId="9" r:id="rId2"/>
+    <sheet name="Optimization" sheetId="10" r:id="rId3"/>
     <sheet name="Confusion Matrices" sheetId="6" r:id="rId4"/>
     <sheet name="Notes" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
   <si>
     <t>3 Session</t>
   </si>
@@ -132,9 +132,6 @@
     <t>SEM</t>
   </si>
   <si>
-    <t>STATISTICS: Friedman Test + Dunn's Multiple Comparison</t>
-  </si>
-  <si>
     <t>HEALTHY</t>
   </si>
   <si>
@@ -213,21 +210,6 @@
     <t>N = 10 Patients</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">PERSONAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(RF_Patient_Personal.m) - 100 Trees</t>
-    </r>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -244,21 +226,6 @@
   </si>
   <si>
     <t>Median</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PERSONAL-BRACE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(.m)</t>
-    </r>
   </si>
   <si>
     <t>CBR14</t>
@@ -353,12 +320,36 @@
   <si>
     <t>STATISTICS: Repeated Measures ANOVA + Paired One-Tailed t-Tests</t>
   </si>
+  <si>
+    <t>Healthy Model</t>
+  </si>
+  <si>
+    <t>10 Trees</t>
+  </si>
+  <si>
+    <t>50 Trees</t>
+  </si>
+  <si>
+    <t>100 Trees</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Impairment-Specific Model</t>
+  </si>
+  <si>
+    <t>Patient-Specific Model</t>
+  </si>
+  <si>
+    <t>Device-Specific Model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,8 +426,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +476,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +661,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -657,8 +669,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -752,12 +766,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,6 +793,34 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,6 +829,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -803,20 +842,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -830,1473 +868,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Population</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Accuracy Results</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Accuracy!$G$4:$G$7</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.0464045764875381</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0312728442654597</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.033061247451772</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0260327552167135</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Accuracy!$G$4:$G$7</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.0464045764875381</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0312728442654597</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.033061247451772</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0260327552167135</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Accuracy!$E$4:$E$7</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Healthy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Patients</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Personal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Accuracy!$F$4:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.547532076579909</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.806994661141707</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78270869826926</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.837158109184953</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2146016080"/>
-        <c:axId val="2146019328"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2146016080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2146019328"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2146019328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2146016080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Individual Accuracy Across Models</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Accuracy!$E$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Accuracy!$F$10:$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Healthy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Patients</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Personal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Accuracy!$F$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.43167701863354</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.73475935828877</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78416149068323</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.888975155279503</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Accuracy!$E$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR02</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Accuracy!$F$10:$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Healthy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Patients</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Personal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Accuracy!$F$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.387487386478305</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.672848664688427</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.626639757820384</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70736629667003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Accuracy!$E$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Accuracy!$F$10:$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Healthy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Patients</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Personal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Accuracy!$F$13:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.559646539027982</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.780723905723906</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.780559646539028</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.728276877761414</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Accuracy!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Accuracy!$F$10:$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Healthy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Patients</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Personal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Accuracy!$F$14:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.66206589492431</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.901486988847584</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84906500445236</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.809884238646483</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Accuracy!$E$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Accuracy!$F$10:$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Healthy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Patients</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Personal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Accuracy!$F$15:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.30607476635514</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.689655172413793</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.755841121495327</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.867990654205608</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Accuracy!$E$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Accuracy!$F$10:$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Healthy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Patients</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Personal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Accuracy!$F$16:$I$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.594979079497908</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.797323135755258</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.842677824267782</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.820083682008368</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Accuracy!$E$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Accuracy!$F$10:$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Healthy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Patients</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Personal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Accuracy!$F$17:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.781738586616635</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.751014884979702</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.686053783614759</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.965603502188868</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Accuracy!$E$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Accuracy!$F$10:$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Healthy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Patients</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Personal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Accuracy!$F$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.490860215053763</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.938718662952646</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.966129032258065</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.938172043010753</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Accuracy!$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Accuracy!$F$10:$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Healthy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Patients</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Personal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Accuracy!$F$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.698046181172291</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.863636363636364</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.663410301953819</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.838365896980462</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Accuracy!$E$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CBR19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Accuracy!$F$10:$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Healthy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Patients</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Personal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Accuracy!$F$20:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.562745098039216</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.939779474130619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.872549019607843</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.806862745098039</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2146597344"/>
-        <c:axId val="2146600464"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2146597344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2146600464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2146600464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2146597344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2401,16 +972,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.0440154780675294</c:v>
+                    <c:v>0.0423752839583731</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0544995750820788</c:v>
+                    <c:v>0.055216886173639</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0443986338971305</c:v>
+                    <c:v>0.0455533983007979</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.04113828652293</c:v>
+                    <c:v>0.0415368205268985</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.049402580275745</c:v>
@@ -2425,16 +996,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>0.0440154780675294</c:v>
+                    <c:v>0.0423752839583731</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0544995750820788</c:v>
+                    <c:v>0.055216886173639</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0443986338971305</c:v>
+                    <c:v>0.0455533983007979</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.04113828652293</c:v>
+                    <c:v>0.0415368205268985</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.049402580275745</c:v>
@@ -2486,16 +1057,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.520599892452138</c:v>
+                  <c:v>0.532415308715378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.680406319458533</c:v>
+                  <c:v>0.677106925402765</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.690020980248082</c:v>
+                  <c:v>0.694401811398349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.771107623930257</c:v>
+                  <c:v>0.772633997</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.791811381632352</c:v>
@@ -2514,11 +1085,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2146148560"/>
-        <c:axId val="2146151904"/>
+        <c:axId val="2131166496"/>
+        <c:axId val="2131172528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146148560"/>
+        <c:axId val="2131166496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +1132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146151904"/>
+        <c:crossAx val="2131172528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2569,7 +1140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146151904"/>
+        <c:axId val="2131172528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2621,7 +1192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146148560"/>
+        <c:crossAx val="2131166496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,7 +1241,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2814,16 +1385,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.392467547670856</c:v>
+                  <c:v>0.467430255062388</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.540178332899644</c:v>
+                  <c:v>0.530313046339665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.732942437307959</c:v>
+                  <c:v>0.719497165406454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.782519472224571</c:v>
+                  <c:v>0.791491012</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.748678038157329</c:v>
@@ -2901,16 +1472,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.335760574259692</c:v>
+                  <c:v>0.351863437751266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.472678882393687</c:v>
+                  <c:v>0.467247773836574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.469805099804863</c:v>
+                  <c:v>0.48424755873392</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.678583607044439</c:v>
+                  <c:v>0.672971039</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.484144426328693</c:v>
@@ -2988,16 +1559,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.473358422094751</c:v>
+                  <c:v>0.454717845190367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.510708405562731</c:v>
+                  <c:v>0.509366456198819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65182140402627</c:v>
+                  <c:v>0.653840632271873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.633428501225188</c:v>
+                  <c:v>0.627068343</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.71123407526946</c:v>
@@ -3075,16 +1646,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.543980413725965</c:v>
+                  <c:v>0.554163414122902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.605467981915294</c:v>
+                  <c:v>0.591657426613049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.623660028596378</c:v>
+                  <c:v>0.610928987137017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.620091518984901</c:v>
+                  <c:v>0.60808254</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.61083444976851</c:v>
@@ -3162,16 +1733,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.336207370737074</c:v>
+                  <c:v>0.3462174779978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.708256424691682</c:v>
+                  <c:v>0.716531645145065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.679144188457307</c:v>
+                  <c:v>0.713727037848015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.843466774562072</c:v>
+                  <c:v>0.86585963</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.862659727511213</c:v>
@@ -3255,16 +1826,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.636313434888196</c:v>
+                  <c:v>0.639058595032815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.792061223433773</c:v>
+                  <c:v>0.790451405059248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.780986579423564</c:v>
+                  <c:v>0.785543461429959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.799650463174342</c:v>
+                  <c:v>0.814940755</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.87447283699823</c:v>
@@ -3348,16 +1919,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.772387181166485</c:v>
+                  <c:v>0.782364818554051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.746639094671023</c:v>
+                  <c:v>0.745585440625725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.660615105396659</c:v>
+                  <c:v>0.661009730871056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.960537452560304</c:v>
+                  <c:v>0.962815201</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.987810122459661</c:v>
@@ -3435,16 +2006,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.604905729121168</c:v>
+                  <c:v>0.622455709679777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.934919924082486</c:v>
+                  <c:v>0.933107667988826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.907846095405301</c:v>
+                  <c:v>0.938204092520258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.978353599423871</c:v>
+                  <c:v>0.962217285</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.974304483674896</c:v>
@@ -3528,16 +2099,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.536644577471759</c:v>
+                  <c:v>0.532805373974489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.547921935980789</c:v>
+                  <c:v>0.543459209486738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.517227704960188</c:v>
+                  <c:v>0.509556798649351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.640843908560763</c:v>
+                  <c:v>0.6538926</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.630005042693175</c:v>
@@ -3621,16 +2192,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.573973673385438</c:v>
+                  <c:v>0.573076159787925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.945230988954222</c:v>
+                  <c:v>0.943349182733944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.876161159102336</c:v>
+                  <c:v>0.86746264911559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.773600941542118</c:v>
+                  <c:v>0.767001565</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.868241235888295</c:v>
@@ -3650,11 +2221,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2146254816"/>
-        <c:axId val="2146257968"/>
+        <c:axId val="2131275184"/>
+        <c:axId val="2131278336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2146254816"/>
+        <c:axId val="2131275184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3697,7 +2268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146257968"/>
+        <c:crossAx val="2131278336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3705,7 +2276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146257968"/>
+        <c:axId val="2131278336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3757,7 +2328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146254816"/>
+        <c:crossAx val="2131275184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3838,7 +2409,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3883,6 +2454,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4145,11 +2717,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2146292256"/>
-        <c:axId val="2146295680"/>
+        <c:axId val="2105274240"/>
+        <c:axId val="2105277664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146292256"/>
+        <c:axId val="2105274240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4192,7 +2764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146295680"/>
+        <c:crossAx val="2105277664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4200,7 +2772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146295680"/>
+        <c:axId val="2105277664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4251,7 +2823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146292256"/>
+        <c:crossAx val="2105274240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4265,6 +2837,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4451,86 +3024,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6040,1082 +4533,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4232</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>825499</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>4232</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7184,7 +4602,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7500,13 +4918,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7514,7 +4932,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="21">
         <v>66</v>
@@ -7525,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="21">
         <v>61</v>
@@ -7536,7 +4954,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="21">
         <v>41</v>
@@ -7547,7 +4965,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="21">
         <v>65</v>
@@ -7558,7 +4976,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="21">
         <v>43</v>
@@ -7569,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="21">
         <v>36</v>
@@ -7587,7 +5005,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="21">
         <v>57</v>
@@ -7598,7 +5016,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="21">
         <v>68</v>
@@ -7609,7 +5027,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="21">
         <v>44</v>
@@ -7629,10 +5047,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="21">
         <v>42</v>
@@ -7640,10 +5058,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="21">
         <v>67</v>
@@ -7651,10 +5069,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="21">
         <v>63</v>
@@ -7662,10 +5080,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="21">
         <v>19</v>
@@ -7673,10 +5091,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="21">
         <v>21</v>
@@ -7684,10 +5102,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="21">
         <v>35</v>
@@ -7695,10 +5113,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="21">
         <v>36</v>
@@ -7706,10 +5124,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="21">
         <v>62</v>
@@ -7717,10 +5135,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="21">
         <v>69</v>
@@ -7728,10 +5146,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="21">
         <v>55</v>
@@ -7739,10 +5157,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="21">
         <v>72</v>
@@ -7768,929 +5186,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:J59"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="22.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" style="3" customWidth="1"/>
-    <col min="11" max="14" width="10.83203125" style="3"/>
-    <col min="15" max="15" width="10.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="37"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0.88897515527950299</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="F3" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.70736629667003004</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2">
-        <f>B58</f>
-        <v>0.54753207657990899</v>
-      </c>
-      <c r="G4" s="2">
-        <f>B59/SQRT(10)</f>
-        <v>4.6404576487538068E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <f>MEDIAN(F11:F20)</f>
-        <v>0.56119581853359901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.72827687776141403</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="E5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="2">
-        <f>B43</f>
-        <v>0.80699466114170693</v>
-      </c>
-      <c r="G5" s="2">
-        <f>B44/SQRT(10)</f>
-        <v>3.1272844265459732E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <f>MEDIAN(G11:G20)</f>
-        <v>0.78902352073958204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.80988423864648296</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2">
-        <f>B28</f>
-        <v>0.78270869826925971</v>
-      </c>
-      <c r="G6" s="2">
-        <f>B29/SQRT(10)</f>
-        <v>3.3061247451771969E-2</v>
-      </c>
-      <c r="H6" s="2">
-        <f>MEDIAN(I11:I20)</f>
-        <v>0.82922478949441503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.86799065420560795</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="E7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="2">
-        <f>B13</f>
-        <v>0.83715810918495281</v>
-      </c>
-      <c r="G7" s="2">
-        <f>B14/SQRT(10)</f>
-        <v>2.603275521671352E-2</v>
-      </c>
-      <c r="H7" s="2" t="e">
-        <f>MEDIAN(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0.82008368200836801</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0.96560350218886803</v>
-      </c>
-      <c r="C9" s="42"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0.93817204301075297</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="F10" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0.83836589698046204</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="E11" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" ref="F11:F20" si="0">B48</f>
-        <v>0.43167701863354002</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" ref="G11:G20" si="1">B33</f>
-        <v>0.73475935828877004</v>
-      </c>
-      <c r="H11" s="38">
-        <f>B18</f>
-        <v>0.78416149068323004</v>
-      </c>
-      <c r="I11" s="38">
-        <f>B3</f>
-        <v>0.88897515527950299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0.80686274509803901</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="E12" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.387487386478305</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.67284866468842697</v>
-      </c>
-      <c r="H12" s="38">
-        <f t="shared" ref="H12:H20" si="2">B19</f>
-        <v>0.62663975782038395</v>
-      </c>
-      <c r="I12" s="38">
-        <f t="shared" ref="I12:I20" si="3">B4</f>
-        <v>0.70736629667003004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11">
-        <f>AVERAGE(B3:B12)</f>
-        <v>0.83715810918495281</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="E13" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.559646539027982</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.78072390572390604</v>
-      </c>
-      <c r="H13" s="38">
-        <f t="shared" si="2"/>
-        <v>0.78055964653902798</v>
-      </c>
-      <c r="I13" s="38">
-        <f t="shared" si="3"/>
-        <v>0.72827687776141403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11">
-        <f>STDEV(B3:B12)</f>
-        <v>8.2322800254445008E-2</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="E14" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66206589492431001</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.90148698884758405</v>
-      </c>
-      <c r="H14" s="38">
-        <f t="shared" si="2"/>
-        <v>0.84906500445235999</v>
-      </c>
-      <c r="I14" s="38">
-        <f t="shared" si="3"/>
-        <v>0.80988423864648296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="42"/>
-      <c r="E15" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.30607476635514003</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.68965517241379304</v>
-      </c>
-      <c r="H15" s="38">
-        <f t="shared" si="2"/>
-        <v>0.75584112149532701</v>
-      </c>
-      <c r="I15" s="38">
-        <f t="shared" si="3"/>
-        <v>0.86799065420560795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="37"/>
-      <c r="E16" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.59497907949790796</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.79732313575525804</v>
-      </c>
-      <c r="H16" s="38">
-        <f t="shared" si="2"/>
-        <v>0.84267782426778204</v>
-      </c>
-      <c r="I16" s="38">
-        <f t="shared" si="3"/>
-        <v>0.82008368200836801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.78173858661663498</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.75101488497970204</v>
-      </c>
-      <c r="H17" s="38">
-        <f t="shared" si="2"/>
-        <v>0.68605378361475899</v>
-      </c>
-      <c r="I17" s="38">
-        <f t="shared" si="3"/>
-        <v>0.96560350218886803</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0.78416149068323004</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="E18" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49086021505376298</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.93871866295264605</v>
-      </c>
-      <c r="H18" s="38">
-        <f t="shared" si="2"/>
-        <v>0.96612903225806501</v>
-      </c>
-      <c r="I18" s="38">
-        <f t="shared" si="3"/>
-        <v>0.93817204301075297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0.62663975782038395</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="E19" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.698046181172291</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.86363636363636398</v>
-      </c>
-      <c r="H19" s="38">
-        <f t="shared" si="2"/>
-        <v>0.663410301953819</v>
-      </c>
-      <c r="I19" s="38">
-        <f t="shared" si="3"/>
-        <v>0.83836589698046204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.78055964653902798</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="E20" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.56274509803921602</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.93977947413061902</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.87254901960784303</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="3"/>
-        <v>0.80686274509803901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.84906500445235999</v>
-      </c>
-      <c r="C21" s="42"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75584112149532701</v>
-      </c>
-      <c r="C22" s="42"/>
-    </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.84267782426778204</v>
-      </c>
-      <c r="C23" s="42"/>
-    </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.68605378361475899</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="E24" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.96612903225806501</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="E25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.663410301953819</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="E26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="9">
-        <v>0.87254901960784303</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="E27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="11">
-        <f>AVERAGE(B18:B27)</f>
-        <v>0.78270869826925971</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="E28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="11">
-        <f>STDEV(B18:B27)</f>
-        <v>0.10454884423403726</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="E29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="42"/>
-      <c r="E30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="37"/>
-      <c r="E31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="9">
-        <v>0.73475935828877004</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="E33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="9">
-        <v>0.67284866468842697</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="E34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0.78072390572390604</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="E35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="9">
-        <v>0.90148698884758405</v>
-      </c>
-      <c r="C36" s="42"/>
-      <c r="E36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="9">
-        <v>0.68965517241379304</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="E37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="9">
-        <v>0.79732313575525804</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="I38"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="9">
-        <v>0.75101488497970204</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="I39"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="9">
-        <v>0.93871866295264605</v>
-      </c>
-      <c r="C40" s="42"/>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="9">
-        <v>0.86363636363636398</v>
-      </c>
-      <c r="C41" s="42"/>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="9">
-        <v>0.93977947413061902</v>
-      </c>
-      <c r="C42" s="42"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="11">
-        <f>AVERAGE(B33:B42)</f>
-        <v>0.80699466114170693</v>
-      </c>
-      <c r="C43" s="44"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="11">
-        <f>STDEV(B33:B42)</f>
-        <v>9.8893416790588135E-2</v>
-      </c>
-      <c r="C44" s="44"/>
-    </row>
-    <row r="45" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="42"/>
-    </row>
-    <row r="46" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="37"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="9">
-        <v>0.43167701863354002</v>
-      </c>
-      <c r="C48" s="42"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" s="9">
-        <v>0.387487386478305</v>
-      </c>
-      <c r="C49" s="42"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="9">
-        <v>0.559646539027982</v>
-      </c>
-      <c r="C50" s="42"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="9">
-        <v>0.66206589492431001</v>
-      </c>
-      <c r="C51" s="42"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="9">
-        <v>0.30607476635514003</v>
-      </c>
-      <c r="C52" s="42"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="9">
-        <v>0.59497907949790796</v>
-      </c>
-      <c r="C53" s="42"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="9">
-        <v>0.78173858661663498</v>
-      </c>
-      <c r="C54" s="42"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="9">
-        <v>0.49086021505376298</v>
-      </c>
-      <c r="C55" s="42"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="9">
-        <v>0.698046181172291</v>
-      </c>
-      <c r="C56" s="42"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="9">
-        <v>0.56274509803921602</v>
-      </c>
-      <c r="C57" s="42"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="11">
-        <f>AVERAGE(B48:B57)</f>
-        <v>0.54753207657990899</v>
-      </c>
-      <c r="C58" s="44"/>
-    </row>
-    <row r="59" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="12">
-        <f>STDEV(B48:B57)</f>
-        <v>0.14674415555611647</v>
-      </c>
-      <c r="C59" s="45"/>
-    </row>
-  </sheetData>
-  <sortState ref="E4:H7">
-    <sortCondition ref="E4:E7"/>
-  </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E24:I24"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8709,27 +5210,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="35"/>
-      <c r="C1" s="46"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -8738,7 +5239,7 @@
       <c r="B3" s="9">
         <v>0.770121729359038</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="40"/>
       <c r="F3" s="36" t="s">
         <v>9</v>
       </c>
@@ -8746,7 +5247,7 @@
         <v>33</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -8756,21 +5257,21 @@
       <c r="B4" s="9">
         <v>0.54276170369142396</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="40"/>
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2">
         <f>B73</f>
-        <v>0.52059989245213845</v>
+        <v>0.53241530871537801</v>
       </c>
       <c r="G4" s="2">
         <f>B74/SQRT(10)</f>
-        <v>4.4015478067529437E-2</v>
+        <v>4.2375283958373158E-2</v>
       </c>
       <c r="H4" s="2">
         <f>MEDIAN(F11:F20)</f>
-        <v>0.54031249559886196</v>
+        <v>0.54348439404869553</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -8780,21 +5281,21 @@
       <c r="B5" s="9">
         <v>0.73658722821846301</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="41"/>
       <c r="E5" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="2">
         <f>B58</f>
-        <v>0.68040631945853325</v>
+        <v>0.67710692540276518</v>
       </c>
       <c r="G5" s="2">
         <f>B59/SQRT(10)</f>
-        <v>5.4499575082078762E-2</v>
+        <v>5.5216886173638999E-2</v>
       </c>
       <c r="H5" s="2">
         <f>MEDIAN(G11:G20)</f>
-        <v>0.6568622033034881</v>
+        <v>0.65409453587905697</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -8802,21 +5303,21 @@
         <v>8</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="42"/>
+      <c r="C6" s="40"/>
       <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2">
         <f>B43</f>
-        <v>0.69002098024808256</v>
+        <v>0.69440181139834933</v>
       </c>
       <c r="G6" s="2">
         <f>B44/SQRT(10)</f>
-        <v>4.4398633897130488E-2</v>
+        <v>4.5553398300797937E-2</v>
       </c>
       <c r="H6" s="2">
         <f>MEDIAN(H11:H20)</f>
-        <v>0.66987964692698299</v>
+        <v>0.68736838435953551</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -8826,21 +5327,21 @@
       <c r="B7" s="9">
         <v>0.88400926631124699</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="40"/>
       <c r="E7" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2">
         <f>B28</f>
-        <v>0.77110762393025689</v>
+        <v>0.77263399700000002</v>
       </c>
       <c r="G7" s="2">
         <f>B29/SQRT(10)</f>
-        <v>4.1138286522929966E-2</v>
+        <v>4.1536820526898485E-2</v>
       </c>
       <c r="H7" s="2">
         <f>MEDIAN(B18:B27)</f>
-        <v>0.77806020688334443</v>
+        <v>0.7792462885</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -8850,9 +5351,9 @@
       <c r="B8" s="9">
         <v>0.84796916022191304</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="40"/>
       <c r="E8" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2">
         <f>B13</f>
@@ -8869,12 +5370,12 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" s="9">
         <v>0.96954244381724797</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="40"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
@@ -8883,21 +5384,21 @@
       <c r="B10" s="9">
         <v>0.95062506347579601</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="40"/>
       <c r="F10" s="36" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -8907,58 +5408,58 @@
       <c r="B11" s="9">
         <v>0.55644460370774695</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="E11" s="56" t="s">
+      <c r="C11" s="40"/>
+      <c r="E11" s="48" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="38">
         <f t="shared" ref="F11:F20" si="0">B63</f>
-        <v>0.39246754767085601</v>
+        <v>0.467430255062388</v>
       </c>
       <c r="G11" s="38">
         <f t="shared" ref="G11:G20" si="1">B48</f>
-        <v>0.54017833289964401</v>
+        <v>0.53031304633966503</v>
       </c>
       <c r="H11" s="38">
         <f t="shared" ref="H11:H20" si="2">B33</f>
-        <v>0.73294243730795905</v>
+        <v>0.71949716540645403</v>
       </c>
       <c r="I11" s="38">
         <f t="shared" ref="I11:I20" si="3">B18</f>
-        <v>0.78251947222457097</v>
-      </c>
-      <c r="J11" s="47">
+        <v>0.79149101200000005</v>
+      </c>
+      <c r="J11" s="45">
         <v>0.74867803815732903</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" s="9">
         <v>0.86824123588829505</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="E12" s="56" t="s">
+      <c r="C12" s="40"/>
+      <c r="E12" s="48" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="38">
         <f t="shared" si="0"/>
-        <v>0.33576057425969202</v>
+        <v>0.35186343775126599</v>
       </c>
       <c r="G12" s="38">
         <f t="shared" si="1"/>
-        <v>0.47267888239368699</v>
+        <v>0.46724777383657401</v>
       </c>
       <c r="H12" s="38">
         <f t="shared" si="2"/>
-        <v>0.46980509980486301</v>
+        <v>0.48424755873392</v>
       </c>
       <c r="I12" s="38">
         <f t="shared" si="3"/>
-        <v>0.67858360704443899</v>
-      </c>
-      <c r="J12" s="47">
+        <v>0.67297103899999999</v>
+      </c>
+      <c r="J12" s="45">
         <v>0.48414442632869298</v>
       </c>
     </row>
@@ -8970,27 +5471,27 @@
         <f>AVERAGE(B3:B12)</f>
         <v>0.79181138163235221</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="E13" s="56" t="s">
+      <c r="C13" s="42"/>
+      <c r="E13" s="48" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="38">
         <f t="shared" si="0"/>
-        <v>0.47335842209475099</v>
+        <v>0.45471784519036701</v>
       </c>
       <c r="G13" s="38">
         <f t="shared" si="1"/>
-        <v>0.510708405562731</v>
+        <v>0.50936645619881904</v>
       </c>
       <c r="H13" s="38">
         <f t="shared" si="2"/>
-        <v>0.65182140402626998</v>
+        <v>0.65384063227187295</v>
       </c>
       <c r="I13" s="38">
         <f t="shared" si="3"/>
-        <v>0.63342850122518801</v>
-      </c>
-      <c r="J13" s="48">
+        <v>0.62706834300000003</v>
+      </c>
+      <c r="J13" s="46">
         <v>0.71123407526946003</v>
       </c>
     </row>
@@ -9002,83 +5503,83 @@
         <f>STDEV(B3:B12)</f>
         <v>0.1562246759606635</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="E14" s="56" t="s">
+      <c r="C14" s="42"/>
+      <c r="E14" s="48" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="38">
         <f t="shared" si="0"/>
-        <v>0.54398041372596495</v>
+        <v>0.55416341412290204</v>
       </c>
       <c r="G14" s="38">
         <f t="shared" si="1"/>
-        <v>0.60546798191529405</v>
+        <v>0.59165742661304899</v>
       </c>
       <c r="H14" s="38">
         <f t="shared" si="2"/>
-        <v>0.62366002859637804</v>
+        <v>0.61092898713701704</v>
       </c>
       <c r="I14" s="38">
         <f t="shared" si="3"/>
-        <v>0.620091518984901</v>
-      </c>
-      <c r="J14" s="49">
+        <v>0.60808253999999995</v>
+      </c>
+      <c r="J14" s="47">
         <v>0.61083444976850998</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="42"/>
-      <c r="E15" s="57" t="s">
+      <c r="C15" s="40"/>
+      <c r="E15" s="49" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="38">
         <f t="shared" si="0"/>
-        <v>0.33620737073707402</v>
+        <v>0.3462174779978</v>
       </c>
       <c r="G15" s="38">
         <f t="shared" si="1"/>
-        <v>0.70825642469168204</v>
+        <v>0.71653164514506495</v>
       </c>
       <c r="H15" s="38">
         <f t="shared" si="2"/>
-        <v>0.67914418845730695</v>
+        <v>0.71372703784801494</v>
       </c>
       <c r="I15" s="38">
         <f t="shared" si="3"/>
-        <v>0.84346677456207197</v>
-      </c>
-      <c r="J15" s="48">
+        <v>0.86585962999999999</v>
+      </c>
+      <c r="J15" s="46">
         <v>0.862659727511213</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="37"/>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="49" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="38">
         <f t="shared" si="0"/>
-        <v>0.63631343488819603</v>
+        <v>0.63905859503281504</v>
       </c>
       <c r="G16" s="38">
         <f t="shared" si="1"/>
-        <v>0.79206122343377305</v>
+        <v>0.79045140505924805</v>
       </c>
       <c r="H16" s="38">
         <f t="shared" si="2"/>
-        <v>0.78098657942356398</v>
+        <v>0.78554346142995901</v>
       </c>
       <c r="I16" s="38">
         <f t="shared" si="3"/>
-        <v>0.79965046317434196</v>
-      </c>
-      <c r="J16" s="48">
+        <v>0.81494075499999996</v>
+      </c>
+      <c r="J16" s="46">
         <v>0.87447283699822997</v>
       </c>
     </row>
@@ -9087,29 +5588,29 @@
       <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="57" t="s">
-        <v>69</v>
+      <c r="E17" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="F17" s="38">
         <f t="shared" si="0"/>
-        <v>0.77238718116648497</v>
+        <v>0.78236481855405104</v>
       </c>
       <c r="G17" s="38">
         <f t="shared" si="1"/>
-        <v>0.74663909467102296</v>
+        <v>0.74558544062572496</v>
       </c>
       <c r="H17" s="38">
         <f t="shared" si="2"/>
-        <v>0.66061510539665902</v>
+        <v>0.66100973087105597</v>
       </c>
       <c r="I17" s="38">
         <f t="shared" si="3"/>
-        <v>0.96053745256030398</v>
-      </c>
-      <c r="J17" s="48">
+        <v>0.96281520099999995</v>
+      </c>
+      <c r="J17" s="46">
         <v>0.98781012245966104</v>
       </c>
     </row>
@@ -9117,30 +5618,30 @@
       <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="9">
-        <v>0.78251947222457097</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="E18" s="57" t="s">
+      <c r="B18" s="65">
+        <v>0.79149101200000005</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="E18" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="38">
         <f t="shared" si="0"/>
-        <v>0.60490572912116802</v>
+        <v>0.62245570967977704</v>
       </c>
       <c r="G18" s="38">
         <f t="shared" si="1"/>
-        <v>0.93491992408248603</v>
+        <v>0.93310766798882605</v>
       </c>
       <c r="H18" s="38">
         <f t="shared" si="2"/>
-        <v>0.90784609540530103</v>
+        <v>0.93820409252025805</v>
       </c>
       <c r="I18" s="38">
         <f t="shared" si="3"/>
-        <v>0.97835359942387101</v>
-      </c>
-      <c r="J18" s="49">
+        <v>0.96221728500000003</v>
+      </c>
+      <c r="J18" s="47">
         <v>0.97430448367489597</v>
       </c>
     </row>
@@ -9148,30 +5649,30 @@
       <c r="A19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="9">
-        <v>0.67858360704443899</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="E19" s="56" t="s">
+      <c r="B19" s="65">
+        <v>0.67297103899999999</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="E19" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="38">
         <f t="shared" si="0"/>
-        <v>0.53664457747175898</v>
+        <v>0.53280537397448902</v>
       </c>
       <c r="G19" s="38">
         <f t="shared" si="1"/>
-        <v>0.54792193598078898</v>
+        <v>0.54345920948673798</v>
       </c>
       <c r="H19" s="38">
         <f t="shared" si="2"/>
-        <v>0.517227704960188</v>
+        <v>0.50955679864935099</v>
       </c>
       <c r="I19" s="38">
         <f t="shared" si="3"/>
-        <v>0.64084390856076301</v>
-      </c>
-      <c r="J19" s="49">
+        <v>0.65389260000000005</v>
+      </c>
+      <c r="J19" s="47">
         <v>0.63000504269317503</v>
       </c>
     </row>
@@ -9179,30 +5680,30 @@
       <c r="A20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="9">
-        <v>0.63342850122518801</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="E20" s="57" t="s">
-        <v>70</v>
+      <c r="B20" s="65">
+        <v>0.62706834300000003</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="E20" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="F20" s="38">
         <f t="shared" si="0"/>
-        <v>0.57397367338543803</v>
+        <v>0.57307615978792503</v>
       </c>
       <c r="G20" s="38">
         <f t="shared" si="1"/>
-        <v>0.94523098895422197</v>
+        <v>0.94334918273394397</v>
       </c>
       <c r="H20" s="38">
         <f t="shared" si="2"/>
-        <v>0.87616115910233605</v>
+        <v>0.86746264911559001</v>
       </c>
       <c r="I20" s="38">
         <f t="shared" si="3"/>
-        <v>0.773600941542118</v>
-      </c>
-      <c r="J20" s="48">
+        <v>0.76700156500000005</v>
+      </c>
+      <c r="J20" s="46">
         <v>0.86824123588829505</v>
       </c>
     </row>
@@ -9210,54 +5711,54 @@
       <c r="A21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="9">
-        <v>0.620091518984901</v>
-      </c>
-      <c r="C21" s="42"/>
+      <c r="B21" s="65">
+        <v>0.60808253999999995</v>
+      </c>
+      <c r="C21" s="40"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9">
-        <v>0.84346677456207197</v>
-      </c>
-      <c r="C22" s="42"/>
+      <c r="B22" s="65">
+        <v>0.86585962999999999</v>
+      </c>
+      <c r="C22" s="40"/>
     </row>
     <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="9">
-        <v>0.79965046317434196</v>
-      </c>
-      <c r="C23" s="42"/>
+      <c r="B23" s="65">
+        <v>0.81494075499999996</v>
+      </c>
+      <c r="C23" s="40"/>
     </row>
     <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="9">
-        <v>0.96053745256030398</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="E24" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
+        <v>66</v>
+      </c>
+      <c r="B24" s="65">
+        <v>0.96281520099999995</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="E24" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="9">
-        <v>0.97835359942387101</v>
-      </c>
-      <c r="C25" s="42"/>
+      <c r="B25" s="65">
+        <v>0.96221728500000003</v>
+      </c>
+      <c r="C25" s="40"/>
       <c r="E25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -9269,10 +5770,10 @@
       <c r="A26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="9">
-        <v>0.64084390856076301</v>
-      </c>
-      <c r="C26" s="42"/>
+      <c r="B26" s="65">
+        <v>0.65389260000000005</v>
+      </c>
+      <c r="C26" s="40"/>
       <c r="E26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -9282,12 +5783,12 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="9">
-        <v>0.773600941542118</v>
-      </c>
-      <c r="C27" s="42"/>
+        <v>67</v>
+      </c>
+      <c r="B27" s="65">
+        <v>0.76700156500000005</v>
+      </c>
+      <c r="C27" s="40"/>
       <c r="E27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -9301,9 +5802,9 @@
       </c>
       <c r="B28" s="11">
         <f>AVERAGE(B18:B27)</f>
-        <v>0.77110762393025689</v>
-      </c>
-      <c r="C28" s="44"/>
+        <v>0.77263399700000002</v>
+      </c>
+      <c r="C28" s="42"/>
       <c r="E28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -9317,9 +5818,9 @@
       </c>
       <c r="B29" s="11">
         <f>STDEV(B18:B27)</f>
-        <v>0.13009068444906735</v>
-      </c>
-      <c r="C29" s="44"/>
+        <v>0.13135095962663446</v>
+      </c>
+      <c r="C29" s="42"/>
       <c r="E29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -9330,7 +5831,7 @@
     <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="42"/>
+      <c r="C30" s="40"/>
       <c r="E30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -9340,7 +5841,7 @@
     </row>
     <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="37"/>
@@ -9356,7 +5857,7 @@
       <c r="B32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="6"/>
@@ -9370,10 +5871,10 @@
       <c r="A33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="9">
-        <v>0.73294243730795905</v>
-      </c>
-      <c r="C33" s="42"/>
+      <c r="B33" s="51">
+        <v>0.71949716540645403</v>
+      </c>
+      <c r="C33" s="40"/>
       <c r="E33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -9385,10 +5886,10 @@
       <c r="A34" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="9">
-        <v>0.46980509980486301</v>
-      </c>
-      <c r="C34" s="42"/>
+      <c r="B34" s="51">
+        <v>0.48424755873392</v>
+      </c>
+      <c r="C34" s="40"/>
       <c r="E34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -9400,10 +5901,10 @@
       <c r="A35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="9">
-        <v>0.65182140402626998</v>
-      </c>
-      <c r="C35" s="43"/>
+      <c r="B35" s="51">
+        <v>0.65384063227187295</v>
+      </c>
+      <c r="C35" s="41"/>
       <c r="E35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -9415,10 +5916,10 @@
       <c r="A36" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="9">
-        <v>0.62366002859637804</v>
-      </c>
-      <c r="C36" s="42"/>
+      <c r="B36" s="51">
+        <v>0.61092898713701704</v>
+      </c>
+      <c r="C36" s="40"/>
       <c r="E36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -9430,10 +5931,10 @@
       <c r="A37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="9">
-        <v>0.67914418845730695</v>
-      </c>
-      <c r="C37" s="42"/>
+      <c r="B37" s="51">
+        <v>0.71372703784801494</v>
+      </c>
+      <c r="C37" s="40"/>
       <c r="E37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -9445,22 +5946,22 @@
       <c r="A38" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="9">
-        <v>0.78098657942356398</v>
-      </c>
-      <c r="C38" s="42"/>
+      <c r="B38" s="51">
+        <v>0.78554346142995901</v>
+      </c>
+      <c r="C38" s="40"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38" s="18"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="9">
-        <v>0.66061510539665902</v>
-      </c>
-      <c r="C39" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B39" s="51">
+        <v>0.66100973087105597</v>
+      </c>
+      <c r="C39" s="40"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39" s="18"/>
@@ -9469,10 +5970,10 @@
       <c r="A40" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="9">
-        <v>0.90784609540530103</v>
-      </c>
-      <c r="C40" s="42"/>
+      <c r="B40" s="51">
+        <v>0.93820409252025805</v>
+      </c>
+      <c r="C40" s="40"/>
       <c r="I40"/>
       <c r="J40"/>
     </row>
@@ -9480,21 +5981,21 @@
       <c r="A41" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="9">
-        <v>0.517227704960188</v>
-      </c>
-      <c r="C41" s="42"/>
+      <c r="B41" s="51">
+        <v>0.50955679864935099</v>
+      </c>
+      <c r="C41" s="40"/>
       <c r="I41"/>
       <c r="J41"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="9">
-        <v>0.87616115910233605</v>
-      </c>
-      <c r="C42" s="42"/>
+        <v>67</v>
+      </c>
+      <c r="B42" s="51">
+        <v>0.86746264911559001</v>
+      </c>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
@@ -9502,9 +6003,9 @@
       </c>
       <c r="B43" s="11">
         <f>AVERAGE(B33:B42)</f>
-        <v>0.69002098024808256</v>
-      </c>
-      <c r="C43" s="44"/>
+        <v>0.69440181139834933</v>
+      </c>
+      <c r="C43" s="42"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
@@ -9512,18 +6013,18 @@
       </c>
       <c r="B44" s="11">
         <f>STDEV(B33:B42)</f>
-        <v>0.14040080811489031</v>
-      </c>
-      <c r="C44" s="44"/>
+        <v>0.14405249379136553</v>
+      </c>
+      <c r="C44" s="42"/>
     </row>
     <row r="45" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="10"/>
-      <c r="C45" s="42"/>
+      <c r="C45" s="40"/>
     </row>
     <row r="46" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="37"/>
@@ -9533,7 +6034,7 @@
       <c r="B47" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="39" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9541,91 +6042,91 @@
       <c r="A48" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="2">
-        <v>0.54017833289964401</v>
-      </c>
-      <c r="C48" s="42"/>
+      <c r="B48" s="51">
+        <v>0.53031304633966503</v>
+      </c>
+      <c r="C48" s="40"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="2">
-        <v>0.47267888239368699</v>
-      </c>
-      <c r="C49" s="42"/>
+      <c r="B49" s="51">
+        <v>0.46724777383657401</v>
+      </c>
+      <c r="C49" s="40"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="2">
-        <v>0.510708405562731</v>
-      </c>
-      <c r="C50" s="42"/>
+      <c r="B50" s="51">
+        <v>0.50936645619881904</v>
+      </c>
+      <c r="C50" s="40"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="2">
-        <v>0.60546798191529405</v>
-      </c>
-      <c r="C51" s="42"/>
+      <c r="B51" s="51">
+        <v>0.59165742661304899</v>
+      </c>
+      <c r="C51" s="40"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="2">
-        <v>0.70825642469168204</v>
-      </c>
-      <c r="C52" s="42"/>
+      <c r="B52" s="51">
+        <v>0.71653164514506495</v>
+      </c>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="2">
-        <v>0.79206122343377305</v>
-      </c>
-      <c r="C53" s="42"/>
+      <c r="B53" s="51">
+        <v>0.79045140505924805</v>
+      </c>
+      <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="2">
-        <v>0.74663909467102296</v>
-      </c>
-      <c r="C54" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B54" s="51">
+        <v>0.74558544062572496</v>
+      </c>
+      <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="2">
-        <v>0.93491992408248603</v>
-      </c>
-      <c r="C55" s="42"/>
+      <c r="B55" s="51">
+        <v>0.93310766798882605</v>
+      </c>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="2">
-        <v>0.54792193598078898</v>
-      </c>
-      <c r="C56" s="42"/>
+      <c r="B56" s="51">
+        <v>0.54345920948673798</v>
+      </c>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="2">
-        <v>0.94523098895422197</v>
-      </c>
-      <c r="C57" s="42"/>
+        <v>67</v>
+      </c>
+      <c r="B57" s="51">
+        <v>0.94334918273394397</v>
+      </c>
+      <c r="C57" s="40"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
@@ -9633,9 +6134,9 @@
       </c>
       <c r="B58" s="11">
         <f>AVERAGE(B48:B57)</f>
-        <v>0.68040631945853325</v>
-      </c>
-      <c r="C58" s="44"/>
+        <v>0.67710692540276518</v>
+      </c>
+      <c r="C58" s="42"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
@@ -9643,18 +6144,18 @@
       </c>
       <c r="B59" s="11">
         <f>STDEV(B48:B57)</f>
-        <v>0.17234278877072695</v>
-      </c>
-      <c r="C59" s="44"/>
+        <v>0.17461112561095887</v>
+      </c>
+      <c r="C59" s="42"/>
     </row>
     <row r="60" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="10"/>
-      <c r="C60" s="42"/>
+      <c r="C60" s="40"/>
     </row>
     <row r="61" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B61" s="35"/>
       <c r="C61" s="37"/>
@@ -9664,7 +6165,7 @@
       <c r="B62" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="39" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9672,91 +6173,91 @@
       <c r="A63" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="9">
-        <v>0.39246754767085601</v>
-      </c>
-      <c r="C63" s="42"/>
+      <c r="B63" s="51">
+        <v>0.467430255062388</v>
+      </c>
+      <c r="C63" s="40"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="9">
-        <v>0.33576057425969202</v>
-      </c>
-      <c r="C64" s="42"/>
+      <c r="B64" s="51">
+        <v>0.35186343775126599</v>
+      </c>
+      <c r="C64" s="40"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="9">
-        <v>0.47335842209475099</v>
-      </c>
-      <c r="C65" s="42"/>
+      <c r="B65" s="51">
+        <v>0.45471784519036701</v>
+      </c>
+      <c r="C65" s="40"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="9">
-        <v>0.54398041372596495</v>
-      </c>
-      <c r="C66" s="42"/>
+      <c r="B66" s="51">
+        <v>0.55416341412290204</v>
+      </c>
+      <c r="C66" s="40"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="9">
-        <v>0.33620737073707402</v>
-      </c>
-      <c r="C67" s="42"/>
+      <c r="B67" s="51">
+        <v>0.3462174779978</v>
+      </c>
+      <c r="C67" s="40"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="9">
-        <v>0.63631343488819603</v>
-      </c>
-      <c r="C68" s="42"/>
+      <c r="B68" s="51">
+        <v>0.63905859503281504</v>
+      </c>
+      <c r="C68" s="40"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="9">
-        <v>0.77238718116648497</v>
-      </c>
-      <c r="C69" s="42"/>
+        <v>66</v>
+      </c>
+      <c r="B69" s="51">
+        <v>0.78236481855405104</v>
+      </c>
+      <c r="C69" s="40"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="9">
-        <v>0.60490572912116802</v>
-      </c>
-      <c r="C70" s="42"/>
+      <c r="B70" s="51">
+        <v>0.62245570967977704</v>
+      </c>
+      <c r="C70" s="40"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="9">
-        <v>0.53664457747175898</v>
-      </c>
-      <c r="C71" s="42"/>
+      <c r="B71" s="51">
+        <v>0.53280537397448902</v>
+      </c>
+      <c r="C71" s="40"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="9">
-        <v>0.57397367338543803</v>
-      </c>
-      <c r="C72" s="42"/>
+        <v>67</v>
+      </c>
+      <c r="B72" s="51">
+        <v>0.57307615978792503</v>
+      </c>
+      <c r="C72" s="40"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
@@ -9764,9 +6265,9 @@
       </c>
       <c r="B73" s="11">
         <f>AVERAGE(B63:B72)</f>
-        <v>0.52059989245213845</v>
-      </c>
-      <c r="C73" s="44"/>
+        <v>0.53241530871537801</v>
+      </c>
+      <c r="C73" s="42"/>
     </row>
     <row r="74" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
@@ -9774,9 +6275,9 @@
       </c>
       <c r="B74" s="12">
         <f>STDEV(B63:B72)</f>
-        <v>0.13918916299457962</v>
-      </c>
-      <c r="C74" s="45"/>
+        <v>0.13400241380485495</v>
+      </c>
+      <c r="C74" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9786,6 +6287,649 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="16" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="B1" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="F1" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="J1" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="N1" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+    </row>
+    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.44888263313155102</v>
+      </c>
+      <c r="C3" s="52">
+        <v>0.467430255062388</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0.46670640585670098</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="53">
+        <v>0.51513696484531302</v>
+      </c>
+      <c r="G3" s="53">
+        <v>0.53031304633966503</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0.533330104627461</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53">
+        <v>0.56718943392624099</v>
+      </c>
+      <c r="K3" s="53">
+        <v>0.71255450895574102</v>
+      </c>
+      <c r="L3" s="52">
+        <v>0.71949716540645403</v>
+      </c>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53">
+        <v>0.68715846521201596</v>
+      </c>
+      <c r="O3" s="53">
+        <v>0.79110989216335104</v>
+      </c>
+      <c r="P3" s="52">
+        <v>0.79149101156747603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52">
+        <v>0.36069351427340901</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.35186343775126599</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.35139086889749199</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="53">
+        <v>0.46210049897763</v>
+      </c>
+      <c r="G4" s="53">
+        <v>0.46724777383657401</v>
+      </c>
+      <c r="H4" s="52">
+        <v>0.46757480722474898</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53">
+        <v>0.42676659677420098</v>
+      </c>
+      <c r="K4" s="53">
+        <v>0.48330792390281302</v>
+      </c>
+      <c r="L4" s="52">
+        <v>0.48424755873392</v>
+      </c>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53">
+        <v>0.51352412926205304</v>
+      </c>
+      <c r="O4" s="53">
+        <v>0.661895004113084</v>
+      </c>
+      <c r="P4" s="52">
+        <v>0.672971038844008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.44993408630557102</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.45471784519036701</v>
+      </c>
+      <c r="D5" s="52">
+        <v>0.45982961095450697</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="53">
+        <v>0.50423797962899397</v>
+      </c>
+      <c r="G5" s="53">
+        <v>0.50936645619881904</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0.50987573556288401</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53">
+        <v>0.550598927840798</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.64986096844451202</v>
+      </c>
+      <c r="L5" s="52">
+        <v>0.65384063227187295</v>
+      </c>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53">
+        <v>0.54294888639220595</v>
+      </c>
+      <c r="O5" s="53">
+        <v>0.62498250092264795</v>
+      </c>
+      <c r="P5" s="52">
+        <v>0.62706834267084199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.55025181584850702</v>
+      </c>
+      <c r="C6" s="52">
+        <v>0.55416341412290204</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.55409517384722895</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="52">
+        <v>0.59386586174910405</v>
+      </c>
+      <c r="G6" s="53">
+        <v>0.59165742661304899</v>
+      </c>
+      <c r="H6" s="53">
+        <v>0.58351943883820001</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53">
+        <v>0.486502866083388</v>
+      </c>
+      <c r="K6" s="53">
+        <v>0.59864977823499399</v>
+      </c>
+      <c r="L6" s="52">
+        <v>0.61092898713701704</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53">
+        <v>0.49338817250123301</v>
+      </c>
+      <c r="O6" s="53">
+        <v>0.60337090720823205</v>
+      </c>
+      <c r="P6" s="52">
+        <v>0.60808253975759696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="52">
+        <v>0.37516179021748303</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.3462174779978</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.335718898091732</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="53">
+        <v>0.70328916864934199</v>
+      </c>
+      <c r="G7" s="52">
+        <v>0.71653164514506495</v>
+      </c>
+      <c r="H7" s="53">
+        <v>0.71463771602685899</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53">
+        <v>0.64757640740035505</v>
+      </c>
+      <c r="K7" s="53">
+        <v>0.70735091922653803</v>
+      </c>
+      <c r="L7" s="52">
+        <v>0.71372703784801494</v>
+      </c>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53">
+        <v>0.743395272700347</v>
+      </c>
+      <c r="O7" s="53">
+        <v>0.86215218805534399</v>
+      </c>
+      <c r="P7" s="52">
+        <v>0.86585963019378898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0.63264448861358502</v>
+      </c>
+      <c r="C8" s="52">
+        <v>0.63905859503281504</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.63853848147789605</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="53">
+        <v>0.78010254461234796</v>
+      </c>
+      <c r="G8" s="53">
+        <v>0.79045140505924805</v>
+      </c>
+      <c r="H8" s="52">
+        <v>0.79218915885582597</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53">
+        <v>0.73328433021345196</v>
+      </c>
+      <c r="K8" s="53">
+        <v>0.78399652102373096</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0.78554346142995901</v>
+      </c>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53">
+        <v>0.73681298185241295</v>
+      </c>
+      <c r="O8" s="52">
+        <v>0.81588678026237504</v>
+      </c>
+      <c r="P8" s="53">
+        <v>0.81494075456473503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.75660367702535603</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.78236481855405104</v>
+      </c>
+      <c r="D9" s="52">
+        <v>0.787475805843732</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="53">
+        <v>0.72236438729641494</v>
+      </c>
+      <c r="G9" s="53">
+        <v>0.74558544062572496</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0.74705563217027404</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="52">
+        <v>0.67358463305834904</v>
+      </c>
+      <c r="K9" s="53">
+        <v>0.66084171061305197</v>
+      </c>
+      <c r="L9" s="53">
+        <v>0.66100973087105597</v>
+      </c>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53">
+        <v>0.88814527338136195</v>
+      </c>
+      <c r="O9" s="52">
+        <v>0.96314093029804604</v>
+      </c>
+      <c r="P9" s="53">
+        <v>0.96281520100493601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="52">
+        <v>0.63120482634527197</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.62245570967977704</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.62490498053375099</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="53">
+        <v>0.91846456827245004</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0.93310766798882605</v>
+      </c>
+      <c r="H10" s="52">
+        <v>0.93481820314332698</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53">
+        <v>0.80055134076269496</v>
+      </c>
+      <c r="K10" s="53">
+        <v>0.93651226495269901</v>
+      </c>
+      <c r="L10" s="52">
+        <v>0.93820409252025805</v>
+      </c>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53">
+        <v>0.86465964813330698</v>
+      </c>
+      <c r="O10" s="53">
+        <v>0.95839188347529802</v>
+      </c>
+      <c r="P10" s="52">
+        <v>0.96221728522149597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.51717646865522404</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.53280537397448902</v>
+      </c>
+      <c r="D11" s="52">
+        <v>0.53648519477053003</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="53">
+        <v>0.52151397150540701</v>
+      </c>
+      <c r="G11" s="53">
+        <v>0.54345920948673798</v>
+      </c>
+      <c r="H11" s="52">
+        <v>0.54787312234157803</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53">
+        <v>0.43692925146154699</v>
+      </c>
+      <c r="K11" s="53">
+        <v>0.50937270082582797</v>
+      </c>
+      <c r="L11" s="52">
+        <v>0.50955679864935099</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53">
+        <v>0.54621246729529604</v>
+      </c>
+      <c r="O11" s="53">
+        <v>0.65276003743841104</v>
+      </c>
+      <c r="P11" s="52">
+        <v>0.653892600205492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.56749454271219002</v>
+      </c>
+      <c r="C12" s="52">
+        <v>0.57307615978792503</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.570529096393802</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="53">
+        <v>0.93038414573742301</v>
+      </c>
+      <c r="G12" s="53">
+        <v>0.94334918273394397</v>
+      </c>
+      <c r="H12" s="52">
+        <v>0.94595699226643604</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53">
+        <v>0.68195936057406703</v>
+      </c>
+      <c r="K12" s="53">
+        <v>0.85320706842177396</v>
+      </c>
+      <c r="L12" s="52">
+        <v>0.86746264911559001</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53">
+        <v>0.69266799899446996</v>
+      </c>
+      <c r="O12" s="53">
+        <v>0.76419584533114004</v>
+      </c>
+      <c r="P12" s="52">
+        <v>0.76700156542803599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="54">
+        <f>AVERAGE(B3:B12)</f>
+        <v>0.52900478431281484</v>
+      </c>
+      <c r="C13" s="54">
+        <f t="shared" ref="C13:D13" si="0">AVERAGE(C3:C12)</f>
+        <v>0.53241530871537801</v>
+      </c>
+      <c r="D13" s="54">
+        <f t="shared" si="0"/>
+        <v>0.53256745166673725</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54">
+        <f>AVERAGE(F3:F12)</f>
+        <v>0.66514600912744259</v>
+      </c>
+      <c r="G13" s="54">
+        <f t="shared" ref="G13" si="1">AVERAGE(G3:G12)</f>
+        <v>0.67710692540276518</v>
+      </c>
+      <c r="H13" s="54">
+        <f t="shared" ref="H13" si="2">AVERAGE(H3:H12)</f>
+        <v>0.67768309110575931</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54">
+        <f>AVERAGE(J3:J12)</f>
+        <v>0.60049431480950921</v>
+      </c>
+      <c r="K13" s="54">
+        <f t="shared" ref="K13" si="3">AVERAGE(K3:K12)</f>
+        <v>0.68956543646016821</v>
+      </c>
+      <c r="L13" s="54">
+        <f t="shared" ref="L13" si="4">AVERAGE(L3:L12)</f>
+        <v>0.69440181139834933</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54">
+        <f>AVERAGE(N3:N12)</f>
+        <v>0.67089132957247022</v>
+      </c>
+      <c r="O13" s="54">
+        <f t="shared" ref="O13" si="5">AVERAGE(O3:O12)</f>
+        <v>0.7697885969267928</v>
+      </c>
+      <c r="P13" s="54">
+        <f t="shared" ref="P13" si="6">AVERAGE(P3:P12)</f>
+        <v>0.77263399694584078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="54">
+        <f>STDEV(B3:B12)</f>
+        <v>0.12460077787020375</v>
+      </c>
+      <c r="C14" s="54">
+        <f t="shared" ref="C14:P14" si="7">STDEV(C3:C12)</f>
+        <v>0.13400241380485495</v>
+      </c>
+      <c r="D14" s="54">
+        <f t="shared" si="7"/>
+        <v>0.13656785185581302</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54">
+        <f t="shared" si="7"/>
+        <v>0.17249734881897438</v>
+      </c>
+      <c r="G14" s="54">
+        <f t="shared" si="7"/>
+        <v>0.17461112561095887</v>
+      </c>
+      <c r="H14" s="54">
+        <f t="shared" si="7"/>
+        <v>0.17519487271441331</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54">
+        <f t="shared" si="7"/>
+        <v>0.12709538790738092</v>
+      </c>
+      <c r="K14" s="54">
+        <f t="shared" si="7"/>
+        <v>0.14267371788496416</v>
+      </c>
+      <c r="L14" s="54">
+        <f t="shared" si="7"/>
+        <v>0.14405249379136553</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54">
+        <f t="shared" si="7"/>
+        <v>0.14270118756389399</v>
+      </c>
+      <c r="O14" s="54">
+        <f t="shared" si="7"/>
+        <v>0.13253873248911291</v>
+      </c>
+      <c r="P14" s="54">
+        <f t="shared" si="7"/>
+        <v>0.13135095972049823</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9810,38 +6954,38 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="26"/>
       <c r="C2" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="28">
         <v>0.92047904191616803</v>
@@ -9862,16 +7006,16 @@
         <v>24</v>
       </c>
       <c r="L2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="26"/>
       <c r="C3" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="28">
         <v>0</v>
@@ -9889,7 +7033,7 @@
         <v>0.404878048780488</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="21">
         <f>D2</f>
@@ -9907,7 +7051,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="26"/>
       <c r="C4" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="28">
         <v>1.11856823266219E-2</v>
@@ -9925,7 +7069,7 @@
         <v>0.389261744966443</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="21">
         <f>E3</f>
@@ -9943,7 +7087,7 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="28">
         <v>0.155593551538837</v>
@@ -9961,7 +7105,7 @@
         <v>3.9325842696629199E-2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="21">
         <f>F4</f>
@@ -9979,7 +7123,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="30"/>
       <c r="C6" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="32">
         <v>1.59121470192739E-2</v>
@@ -9997,7 +7141,7 @@
         <v>0.90407888839085604</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="21">
         <f>G5</f>
@@ -10014,26 +7158,26 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="G7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>53</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" s="21">
         <f>H6</f>
@@ -10051,7 +7195,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="26"/>
       <c r="C8" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="28">
         <v>0.98469631755141096</v>
@@ -10072,7 +7216,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="26"/>
       <c r="C9" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="28">
         <v>0</v>
@@ -10093,7 +7237,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="26"/>
       <c r="C10" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="28">
         <v>2.1881838074398301E-3</v>
@@ -10114,7 +7258,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="28">
         <v>5.5961070559610703E-3</v>
@@ -10135,7 +7279,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="30"/>
       <c r="C12" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="32">
         <v>2.23264121455682E-4</v>
@@ -10155,29 +7299,29 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="F13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="G13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="H13" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="28">
         <v>0.85770363101079505</v>
@@ -10198,7 +7342,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="28">
         <v>0</v>
@@ -10219,7 +7363,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="28">
         <v>0</v>
@@ -10240,7 +7384,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="28">
         <v>4.7651463580667103E-2</v>
@@ -10261,7 +7405,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="32">
         <v>0</v>
@@ -10281,29 +7425,29 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="F19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="G19" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="H19" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="26"/>
       <c r="C20" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="28">
         <v>0.99313725490196103</v>
@@ -10324,7 +7468,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="28">
         <v>0</v>
@@ -10345,7 +7489,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="26"/>
       <c r="C22" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="28">
         <v>0</v>
@@ -10366,7 +7510,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="26"/>
       <c r="C23" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="28">
         <v>1.3518080432578601E-3</v>
@@ -10387,7 +7531,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="30"/>
       <c r="C24" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="32">
         <v>4.9652432969215501E-4</v>
@@ -10407,32 +7551,32 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="F26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="G26" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="H26" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="26"/>
       <c r="C27" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="28">
         <v>0.86743515850144104</v>
@@ -10453,7 +7597,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="26"/>
       <c r="C28" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="28">
         <v>2.4390243902438998E-3</v>
@@ -10474,7 +7618,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="26"/>
       <c r="C29" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="28">
         <v>1.5659955257270701E-2</v>
@@ -10495,7 +7639,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="26"/>
       <c r="C30" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="28">
         <v>0.160107553165485</v>
@@ -10516,7 +7660,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="30"/>
       <c r="C31" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="32">
         <v>5.1511758118700998E-3</v>
@@ -10536,32 +7680,32 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="F33" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="G33" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="H33" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="26"/>
       <c r="C34" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="28">
         <v>0.88136407300672404</v>
@@ -10582,7 +7726,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="26"/>
       <c r="C35" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="28">
         <v>5.3658536585365901E-2</v>
@@ -10603,7 +7747,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="26"/>
       <c r="C36" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="28">
         <v>2.2371364653243901E-2</v>
@@ -10624,7 +7768,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="26"/>
       <c r="C37" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="28">
         <v>0.26888291371302903</v>
@@ -10645,7 +7789,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="32">
         <v>1.7469204927211601E-2</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics Table" sheetId="7" r:id="rId1"/>
     <sheet name="Balanced Accuracy" sheetId="9" r:id="rId2"/>
-    <sheet name="Optimization" sheetId="10" r:id="rId3"/>
-    <sheet name="Confusion Matrices" sheetId="6" r:id="rId4"/>
-    <sheet name="Notes" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
+    <sheet name="Optimization" sheetId="10" r:id="rId4"/>
+    <sheet name="Confusion Matrices" sheetId="6" r:id="rId5"/>
+    <sheet name="Notes" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="87">
   <si>
     <t>3 Session</t>
   </si>
@@ -344,12 +345,18 @@
   <si>
     <t>Device-Specific Model</t>
   </si>
+  <si>
+    <t>Transfer Learning</t>
+  </si>
+  <si>
+    <t>Device Specific</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -434,15 +441,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +482,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +678,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -842,7 +848,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -978,10 +990,10 @@
                     <c:v>0.055216886173639</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0455533983007979</c:v>
+                    <c:v>0.0451173910760788</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0415368205268985</c:v>
+                    <c:v>0.0419124272857355</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.049402580275745</c:v>
@@ -1002,10 +1014,10 @@
                     <c:v>0.055216886173639</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.0455533983007979</c:v>
+                    <c:v>0.0451173910760788</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0415368205268985</c:v>
+                    <c:v>0.0419124272857355</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>0.049402580275745</c:v>
@@ -1063,10 +1075,10 @@
                   <c:v>0.677106925402765</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.694401811398349</c:v>
+                  <c:v>0.689565436460168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.772633997</c:v>
+                  <c:v>0.769788596926793</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.791811381632352</c:v>
@@ -1085,11 +1097,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2131166496"/>
-        <c:axId val="2131172528"/>
+        <c:axId val="2144483088"/>
+        <c:axId val="2144486352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2131166496"/>
+        <c:axId val="2144483088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131172528"/>
+        <c:crossAx val="2144486352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1140,7 +1152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131172528"/>
+        <c:axId val="2144486352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1192,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131166496"/>
+        <c:crossAx val="2144483088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1391,10 +1403,10 @@
                   <c:v>0.530313046339665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.719497165406454</c:v>
+                  <c:v>0.712554508955741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.791491012</c:v>
+                  <c:v>0.791109892163351</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.748678038157329</c:v>
@@ -1478,10 +1490,10 @@
                   <c:v>0.467247773836574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48424755873392</c:v>
+                  <c:v>0.483307923902813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.672971039</c:v>
+                  <c:v>0.661895004113084</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.484144426328693</c:v>
@@ -1565,10 +1577,10 @@
                   <c:v>0.509366456198819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.653840632271873</c:v>
+                  <c:v>0.649860968444512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.627068343</c:v>
+                  <c:v>0.624982500922648</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.71123407526946</c:v>
@@ -1652,10 +1664,10 @@
                   <c:v>0.591657426613049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.610928987137017</c:v>
+                  <c:v>0.598649778234994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60808254</c:v>
+                  <c:v>0.603370907208232</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.61083444976851</c:v>
@@ -1739,10 +1751,10 @@
                   <c:v>0.716531645145065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.713727037848015</c:v>
+                  <c:v>0.707350919226538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86585963</c:v>
+                  <c:v>0.862152188055344</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.862659727511213</c:v>
@@ -1832,10 +1844,10 @@
                   <c:v>0.790451405059248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.785543461429959</c:v>
+                  <c:v>0.783996521023731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.814940755</c:v>
+                  <c:v>0.815886780262375</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.87447283699823</c:v>
@@ -1925,10 +1937,10 @@
                   <c:v>0.745585440625725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.661009730871056</c:v>
+                  <c:v>0.660841710613052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.962815201</c:v>
+                  <c:v>0.963140930298046</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.987810122459661</c:v>
@@ -2012,10 +2024,10 @@
                   <c:v>0.933107667988826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.938204092520258</c:v>
+                  <c:v>0.936512264952699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.962217285</c:v>
+                  <c:v>0.958391883475298</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.974304483674896</c:v>
@@ -2105,10 +2117,10 @@
                   <c:v>0.543459209486738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.509556798649351</c:v>
+                  <c:v>0.509372700825828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6538926</c:v>
+                  <c:v>0.652760037438411</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.630005042693175</c:v>
@@ -2198,10 +2210,10 @@
                   <c:v>0.943349182733944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86746264911559</c:v>
+                  <c:v>0.853207068421774</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.767001565</c:v>
+                  <c:v>0.76419584533114</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.868241235888295</c:v>
@@ -2221,11 +2233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131275184"/>
-        <c:axId val="2131278336"/>
+        <c:axId val="2145868000"/>
+        <c:axId val="2145871152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131275184"/>
+        <c:axId val="2145868000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131278336"/>
+        <c:crossAx val="2145871152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2276,7 +2288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131278336"/>
+        <c:axId val="2145871152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2328,7 +2340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131275184"/>
+        <c:crossAx val="2145868000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2454,7 +2466,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2717,11 +2728,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2105274240"/>
-        <c:axId val="2105277664"/>
+        <c:axId val="2146764928"/>
+        <c:axId val="2146768352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105274240"/>
+        <c:axId val="2146764928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,7 +2775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105277664"/>
+        <c:crossAx val="2146768352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2772,7 +2783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105277664"/>
+        <c:axId val="2146768352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,7 +2834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105274240"/>
+        <c:crossAx val="2146764928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2837,7 +2848,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5190,8 +5200,8 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5309,15 +5319,15 @@
       </c>
       <c r="F6" s="2">
         <f>B43</f>
-        <v>0.69440181139834933</v>
+        <v>0.68956543646016821</v>
       </c>
       <c r="G6" s="2">
         <f>B44/SQRT(10)</f>
-        <v>4.5553398300797937E-2</v>
+        <v>4.5117391076078789E-2</v>
       </c>
       <c r="H6" s="2">
-        <f>MEDIAN(H11:H20)</f>
-        <v>0.68736838435953551</v>
+        <f>MEDIAN(H12:H21)</f>
+        <v>0.66084171061305197</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -5333,15 +5343,15 @@
       </c>
       <c r="F7" s="2">
         <f>B28</f>
-        <v>0.77263399700000002</v>
+        <v>0.7697885969267928</v>
       </c>
       <c r="G7" s="2">
         <f>B29/SQRT(10)</f>
-        <v>4.1536820526898485E-2</v>
+        <v>4.1912427285735472E-2</v>
       </c>
       <c r="H7" s="2">
         <f>MEDIAN(B18:B27)</f>
-        <v>0.7792462885</v>
+        <v>0.77765286874724548</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -5422,11 +5432,11 @@
       </c>
       <c r="H11" s="38">
         <f t="shared" ref="H11:H20" si="2">B33</f>
-        <v>0.71949716540645403</v>
+        <v>0.71255450895574102</v>
       </c>
       <c r="I11" s="38">
         <f t="shared" ref="I11:I20" si="3">B18</f>
-        <v>0.79149101200000005</v>
+        <v>0.79110989216335104</v>
       </c>
       <c r="J11" s="45">
         <v>0.74867803815732903</v>
@@ -5453,11 +5463,11 @@
       </c>
       <c r="H12" s="38">
         <f t="shared" si="2"/>
-        <v>0.48424755873392</v>
+        <v>0.48330792390281302</v>
       </c>
       <c r="I12" s="38">
         <f t="shared" si="3"/>
-        <v>0.67297103899999999</v>
+        <v>0.661895004113084</v>
       </c>
       <c r="J12" s="45">
         <v>0.48414442632869298</v>
@@ -5485,11 +5495,11 @@
       </c>
       <c r="H13" s="38">
         <f t="shared" si="2"/>
-        <v>0.65384063227187295</v>
+        <v>0.64986096844451202</v>
       </c>
       <c r="I13" s="38">
         <f t="shared" si="3"/>
-        <v>0.62706834300000003</v>
+        <v>0.62498250092264795</v>
       </c>
       <c r="J13" s="46">
         <v>0.71123407526946003</v>
@@ -5517,11 +5527,11 @@
       </c>
       <c r="H14" s="38">
         <f t="shared" si="2"/>
-        <v>0.61092898713701704</v>
+        <v>0.59864977823499399</v>
       </c>
       <c r="I14" s="38">
         <f t="shared" si="3"/>
-        <v>0.60808253999999995</v>
+        <v>0.60337090720823205</v>
       </c>
       <c r="J14" s="47">
         <v>0.61083444976850998</v>
@@ -5544,13 +5554,13 @@
       </c>
       <c r="H15" s="38">
         <f t="shared" si="2"/>
-        <v>0.71372703784801494</v>
+        <v>0.70735091922653803</v>
       </c>
       <c r="I15" s="38">
         <f t="shared" si="3"/>
-        <v>0.86585962999999999</v>
-      </c>
-      <c r="J15" s="46">
+        <v>0.86215218805534399</v>
+      </c>
+      <c r="J15" s="65">
         <v>0.862659727511213</v>
       </c>
     </row>
@@ -5573,11 +5583,11 @@
       </c>
       <c r="H16" s="38">
         <f t="shared" si="2"/>
-        <v>0.78554346142995901</v>
+        <v>0.78399652102373096</v>
       </c>
       <c r="I16" s="38">
         <f t="shared" si="3"/>
-        <v>0.81494075499999996</v>
+        <v>0.81588678026237504</v>
       </c>
       <c r="J16" s="46">
         <v>0.87447283699822997</v>
@@ -5604,11 +5614,11 @@
       </c>
       <c r="H17" s="38">
         <f t="shared" si="2"/>
-        <v>0.66100973087105597</v>
+        <v>0.66084171061305197</v>
       </c>
       <c r="I17" s="38">
         <f t="shared" si="3"/>
-        <v>0.96281520099999995</v>
+        <v>0.96314093029804604</v>
       </c>
       <c r="J17" s="46">
         <v>0.98781012245966104</v>
@@ -5618,8 +5628,8 @@
       <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="65">
-        <v>0.79149101200000005</v>
+      <c r="B18" s="51">
+        <v>0.79110989216335104</v>
       </c>
       <c r="C18" s="40"/>
       <c r="E18" s="49" t="s">
@@ -5635,11 +5645,11 @@
       </c>
       <c r="H18" s="38">
         <f t="shared" si="2"/>
-        <v>0.93820409252025805</v>
+        <v>0.93651226495269901</v>
       </c>
       <c r="I18" s="38">
         <f t="shared" si="3"/>
-        <v>0.96221728500000003</v>
+        <v>0.95839188347529802</v>
       </c>
       <c r="J18" s="47">
         <v>0.97430448367489597</v>
@@ -5649,8 +5659,8 @@
       <c r="A19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="65">
-        <v>0.67297103899999999</v>
+      <c r="B19" s="51">
+        <v>0.661895004113084</v>
       </c>
       <c r="C19" s="40"/>
       <c r="E19" s="48" t="s">
@@ -5666,11 +5676,11 @@
       </c>
       <c r="H19" s="38">
         <f t="shared" si="2"/>
-        <v>0.50955679864935099</v>
+        <v>0.50937270082582797</v>
       </c>
       <c r="I19" s="38">
         <f t="shared" si="3"/>
-        <v>0.65389260000000005</v>
+        <v>0.65276003743841104</v>
       </c>
       <c r="J19" s="47">
         <v>0.63000504269317503</v>
@@ -5680,8 +5690,8 @@
       <c r="A20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="65">
-        <v>0.62706834300000003</v>
+      <c r="B20" s="51">
+        <v>0.62498250092264795</v>
       </c>
       <c r="C20" s="41"/>
       <c r="E20" s="49" t="s">
@@ -5697,11 +5707,11 @@
       </c>
       <c r="H20" s="38">
         <f t="shared" si="2"/>
-        <v>0.86746264911559001</v>
+        <v>0.85320706842177396</v>
       </c>
       <c r="I20" s="38">
         <f t="shared" si="3"/>
-        <v>0.76700156500000005</v>
+        <v>0.76419584533114004</v>
       </c>
       <c r="J20" s="46">
         <v>0.86824123588829505</v>
@@ -5711,8 +5721,8 @@
       <c r="A21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="65">
-        <v>0.60808253999999995</v>
+      <c r="B21" s="51">
+        <v>0.60337090720823205</v>
       </c>
       <c r="C21" s="40"/>
     </row>
@@ -5720,8 +5730,8 @@
       <c r="A22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="65">
-        <v>0.86585962999999999</v>
+      <c r="B22" s="51">
+        <v>0.86215218805534399</v>
       </c>
       <c r="C22" s="40"/>
     </row>
@@ -5729,8 +5739,8 @@
       <c r="A23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="65">
-        <v>0.81494075499999996</v>
+      <c r="B23" s="51">
+        <v>0.81588678026237504</v>
       </c>
       <c r="C23" s="40"/>
     </row>
@@ -5738,8 +5748,8 @@
       <c r="A24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="65">
-        <v>0.96281520099999995</v>
+      <c r="B24" s="51">
+        <v>0.96314093029804604</v>
       </c>
       <c r="C24" s="40"/>
       <c r="E24" s="58" t="s">
@@ -5755,8 +5765,8 @@
       <c r="A25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="65">
-        <v>0.96221728500000003</v>
+      <c r="B25" s="51">
+        <v>0.95839188347529802</v>
       </c>
       <c r="C25" s="40"/>
       <c r="E25" s="6"/>
@@ -5770,8 +5780,8 @@
       <c r="A26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="65">
-        <v>0.65389260000000005</v>
+      <c r="B26" s="51">
+        <v>0.65276003743841104</v>
       </c>
       <c r="C26" s="40"/>
       <c r="E26" s="6"/>
@@ -5785,8 +5795,8 @@
       <c r="A27" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="65">
-        <v>0.76700156500000005</v>
+      <c r="B27" s="51">
+        <v>0.76419584533114004</v>
       </c>
       <c r="C27" s="40"/>
       <c r="E27" s="6"/>
@@ -5802,7 +5812,7 @@
       </c>
       <c r="B28" s="11">
         <f>AVERAGE(B18:B27)</f>
-        <v>0.77263399700000002</v>
+        <v>0.7697885969267928</v>
       </c>
       <c r="C28" s="42"/>
       <c r="E28" s="6"/>
@@ -5818,7 +5828,7 @@
       </c>
       <c r="B29" s="11">
         <f>STDEV(B18:B27)</f>
-        <v>0.13135095962663446</v>
+        <v>0.13253873248911291</v>
       </c>
       <c r="C29" s="42"/>
       <c r="E29" s="6"/>
@@ -5872,7 +5882,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="51">
-        <v>0.71949716540645403</v>
+        <v>0.71255450895574102</v>
       </c>
       <c r="C33" s="40"/>
       <c r="E33" s="6"/>
@@ -5887,7 +5897,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="51">
-        <v>0.48424755873392</v>
+        <v>0.48330792390281302</v>
       </c>
       <c r="C34" s="40"/>
       <c r="E34" s="6"/>
@@ -5902,7 +5912,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="51">
-        <v>0.65384063227187295</v>
+        <v>0.64986096844451202</v>
       </c>
       <c r="C35" s="41"/>
       <c r="E35" s="6"/>
@@ -5917,7 +5927,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="51">
-        <v>0.61092898713701704</v>
+        <v>0.59864977823499399</v>
       </c>
       <c r="C36" s="40"/>
       <c r="E36" s="6"/>
@@ -5932,7 +5942,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="51">
-        <v>0.71372703784801494</v>
+        <v>0.70735091922653803</v>
       </c>
       <c r="C37" s="40"/>
       <c r="E37" s="6"/>
@@ -5947,7 +5957,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="51">
-        <v>0.78554346142995901</v>
+        <v>0.78399652102373096</v>
       </c>
       <c r="C38" s="40"/>
       <c r="I38"/>
@@ -5959,7 +5969,7 @@
         <v>66</v>
       </c>
       <c r="B39" s="51">
-        <v>0.66100973087105597</v>
+        <v>0.66084171061305197</v>
       </c>
       <c r="C39" s="40"/>
       <c r="I39"/>
@@ -5971,7 +5981,7 @@
         <v>26</v>
       </c>
       <c r="B40" s="51">
-        <v>0.93820409252025805</v>
+        <v>0.93651226495269901</v>
       </c>
       <c r="C40" s="40"/>
       <c r="I40"/>
@@ -5982,7 +5992,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="51">
-        <v>0.50955679864935099</v>
+        <v>0.50937270082582797</v>
       </c>
       <c r="C41" s="40"/>
       <c r="I41"/>
@@ -5993,7 +6003,7 @@
         <v>67</v>
       </c>
       <c r="B42" s="51">
-        <v>0.86746264911559001</v>
+        <v>0.85320706842177396</v>
       </c>
       <c r="C42" s="40"/>
     </row>
@@ -6003,7 +6013,7 @@
       </c>
       <c r="B43" s="11">
         <f>AVERAGE(B33:B42)</f>
-        <v>0.69440181139834933</v>
+        <v>0.68956543646016821</v>
       </c>
       <c r="C43" s="42"/>
     </row>
@@ -6013,7 +6023,7 @@
       </c>
       <c r="B44" s="11">
         <f>STDEV(B33:B42)</f>
-        <v>0.14405249379136553</v>
+        <v>0.14267371788496416</v>
       </c>
       <c r="C44" s="42"/>
     </row>
@@ -6292,13 +6302,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>0.82575775095072002</v>
+      </c>
+      <c r="B2" s="66">
+        <v>0.68911612214775497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>0.59558428707874</v>
+      </c>
+      <c r="B3" s="66">
+        <v>0.45311623242772497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>0.65823555071394002</v>
+      </c>
+      <c r="B4" s="66">
+        <v>0.56359799265156896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>0.65334874596504899</v>
+      </c>
+      <c r="B5" s="66">
+        <v>0.57230111351229396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>0.92072231173157304</v>
+      </c>
+      <c r="B6" s="66">
+        <v>0.88431408591569705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>0.83692040921755795</v>
+      </c>
+      <c r="B7" s="52">
+        <v>0.85125460971438505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>0.98318444075785705</v>
+      </c>
+      <c r="B8" s="67">
+        <v>0.96896795781141698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>0.94614017145002005</v>
+      </c>
+      <c r="B9" s="67">
+        <v>0.96329870989334299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>0.73395990710655801</v>
+      </c>
+      <c r="B10" s="52">
+        <v>0.57101040663668801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>0.77740154323778099</v>
+      </c>
+      <c r="B11" s="52">
+        <v>0.82705175467251801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6933,7 +7050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF0070C0"/>
@@ -7817,7 +7934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics Table" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="87">
   <si>
     <t>3 Session</t>
   </si>
@@ -667,7 +667,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -677,8 +677,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -827,6 +829,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,25 +853,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1097,11 +1110,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2144483088"/>
-        <c:axId val="2144486352"/>
+        <c:axId val="2128943152"/>
+        <c:axId val="2128937296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144483088"/>
+        <c:axId val="2128943152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144486352"/>
+        <c:crossAx val="2128937296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1152,7 +1165,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144486352"/>
+        <c:axId val="2128937296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1204,7 +1217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144483088"/>
+        <c:crossAx val="2128943152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2233,11 +2246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2145868000"/>
-        <c:axId val="2145871152"/>
+        <c:axId val="2132328944"/>
+        <c:axId val="2132332096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2145868000"/>
+        <c:axId val="2132328944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,7 +2293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145871152"/>
+        <c:crossAx val="2132332096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2288,7 +2301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145871152"/>
+        <c:axId val="2132332096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2340,7 +2353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145868000"/>
+        <c:crossAx val="2132328944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2728,11 +2741,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2146764928"/>
-        <c:axId val="2146768352"/>
+        <c:axId val="2132375152"/>
+        <c:axId val="2132378576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146764928"/>
+        <c:axId val="2132375152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +2788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146768352"/>
+        <c:crossAx val="2132378576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2783,7 +2796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146768352"/>
+        <c:axId val="2132378576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,7 +2847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146764928"/>
+        <c:crossAx val="2132375152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5200,9 +5213,7 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5233,14 +5244,14 @@
       <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -5560,7 +5571,7 @@
         <f t="shared" si="3"/>
         <v>0.86215218805534399</v>
       </c>
-      <c r="J15" s="65">
+      <c r="J15" s="58">
         <v>0.862659727511213</v>
       </c>
     </row>
@@ -5752,14 +5763,14 @@
         <v>0.96314093029804604</v>
       </c>
       <c r="C24" s="40"/>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
@@ -6302,10 +6313,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6314,91 +6325,124 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="38">
+        <v>0.71255450895574102</v>
+      </c>
+      <c r="B2" s="66">
         <v>0.82575775095072002</v>
       </c>
-      <c r="B2" s="66">
+      <c r="C2" s="67">
         <v>0.68911612214775497</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="38">
+        <v>0.48330792390281302</v>
+      </c>
+      <c r="B3" s="66">
         <v>0.59558428707874</v>
       </c>
-      <c r="B3" s="66">
+      <c r="C3" s="67">
         <v>0.45311623242772497</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="38">
+        <v>0.64986096844451202</v>
+      </c>
+      <c r="B4" s="66">
         <v>0.65823555071394002</v>
       </c>
-      <c r="B4" s="66">
+      <c r="C4" s="67">
         <v>0.56359799265156896</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="38">
+        <v>0.59864977823499399</v>
+      </c>
+      <c r="B5" s="66">
         <v>0.65334874596504899</v>
       </c>
-      <c r="B5" s="66">
+      <c r="C5" s="67">
         <v>0.57230111351229396</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="38">
+        <v>0.70735091922653803</v>
+      </c>
+      <c r="B6" s="66">
         <v>0.92072231173157304</v>
       </c>
-      <c r="B6" s="66">
+      <c r="C6" s="67">
         <v>0.88431408591569705</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="38">
+        <v>0.78399652102373096</v>
+      </c>
+      <c r="B7" s="66">
         <v>0.83692040921755795</v>
       </c>
-      <c r="B7" s="52">
+      <c r="C7" s="68">
         <v>0.85125460971438505</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="38">
+        <v>0.66084171061305197</v>
+      </c>
+      <c r="B8" s="66">
         <v>0.98318444075785705</v>
       </c>
-      <c r="B8" s="67">
+      <c r="C8" s="69">
         <v>0.96896795781141698</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="38">
+        <v>0.93651226495269901</v>
+      </c>
+      <c r="B9" s="66">
         <v>0.94614017145002005</v>
       </c>
-      <c r="B9" s="67">
+      <c r="C9" s="69">
         <v>0.96329870989334299</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="38">
+        <v>0.50937270082582797</v>
+      </c>
+      <c r="B10" s="66">
         <v>0.73395990710655801</v>
       </c>
-      <c r="B10" s="52">
+      <c r="C10" s="67">
         <v>0.57101040663668801</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="38">
+        <v>0.85320706842177396</v>
+      </c>
+      <c r="B11" s="66">
         <v>0.77740154323778099</v>
       </c>
-      <c r="B11" s="52">
+      <c r="C11" s="70">
         <v>0.82705175467251801</v>
       </c>
     </row>
@@ -6424,26 +6468,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="F1" s="61" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="F1" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="J1" s="61" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="N1" s="61" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55"/>
@@ -7092,12 +7136,12 @@
       <c r="H1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="26"/>
